--- a/00_assignment/0. Data structures programs/MCS_001_Data Structures_Algorithms.xlsx
+++ b/00_assignment/0. Data structures programs/MCS_001_Data Structures_Algorithms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="B. String_63" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="301">
   <si>
     <t>Program #</t>
   </si>
@@ -917,6 +917,18 @@
   </si>
   <si>
     <t>40min</t>
+  </si>
+  <si>
+    <t>20  min</t>
+  </si>
+  <si>
+    <t>16 min</t>
+  </si>
+  <si>
+    <t>13  min</t>
+  </si>
+  <si>
+    <t>23 min</t>
   </si>
 </sst>
 </file>
@@ -1388,7 +1400,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
@@ -3106,7 +3118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6487,7 +6499,7 @@
   <dimension ref="B1:G976"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
@@ -8348,8 +8360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -8436,6 +8448,9 @@
       <c r="C6" s="23" t="s">
         <v>248</v>
       </c>
+      <c r="D6" s="36" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="14.4">
       <c r="A7" s="22">
@@ -8447,6 +8462,9 @@
       <c r="C7" s="23" t="s">
         <v>249</v>
       </c>
+      <c r="D7" s="36" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="14.4">
       <c r="A8" s="22">
@@ -8458,6 +8476,9 @@
       <c r="C8" s="23" t="s">
         <v>263</v>
       </c>
+      <c r="D8" s="36" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="14.4">
       <c r="A9" s="22">
@@ -8468,6 +8489,9 @@
       </c>
       <c r="C9" s="23" t="s">
         <v>250</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.4">
@@ -8480,6 +8504,9 @@
       <c r="C10" s="23" t="s">
         <v>251</v>
       </c>
+      <c r="D10" s="36" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="14.4">
       <c r="A11" s="22">
@@ -8491,6 +8518,9 @@
       <c r="C11" s="23" t="s">
         <v>252</v>
       </c>
+      <c r="D11" s="36" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="14.4">
       <c r="A12" s="22">
@@ -8502,6 +8532,9 @@
       <c r="C12" s="23" t="s">
         <v>253</v>
       </c>
+      <c r="D12" s="36" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="14.4">
       <c r="A13" s="22">
@@ -8513,6 +8546,9 @@
       <c r="C13" s="23" t="s">
         <v>254</v>
       </c>
+      <c r="D13" s="36" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="14.4">
       <c r="A14" s="22">
@@ -8524,6 +8560,9 @@
       <c r="C14" s="23" t="s">
         <v>255</v>
       </c>
+      <c r="D14" s="36" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="14.4">
       <c r="A15" s="22">
@@ -8535,6 +8574,9 @@
       <c r="C15" s="23" t="s">
         <v>256</v>
       </c>
+      <c r="D15" s="36" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="14.4">
       <c r="A16" s="22">
@@ -8546,8 +8588,11 @@
       <c r="C16" s="23" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.4">
+      <c r="D16" s="36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.4">
       <c r="A17" s="22">
         <v>16</v>
       </c>
@@ -8557,8 +8602,11 @@
       <c r="C17" s="23" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="14.4">
+      <c r="D17" s="36" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.4">
       <c r="A18" s="22">
         <v>17</v>
       </c>
@@ -8568,8 +8616,11 @@
       <c r="C18" s="23" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.4">
+      <c r="D18" s="36" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.4">
       <c r="A19" s="22">
         <v>18</v>
       </c>
@@ -8579,8 +8630,11 @@
       <c r="C19" s="23" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="14.4">
+      <c r="D19" s="36" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14.4">
       <c r="A20" s="22">
         <v>19</v>
       </c>
@@ -8590,8 +8644,11 @@
       <c r="C20" s="23" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.4">
+      <c r="D20" s="36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.4">
       <c r="A21" s="22">
         <v>20</v>
       </c>
@@ -8600,6 +8657,9 @@
       </c>
       <c r="C21" s="23" t="s">
         <v>262</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/00_assignment/0. Data structures programs/MCS_001_Data Structures_Algorithms.xlsx
+++ b/00_assignment/0. Data structures programs/MCS_001_Data Structures_Algorithms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="B. String_63" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="302">
   <si>
     <t>Program #</t>
   </si>
@@ -929,6 +929,9 @@
   </si>
   <si>
     <t>23 min</t>
+  </si>
+  <si>
+    <t>22 min</t>
   </si>
 </sst>
 </file>
@@ -6498,11 +6501,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G976"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -6510,7 +6513,7 @@
     <col min="1" max="1" width="2.8984375" customWidth="1"/>
     <col min="2" max="2" width="7.8984375" customWidth="1"/>
     <col min="3" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="30.69921875" customWidth="1"/>
+    <col min="5" max="5" width="88.69921875" customWidth="1"/>
     <col min="6" max="6" width="13.3984375" customWidth="1"/>
     <col min="7" max="7" width="32.09765625" customWidth="1"/>
     <col min="8" max="22" width="7.59765625" customWidth="1"/>
@@ -6549,7 +6552,9 @@
       <c r="E2" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="23" t="s">
+        <v>282</v>
+      </c>
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="14.4">
@@ -6562,10 +6567,12 @@
       <c r="D3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="23" t="s">
+        <v>301</v>
+      </c>
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="2:7" ht="14.4">
@@ -6578,10 +6585,12 @@
       <c r="D4" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="23" t="s">
+        <v>289</v>
+      </c>
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="2:7" ht="14.4">
@@ -6594,10 +6603,12 @@
       <c r="D5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="23" t="s">
+        <v>284</v>
+      </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="2:7" ht="14.4">
@@ -6610,10 +6621,12 @@
       <c r="D6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="23" t="s">
+        <v>293</v>
+      </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="2:7" ht="14.4">
@@ -6626,10 +6639,12 @@
       <c r="D7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="23" t="s">
+        <v>282</v>
+      </c>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="2:7" ht="14.4">
@@ -6642,10 +6657,12 @@
       <c r="D8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="23" t="s">
+        <v>289</v>
+      </c>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="2:7" ht="14.4">
@@ -6658,10 +6675,12 @@
       <c r="D9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="23" t="s">
+        <v>267</v>
+      </c>
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="2:7" ht="14.4">
@@ -6674,10 +6693,12 @@
       <c r="D10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="23" t="s">
+        <v>285</v>
+      </c>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="2:7" ht="14.4">
@@ -6690,10 +6711,12 @@
       <c r="D11" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="11"/>
+      <c r="F11" s="23" t="s">
+        <v>289</v>
+      </c>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="2:7" ht="14.4">
@@ -8360,7 +8383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>

--- a/00_assignment/0. Data structures programs/MCS_001_Data Structures_Algorithms.xlsx
+++ b/00_assignment/0. Data structures programs/MCS_001_Data Structures_Algorithms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="B. String_63" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'10.FUNCTIONS'!$A$1:$C$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'B. String_63'!$A$1:$G$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'C. List_75'!$A$1:$F$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'C. List_75'!$A$1:$G$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'D. Tuple,set,Arrays52'!$B$1:$G$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'E. Dictionary_33'!$B$1:$F$34</definedName>
     <definedName name="S.No" localSheetId="4">'10.FUNCTIONS'!$B$2</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="302">
   <si>
     <t>Program #</t>
   </si>
@@ -58,6 +58,9 @@
     <t>Sum of elements</t>
   </si>
   <si>
+    <t>Open</t>
+  </si>
+  <si>
     <t>Mulitply of elements</t>
   </si>
   <si>
@@ -694,6 +697,9 @@
     <t xml:space="preserve"> find the maximum occurring character in a given string</t>
   </si>
   <si>
+    <t xml:space="preserve">Get the current memory address and the length in elements of the buffer used to hold an arrays? contents and also find the size </t>
+  </si>
+  <si>
     <t>Find maximum and the minimum value in a set</t>
   </si>
   <si>
@@ -742,9 +748,18 @@
     <t>Completed</t>
   </si>
   <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>IN progress</t>
+  </si>
+  <si>
     <t>S.No</t>
   </si>
   <si>
+    <t>in progress</t>
+  </si>
+  <si>
     <t>check given word is palindrome or not</t>
   </si>
   <si>
@@ -917,15 +932,6 @@
   </si>
   <si>
     <t>22 min</t>
-  </si>
-  <si>
-    <t>1 min</t>
-  </si>
-  <si>
-    <t>2 min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get the current memory address and the length in elements of the buffer used to hold an arrays? contents and also   find the size </t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1021,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1031,6 +1037,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,7 +1135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1141,6 +1153,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1169,6 +1182,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
@@ -1408,1687 +1422,1687 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4">
-      <c r="A1" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.4">
-      <c r="A2" s="31">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>61</v>
+      <c r="B2" s="29" t="s">
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>263</v>
+        <v>239</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>268</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4">
-      <c r="A3" s="31">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>61</v>
+      <c r="B3" s="29" t="s">
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>262</v>
+        <v>239</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>267</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.4">
-      <c r="A4" s="31">
+      <c r="A4" s="32">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
-        <v>61</v>
+      <c r="B4" s="29" t="s">
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F4" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.4">
-      <c r="A5" s="31">
+      <c r="A5" s="32">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>281</v>
+        <v>239</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>286</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H5">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.4">
-      <c r="A6" s="31">
+      <c r="A6" s="32">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>279</v>
+        <v>239</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H6">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.4">
-      <c r="A7" s="31">
+      <c r="A7" s="32">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>262</v>
+        <v>239</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>267</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H7">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.4">
-      <c r="A8" s="31">
+      <c r="A8" s="32">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>282</v>
+        <v>239</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>287</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H8">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.4">
-      <c r="A9" s="31">
+      <c r="A9" s="32">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>265</v>
+        <v>239</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>270</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H9">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.4">
-      <c r="A10" s="31">
+      <c r="A10" s="32">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>277</v>
+        <v>239</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H10">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.4">
-      <c r="A11" s="31">
+      <c r="A11" s="32">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>266</v>
+        <v>239</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>271</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.4">
-      <c r="A12" s="31">
+      <c r="A12" s="32">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>267</v>
+        <v>239</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>272</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H12">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.4">
-      <c r="A13" s="31">
+      <c r="A13" s="32">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>268</v>
+        <v>239</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>273</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H13">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.4">
-      <c r="A14" s="31">
+      <c r="A14" s="32">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F14" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.4">
+      <c r="A15" s="32">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.4">
-      <c r="A15" s="31">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F15" s="18" t="s">
+      <c r="G15" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="H15">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.4">
-      <c r="A16" s="31">
+      <c r="A16" s="32">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>268</v>
+        <v>239</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>273</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H16">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.4">
-      <c r="A17" s="31">
+      <c r="A17" s="32">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>280</v>
+        <v>239</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H17">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.4">
-      <c r="A18" s="31">
+      <c r="A18" s="32">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>283</v>
+        <v>239</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>288</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H18">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.4">
-      <c r="A19" s="31">
+      <c r="A19" s="32">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>284</v>
+        <v>239</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>289</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H19">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="31">
+      <c r="A20" s="32">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>270</v>
+        <v>239</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>275</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H20">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="31">
+      <c r="A21" s="32">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>129</v>
+        <v>62</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>130</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>280</v>
+        <v>239</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H21">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="31">
+      <c r="A22" s="32">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>261</v>
+        <v>62</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>266</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>262</v>
+        <v>239</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>267</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="31">
+      <c r="A23" s="32">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>134</v>
+        <v>62</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>262</v>
+        <v>239</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>267</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H23">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="31">
+      <c r="A24" s="32">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>137</v>
+        <v>62</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>138</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>271</v>
+        <v>239</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>276</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H24">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="31">
+      <c r="A25" s="32">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>141</v>
+        <v>62</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>142</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>272</v>
+        <v>239</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>277</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H25">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="31">
+      <c r="A26" s="32">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>143</v>
+        <v>62</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>144</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>285</v>
+        <v>239</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>290</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H26">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="31">
+      <c r="A27" s="32">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>147</v>
+        <v>62</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>148</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>273</v>
+        <v>239</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H27">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="31">
+      <c r="A28" s="32">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>153</v>
+        <v>62</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>154</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>273</v>
+        <v>239</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H28">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="31">
+      <c r="A29" s="32">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>155</v>
+        <v>62</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>156</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>280</v>
+        <v>239</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H29">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="31">
+      <c r="A30" s="32">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>158</v>
+        <v>62</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>159</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>273</v>
+        <v>239</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>278</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H30">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="31">
+      <c r="A31" s="32">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>161</v>
+        <v>62</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>162</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F31" s="18" t="s">
-        <v>269</v>
+        <v>239</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>274</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H31">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="31">
+      <c r="A32" s="32">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>165</v>
+        <v>62</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>166</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F32" s="18" t="s">
-        <v>274</v>
+        <v>239</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>279</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H32">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="31">
+      <c r="A33" s="32">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>168</v>
+        <v>62</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>277</v>
+        <v>239</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H33">
         <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="31">
+      <c r="A34" s="32">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>170</v>
+        <v>62</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>171</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>270</v>
+        <v>239</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>275</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H34">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="31">
+      <c r="A35" s="32">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>172</v>
+        <v>62</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>173</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>284</v>
+        <v>239</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>289</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H35">
         <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="31">
+      <c r="A36" s="32">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>174</v>
+        <v>62</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>175</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>262</v>
+        <v>239</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>267</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H36">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="31">
+      <c r="A37" s="32">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>176</v>
+        <v>62</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>177</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F37" s="18" t="s">
-        <v>268</v>
+        <v>239</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>273</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H37">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="31">
+      <c r="A38" s="32">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>178</v>
+        <v>62</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>179</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>284</v>
+        <v>239</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>289</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H38">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="31">
+      <c r="A39" s="32">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>180</v>
+        <v>62</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>181</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>275</v>
+        <v>239</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>280</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H39">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="31">
+      <c r="A40" s="32">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="25" t="s">
-        <v>182</v>
+        <v>62</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>183</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>286</v>
+        <v>239</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>291</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H40">
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="31">
+      <c r="A41" s="32">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>183</v>
+        <v>62</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>184</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>279</v>
+        <v>239</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H41">
         <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="31">
+      <c r="A42" s="32">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>184</v>
+        <v>62</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>185</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>267</v>
+        <v>239</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>272</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H42">
         <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="31">
+      <c r="A43" s="32">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="25" t="s">
-        <v>185</v>
+        <v>62</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>186</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>269</v>
+        <v>239</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>274</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H43">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="31">
+      <c r="A44" s="32">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>186</v>
+        <v>62</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>187</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>284</v>
+        <v>239</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>289</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H44">
         <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="31">
+      <c r="A45" s="32">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>187</v>
+        <v>62</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>188</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>263</v>
+        <v>239</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>268</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H45">
         <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A46" s="31">
+      <c r="A46" s="32">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>188</v>
+        <v>62</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>189</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>287</v>
+        <v>239</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>292</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H46">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A47" s="31">
+      <c r="A47" s="32">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="25" t="s">
-        <v>189</v>
+        <v>62</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>190</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F47" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="H47">
         <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A48" s="31">
+      <c r="A48" s="32">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="25" t="s">
-        <v>190</v>
+        <v>62</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>191</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>274</v>
+        <v>239</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>279</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H48">
         <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A49" s="31">
+      <c r="A49" s="32">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>191</v>
+        <v>62</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>276</v>
+        <v>239</v>
+      </c>
+      <c r="F49" s="19" t="s">
+        <v>281</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H49">
         <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="31">
+      <c r="A50" s="32">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>192</v>
+        <v>62</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>193</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>277</v>
+        <v>239</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H50">
         <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A51" s="31">
+      <c r="A51" s="32">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>195</v>
+        <v>62</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>196</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>268</v>
+        <v>239</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>273</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H51">
         <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="31">
+      <c r="A52" s="32">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D52" s="25" t="s">
-        <v>197</v>
+        <v>62</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>198</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>262</v>
+        <v>239</v>
+      </c>
+      <c r="F52" s="19" t="s">
+        <v>267</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H52">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="31">
+      <c r="A53" s="32">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>199</v>
+        <v>62</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>200</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>281</v>
+        <v>239</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>286</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H53">
         <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A54" s="31">
+      <c r="A54" s="32">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>203</v>
+        <v>62</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>204</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>288</v>
+        <v>239</v>
+      </c>
+      <c r="F54" s="19" t="s">
+        <v>293</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H54">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A55" s="31">
+      <c r="A55" s="32">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>206</v>
+        <v>62</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>207</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>263</v>
+        <v>239</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>268</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H55">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A56" s="31">
+      <c r="A56" s="32">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="25" t="s">
-        <v>208</v>
+        <v>62</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>209</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>289</v>
+        <v>239</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>294</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H56">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A57" s="31">
+      <c r="A57" s="32">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>212</v>
+        <v>62</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>213</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F57" s="18" t="s">
-        <v>274</v>
+        <v>239</v>
+      </c>
+      <c r="F57" s="19" t="s">
+        <v>279</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H57">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A58" s="31">
+      <c r="A58" s="32">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>214</v>
+        <v>62</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>215</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F58" s="18" t="s">
-        <v>278</v>
+        <v>239</v>
+      </c>
+      <c r="F58" s="19" t="s">
+        <v>283</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H58">
         <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A59" s="31">
+      <c r="A59" s="32">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>216</v>
+        <v>62</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>217</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F59" s="18" t="s">
-        <v>279</v>
+        <v>239</v>
+      </c>
+      <c r="F59" s="19" t="s">
+        <v>284</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H59">
         <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A60" s="31">
+      <c r="A60" s="32">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>221</v>
+        <v>62</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>222</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F60" s="18" t="s">
-        <v>266</v>
+        <v>239</v>
+      </c>
+      <c r="F60" s="19" t="s">
+        <v>271</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H60">
         <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A61" s="31">
+      <c r="A61" s="32">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>223</v>
+        <v>62</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>225</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F61" s="18" t="s">
-        <v>280</v>
+        <v>239</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>285</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H61">
         <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A62" s="31">
+      <c r="A62" s="32">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>226</v>
+        <v>62</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>228</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F62" s="18" t="s">
-        <v>265</v>
+        <v>239</v>
+      </c>
+      <c r="F62" s="19" t="s">
+        <v>270</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H62">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A63" s="31">
+      <c r="A63" s="32">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>228</v>
+        <v>62</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>230</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F63" s="18" t="s">
-        <v>290</v>
+        <v>239</v>
+      </c>
+      <c r="F63" s="19" t="s">
+        <v>295</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H63">
         <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A64" s="31">
+      <c r="A64" s="32">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>230</v>
+        <v>62</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>232</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F64" s="18" t="s">
-        <v>270</v>
+        <v>239</v>
+      </c>
+      <c r="F64" s="19" t="s">
+        <v>275</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H64">
         <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A65" s="31">
+      <c r="A65" s="32">
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>234</v>
+        <v>14</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>236</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H65">
         <v>61</v>
@@ -3105,26 +3119,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1280"/>
+  <dimension ref="A1:J1280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="A999" sqref="A999:XFD1280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.3984375" customWidth="1"/>
     <col min="2" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="73.19921875" customWidth="1"/>
-    <col min="5" max="5" width="13.09765625" customWidth="1"/>
-    <col min="6" max="6" width="32.09765625" customWidth="1"/>
-    <col min="7" max="21" width="7.59765625" customWidth="1"/>
+    <col min="4" max="4" width="30.69921875" customWidth="1"/>
+    <col min="5" max="5" width="9.19921875" customWidth="1"/>
+    <col min="6" max="6" width="13.09765625" customWidth="1"/>
+    <col min="7" max="7" width="32.09765625" customWidth="1"/>
+    <col min="8" max="22" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4">
+    <row r="1" spans="1:10" ht="14.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3138,14 +3153,17 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="14.4">
-      <c r="A2" s="32">
+    <row r="2" spans="1:10" ht="14.4">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -3154,16 +3172,19 @@
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.4">
-      <c r="A3" s="32">
+      <c r="E2" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="4">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.4">
+      <c r="A3" s="33">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3172,16 +3193,19 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.4">
-      <c r="A4" s="32">
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F3" s="4">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.4">
+      <c r="A4" s="33">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -3190,16 +3214,19 @@
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.4">
-      <c r="A5" s="32">
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F4" s="4">
+        <v>30</v>
+      </c>
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.4">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -3208,54 +3235,63 @@
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.4">
-      <c r="A6" s="32">
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="4">
+        <v>40</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.4">
+      <c r="A6" s="33">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.4">
-      <c r="A7" s="32">
+      <c r="D6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F6" s="4">
+        <v>50</v>
+      </c>
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.4">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.4">
-      <c r="A8" s="32">
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="4">
+        <v>60</v>
+      </c>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.4">
+      <c r="A8" s="33">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -3264,17 +3300,20 @@
       <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.4">
-      <c r="A9" s="32">
+      <c r="D8" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F8" s="4">
+        <v>70</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="J8" s="36"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.4">
+      <c r="A9" s="33">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -3283,16 +3322,19 @@
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.4">
-      <c r="A10" s="32">
+      <c r="D9" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F9" s="4">
+        <v>80</v>
+      </c>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.4">
+      <c r="A10" s="33">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -3301,35 +3343,41 @@
       <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.4">
-      <c r="A11" s="32">
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="4">
+        <v>90</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.4">
+      <c r="A11" s="33">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.4">
-      <c r="A12" s="32">
+        <v>21</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="4">
+        <v>100</v>
+      </c>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.4">
+      <c r="A12" s="33">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3338,16 +3386,19 @@
       <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.4">
-      <c r="A13" s="32">
+      <c r="D12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" s="4">
+        <v>110</v>
+      </c>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.4">
+      <c r="A13" s="33">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -3356,34 +3407,40 @@
       <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.4">
-      <c r="A14" s="32">
+      <c r="D13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="4">
+        <v>120</v>
+      </c>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.4">
+      <c r="A14" s="33">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.4">
-      <c r="A15" s="32">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F14" s="4">
+        <v>130</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.4">
+      <c r="A15" s="33">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -3393,13 +3450,18 @@
         <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.4">
-      <c r="A16" s="32">
+        <v>25</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15" s="4">
+        <v>140</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.4">
+      <c r="A16" s="33">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -3409,61 +3471,81 @@
         <v>8</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.4">
-      <c r="A17" s="32">
+        <v>26</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F16" s="4">
+        <v>150</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.4">
+      <c r="A17" s="33">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.4">
-      <c r="A18" s="32">
+        <v>27</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" s="4">
+        <v>160</v>
+      </c>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.4">
+      <c r="A18" s="33">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.4">
-      <c r="A19" s="32">
+        <v>28</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F18" s="4">
+        <v>170</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.4">
+      <c r="A19" s="33">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A20" s="32">
+        <v>29</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" s="4">
+        <v>180</v>
+      </c>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A20" s="33">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -3473,13 +3555,18 @@
         <v>8</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="32">
+        <v>30</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F20" s="4">
+        <v>190</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A21" s="33">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3489,13 +3576,18 @@
         <v>8</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="32">
+        <v>31</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F21" s="4">
+        <v>200</v>
+      </c>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A22" s="33">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -3505,13 +3597,18 @@
         <v>8</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A23" s="32">
+        <v>32</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F22" s="4">
+        <v>201</v>
+      </c>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A23" s="33">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -3521,13 +3618,18 @@
         <v>8</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="32">
+        <v>57</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" s="4">
+        <v>202</v>
+      </c>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A24" s="33">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -3537,13 +3639,18 @@
         <v>8</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A25" s="32">
+        <v>59</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" s="4">
+        <v>203</v>
+      </c>
+      <c r="G24" s="17"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A25" s="33">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -3553,13 +3660,18 @@
         <v>8</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="32">
+        <v>60</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F25" s="4">
+        <v>204</v>
+      </c>
+      <c r="G25" s="17"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A26" s="33">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3569,13 +3681,18 @@
         <v>8</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A27" s="32">
+        <v>61</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F26" s="4">
+        <v>205</v>
+      </c>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A27" s="33">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -3585,13 +3702,18 @@
         <v>8</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" s="32">
+        <v>63</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F27" s="4">
+        <v>206</v>
+      </c>
+      <c r="G27" s="17"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A28" s="33">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3601,13 +3723,18 @@
         <v>8</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="32">
+        <v>65</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F28" s="4">
+        <v>207</v>
+      </c>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A29" s="33">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3617,13 +3744,18 @@
         <v>8</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A30" s="32">
+        <v>66</v>
+      </c>
+      <c r="E29" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="F29" s="4">
+        <v>208</v>
+      </c>
+      <c r="G29" s="17"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A30" s="33">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -3633,13 +3765,18 @@
         <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A31" s="32">
+        <v>68</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="F30" s="4">
+        <v>209</v>
+      </c>
+      <c r="G30" s="17"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A31" s="33">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -3649,13 +3786,18 @@
         <v>8</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A32" s="32">
+        <v>69</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F31" s="4">
+        <v>210</v>
+      </c>
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A32" s="33">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -3665,13 +3807,18 @@
         <v>8</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A33" s="32">
+        <v>71</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F32" s="4">
+        <v>211</v>
+      </c>
+      <c r="G32" s="17"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A33" s="33">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -3681,13 +3828,18 @@
         <v>8</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A34" s="32">
+        <v>72</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="F33" s="4">
+        <v>212</v>
+      </c>
+      <c r="G33" s="17"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A34" s="33">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -3697,13 +3849,18 @@
         <v>8</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A35" s="32">
+        <v>74</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="4">
+        <v>213</v>
+      </c>
+      <c r="G34" s="17"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A35" s="33">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -3713,13 +3870,18 @@
         <v>8</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A36" s="32">
+        <v>75</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="4">
+        <v>214</v>
+      </c>
+      <c r="G35" s="17"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A36" s="33">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -3729,13 +3891,18 @@
         <v>8</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="16"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A37" s="32">
+        <v>76</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="4">
+        <v>215</v>
+      </c>
+      <c r="G36" s="17"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A37" s="33">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -3745,13 +3912,18 @@
         <v>8</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A38" s="32">
+        <v>78</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="4">
+        <v>216</v>
+      </c>
+      <c r="G37" s="17"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A38" s="33">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3761,13 +3933,18 @@
         <v>8</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A39" s="32">
+        <v>79</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="4">
+        <v>217</v>
+      </c>
+      <c r="G38" s="17"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A39" s="33">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -3777,13 +3954,18 @@
         <v>8</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A40" s="32">
+        <v>81</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="4">
+        <v>218</v>
+      </c>
+      <c r="G39" s="17"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A40" s="33">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -3793,13 +3975,18 @@
         <v>8</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A41" s="32">
+        <v>82</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="4">
+        <v>219</v>
+      </c>
+      <c r="G40" s="17"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A41" s="33">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -3809,13 +3996,18 @@
         <v>8</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A42" s="32">
+        <v>84</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="4">
+        <v>220</v>
+      </c>
+      <c r="G41" s="17"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A42" s="33">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -3825,13 +4017,18 @@
         <v>8</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A43" s="32">
+        <v>85</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="4">
+        <v>221</v>
+      </c>
+      <c r="G42" s="17"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A43" s="33">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -3841,13 +4038,18 @@
         <v>8</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A44" s="32">
+        <v>87</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="4">
+        <v>222</v>
+      </c>
+      <c r="G43" s="17"/>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A44" s="33">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -3857,13 +4059,18 @@
         <v>8</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A45" s="32">
+        <v>91</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="4">
+        <v>223</v>
+      </c>
+      <c r="G44" s="17"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A45" s="33">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -3873,13 +4080,18 @@
         <v>8</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="16"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A46" s="32">
+        <v>97</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="4">
+        <v>224</v>
+      </c>
+      <c r="G45" s="17"/>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A46" s="33">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -3889,13 +4101,18 @@
         <v>8</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A47" s="32">
+        <v>99</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="4">
+        <v>225</v>
+      </c>
+      <c r="G46" s="17"/>
+    </row>
+    <row r="47" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A47" s="33">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -3905,13 +4122,18 @@
         <v>8</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="16"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A48" s="32">
+        <v>103</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="4">
+        <v>226</v>
+      </c>
+      <c r="G47" s="17"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A48" s="33">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -3921,13 +4143,18 @@
         <v>8</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A49" s="32">
+        <v>107</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F48" s="4">
+        <v>227</v>
+      </c>
+      <c r="G48" s="17"/>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A49" s="33">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -3937,13 +4164,18 @@
         <v>8</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A50" s="32">
+        <v>110</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="F49" s="4">
+        <v>228</v>
+      </c>
+      <c r="G49" s="17"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A50" s="33">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -3953,13 +4185,18 @@
         <v>8</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="16"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A51" s="32">
+        <v>112</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="F50" s="4">
+        <v>229</v>
+      </c>
+      <c r="G50" s="17"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A51" s="33">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -3969,13 +4206,18 @@
         <v>8</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="16"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A52" s="32">
+        <v>116</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="F51" s="4">
+        <v>230</v>
+      </c>
+      <c r="G51" s="17"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A52" s="33">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -3985,13 +4227,18 @@
         <v>8</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="16"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A53" s="32">
+        <v>120</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="4">
+        <v>231</v>
+      </c>
+      <c r="G52" s="17"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A53" s="33">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -4001,13 +4248,18 @@
         <v>8</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="16"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A54" s="32">
+        <v>124</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="4">
+        <v>232</v>
+      </c>
+      <c r="G53" s="17"/>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A54" s="33">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -4017,13 +4269,18 @@
         <v>8</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="16"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A55" s="32">
+        <v>126</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="4">
+        <v>233</v>
+      </c>
+      <c r="G54" s="17"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A55" s="33">
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -4033,13 +4290,18 @@
         <v>8</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="16"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A56" s="32">
+        <v>128</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="4">
+        <v>234</v>
+      </c>
+      <c r="G55" s="17"/>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A56" s="33">
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -4049,13 +4311,18 @@
         <v>8</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="16"/>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A57" s="32">
+        <v>131</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="4">
+        <v>235</v>
+      </c>
+      <c r="G56" s="17"/>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A57" s="33">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -4065,13 +4332,18 @@
         <v>8</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="16"/>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A58" s="32">
+        <v>132</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="4">
+        <v>236</v>
+      </c>
+      <c r="G57" s="17"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A58" s="33">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -4081,13 +4353,18 @@
         <v>8</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="16"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A59" s="32">
+        <v>133</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="4">
+        <v>237</v>
+      </c>
+      <c r="G58" s="17"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A59" s="33">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -4097,13 +4374,18 @@
         <v>8</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="16"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A60" s="32">
+        <v>137</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F59" s="4">
+        <v>238</v>
+      </c>
+      <c r="G59" s="17"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A60" s="33">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -4113,13 +4395,18 @@
         <v>8</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="16"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A61" s="32">
+        <v>141</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F60" s="4">
+        <v>239</v>
+      </c>
+      <c r="G60" s="17"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A61" s="33">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -4129,13 +4416,18 @@
         <v>8</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="16"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A62" s="32">
+        <v>145</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61" s="4">
+        <v>240</v>
+      </c>
+      <c r="G61" s="17"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A62" s="33">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -4145,13 +4437,18 @@
         <v>8</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="16"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A63" s="32">
+        <v>149</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F62" s="4">
+        <v>241</v>
+      </c>
+      <c r="G62" s="17"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A63" s="33">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -4161,13 +4458,18 @@
         <v>8</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="16"/>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A64" s="32">
+        <v>151</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="4">
+        <v>242</v>
+      </c>
+      <c r="G63" s="17"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A64" s="33">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -4177,13 +4479,18 @@
         <v>8</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="16"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A65" s="32">
+        <v>155</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="4">
+        <v>243</v>
+      </c>
+      <c r="G64" s="17"/>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A65" s="33">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -4193,13 +4500,18 @@
         <v>8</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="16"/>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A66" s="32">
+        <v>157</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="4">
+        <v>244</v>
+      </c>
+      <c r="G65" s="17"/>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A66" s="33">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -4209,13 +4521,18 @@
         <v>8</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="16"/>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A67" s="32">
+        <v>158</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="4">
+        <v>245</v>
+      </c>
+      <c r="G66" s="17"/>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A67" s="33">
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -4225,13 +4542,18 @@
         <v>8</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="16"/>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A68" s="32">
+        <v>161</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="4">
+        <v>246</v>
+      </c>
+      <c r="G67" s="17"/>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A68" s="33">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -4241,13 +4563,18 @@
         <v>8</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="16"/>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A69" s="32">
+        <v>164</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="4">
+        <v>247</v>
+      </c>
+      <c r="G68" s="17"/>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A69" s="33">
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -4257,13 +4584,18 @@
         <v>8</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="16"/>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A70" s="32">
+        <v>168</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="4">
+        <v>248</v>
+      </c>
+      <c r="G69" s="17"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A70" s="33">
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -4273,13 +4605,18 @@
         <v>8</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="16"/>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A71" s="32">
+        <v>170</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="4">
+        <v>249</v>
+      </c>
+      <c r="G70" s="17"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A71" s="33">
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -4289,13 +4626,18 @@
         <v>8</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="16"/>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A72" s="32">
+        <v>172</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="4">
+        <v>250</v>
+      </c>
+      <c r="G71" s="17"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A72" s="33">
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -4305,13 +4647,18 @@
         <v>8</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="16"/>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A73" s="32">
+        <v>174</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="4">
+        <v>251</v>
+      </c>
+      <c r="G72" s="17"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A73" s="33">
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -4321,13 +4668,18 @@
         <v>8</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="16"/>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A74" s="32">
+        <v>176</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="4">
+        <v>252</v>
+      </c>
+      <c r="G73" s="17"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A74" s="33">
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -4337,13 +4689,18 @@
         <v>8</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="16"/>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A75" s="32">
+        <v>178</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="4">
+        <v>253</v>
+      </c>
+      <c r="G74" s="17"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A75" s="33">
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -4353,13 +4710,18 @@
         <v>8</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="16"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A76" s="32">
+        <v>180</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="4">
+        <v>254</v>
+      </c>
+      <c r="G75" s="17"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A76" s="33">
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -4369,15 +4731,20 @@
         <v>8</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="16"/>
-    </row>
-    <row r="77" spans="1:6" ht="15" hidden="1" customHeight="1"/>
-    <row r="78" spans="1:6" ht="15" hidden="1" customHeight="1"/>
-    <row r="79" spans="1:6" ht="15" hidden="1" customHeight="1"/>
-    <row r="80" spans="1:6" ht="15" hidden="1" customHeight="1"/>
+        <v>182</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="4">
+        <v>255</v>
+      </c>
+      <c r="G76" s="17"/>
+    </row>
+    <row r="77" spans="1:7" ht="15" hidden="1" customHeight="1"/>
+    <row r="78" spans="1:7" ht="15" hidden="1" customHeight="1"/>
+    <row r="79" spans="1:7" ht="15" hidden="1" customHeight="1"/>
+    <row r="80" spans="1:7" ht="15" hidden="1" customHeight="1"/>
     <row r="81" ht="15" hidden="1" customHeight="1"/>
     <row r="82" ht="15" hidden="1" customHeight="1"/>
     <row r="83" ht="15" hidden="1" customHeight="1"/>
@@ -5579,7 +5946,7 @@
     <row r="1279" ht="15" hidden="1" customHeight="1"/>
     <row r="1280" ht="15" hidden="1" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:F76">
+  <autoFilter ref="A1:G76">
     <filterColumn colId="2"/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5595,7 +5962,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -5604,586 +5971,522 @@
     <col min="2" max="2" width="6.3984375" customWidth="1"/>
     <col min="3" max="3" width="8.69921875" customWidth="1"/>
     <col min="4" max="4" width="5.3984375" customWidth="1"/>
-    <col min="5" max="5" width="83.296875" customWidth="1"/>
+    <col min="5" max="5" width="39.09765625" customWidth="1"/>
     <col min="6" max="6" width="28.19921875" customWidth="1"/>
     <col min="7" max="21" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="14.4">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="14.4">
-      <c r="B2" s="21">
+      <c r="B2" s="22">
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>274</v>
-      </c>
+      <c r="D2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="2:6" ht="14.4">
-      <c r="B3" s="21">
+      <c r="B3" s="22">
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="2:6" ht="14.4">
+      <c r="B4" s="22">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="2:6" ht="14.4">
+      <c r="B5" s="22">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="2:6" ht="14.4">
+      <c r="B6" s="22">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="2:6" ht="14.4">
+      <c r="B7" s="22">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="2:6" ht="14.4">
+      <c r="B8" s="22">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="2:6" ht="14.4">
+      <c r="B9" s="22">
+        <v>8</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="2:6" ht="14.4">
+      <c r="B10" s="22">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="2:6" ht="14.4">
+      <c r="B11" s="22">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="2:6" ht="14.4">
+      <c r="B12" s="22">
+        <v>11</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="2:6" ht="14.4">
+      <c r="B13" s="22">
+        <v>12</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="2:6" ht="14.4">
+      <c r="B14" s="22">
         <v>13</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="14.4">
-      <c r="B4" s="21">
-        <v>3</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="14.4">
-      <c r="B5" s="21">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="14.4">
-      <c r="B6" s="21">
-        <v>5</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="14.4">
-      <c r="B7" s="21">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="14.4">
-      <c r="B8" s="21">
-        <v>7</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="14.4">
-      <c r="B9" s="21">
-        <v>8</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="14.4">
-      <c r="B10" s="21">
-        <v>9</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="14.4">
-      <c r="B11" s="21">
-        <v>10</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="14.4">
-      <c r="B12" s="21">
-        <v>11</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="14.4">
-      <c r="B13" s="21">
-        <v>12</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="14.4">
-      <c r="B14" s="21">
-        <v>13</v>
-      </c>
       <c r="C14" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>280</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" spans="2:6" ht="14.4">
-      <c r="B15" s="21">
+      <c r="B15" s="22">
         <v>14</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>262</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="2:6" ht="14.4">
-      <c r="B16" s="21">
+      <c r="B16" s="22">
         <v>15</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>274</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="2:6" ht="14.4">
-      <c r="B17" s="21">
+      <c r="B17" s="22">
         <v>16</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="24" t="s">
-        <v>280</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="2:6" ht="14.4">
-      <c r="B18" s="21">
+      <c r="B18" s="22">
         <v>17</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="24" t="s">
-        <v>276</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="2:6" ht="14.4">
-      <c r="B19" s="21">
+      <c r="B19" s="22">
         <v>18</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="24" t="s">
-        <v>270</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B20" s="21">
+      <c r="B20" s="22">
         <v>19</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="24" t="s">
-        <v>282</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B21" s="21">
+      <c r="B21" s="22">
         <v>20</v>
       </c>
-      <c r="C21" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>262</v>
-      </c>
+      <c r="C21" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B22" s="21">
+      <c r="B22" s="22">
         <v>21</v>
       </c>
-      <c r="C22" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>281</v>
-      </c>
+      <c r="C22" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B23" s="21">
+      <c r="B23" s="22">
         <v>22</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>268</v>
-      </c>
+      <c r="C23" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B24" s="21">
+      <c r="B24" s="22">
         <v>23</v>
       </c>
-      <c r="C24" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>274</v>
-      </c>
+      <c r="C24" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="15"/>
     </row>
     <row r="25" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B25" s="21">
+      <c r="B25" s="22">
         <v>24</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>289</v>
-      </c>
+      <c r="C25" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="15"/>
     </row>
     <row r="26" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B26" s="21">
+      <c r="B26" s="22">
         <v>25</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" s="24" t="s">
-        <v>276</v>
-      </c>
+      <c r="C26" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="15"/>
     </row>
     <row r="27" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B27" s="21">
+      <c r="B27" s="22">
         <v>26</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="24" t="s">
-        <v>268</v>
-      </c>
+      <c r="C27" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" s="15"/>
     </row>
     <row r="28" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B28" s="21">
+      <c r="B28" s="22">
         <v>27</v>
       </c>
-      <c r="C28" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="F28" s="24" t="s">
-        <v>262</v>
-      </c>
+      <c r="C28" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="15"/>
     </row>
     <row r="29" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B29" s="21">
+      <c r="B29" s="22">
         <v>28</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="F29" s="24" t="s">
-        <v>293</v>
-      </c>
+      <c r="C29" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" s="15"/>
     </row>
     <row r="30" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B30" s="21">
+      <c r="B30" s="22">
         <v>29</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="F30" s="24" t="s">
-        <v>280</v>
-      </c>
+      <c r="C30" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="15"/>
     </row>
     <row r="31" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B31" s="21">
+      <c r="B31" s="22">
         <v>30</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>267</v>
-      </c>
+      <c r="C31" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B32" s="21">
+      <c r="B32" s="22">
         <v>31</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>295</v>
-      </c>
+      <c r="C32" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B33" s="21">
+      <c r="B33" s="22">
         <v>32</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="F33" s="24" t="s">
-        <v>263</v>
-      </c>
+      <c r="C33" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B34" s="21">
+      <c r="B34" s="22">
         <v>33</v>
       </c>
-      <c r="C34" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="F34" s="14"/>
+      <c r="C34" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F34" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:F34">
@@ -6198,11 +6501,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G976"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -6241,16 +6544,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>277</v>
+      <c r="D2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>282</v>
       </c>
       <c r="G2" s="11"/>
     </row>
@@ -6259,16 +6562,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>296</v>
+        <v>33</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -6277,16 +6580,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>284</v>
+        <v>33</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -6295,16 +6598,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>279</v>
+        <v>33</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>284</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -6313,16 +6616,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>288</v>
+        <v>33</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>293</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -6331,16 +6634,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>277</v>
+        <v>33</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>282</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -6349,16 +6652,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>284</v>
+        <v>33</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -6367,16 +6670,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>262</v>
+        <v>33</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>267</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -6385,16 +6688,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>280</v>
+        <v>33</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>285</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -6403,16 +6706,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>284</v>
+        <v>33</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -6421,17 +6724,15 @@
         <v>11</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>284</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="2:7" ht="14.4">
@@ -6439,17 +6740,15 @@
         <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>279</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="2:7" ht="14.4">
@@ -6457,17 +6756,15 @@
         <v>13</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>277</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="2:7" ht="14.4">
@@ -6475,17 +6772,15 @@
         <v>14</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>282</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="2:7" ht="14.4">
@@ -6493,17 +6788,15 @@
         <v>15</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="22" t="s">
-        <v>297</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="2:7" ht="14.4">
@@ -6511,17 +6804,15 @@
         <v>16</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>276</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="2:7" ht="14.4">
@@ -6529,17 +6820,15 @@
         <v>17</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>270</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="2:7" ht="14.4">
@@ -6547,17 +6836,15 @@
         <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="23" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>298</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1">
@@ -6565,17 +6852,15 @@
         <v>19</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>284</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1">
@@ -6583,594 +6868,584 @@
         <v>20</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>264</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B22" s="13">
+      <c r="B22" s="14">
         <v>21</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="G22" s="14"/>
+      <c r="C22" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B23" s="13">
+      <c r="B23" s="14">
         <v>22</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="G23" s="14"/>
+      <c r="C23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B24" s="13">
+      <c r="B24" s="14">
         <v>23</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="G24" s="14"/>
+      <c r="C24" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B25" s="13">
+      <c r="B25" s="14">
         <v>24</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="22" t="s">
+      <c r="C25" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B26" s="24">
+        <v>1</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26" s="23">
+        <v>10</v>
+      </c>
+      <c r="G26" s="23"/>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B27" s="24">
+        <v>2</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" s="23">
+        <v>20</v>
+      </c>
+      <c r="G27" s="23"/>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B28" s="24">
+        <v>3</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28" s="23">
+        <v>30</v>
+      </c>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B29" s="24">
+        <v>4</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="23">
+        <v>40</v>
+      </c>
+      <c r="G29" s="23"/>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B30" s="24">
+        <v>5</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="23">
+        <v>50</v>
+      </c>
+      <c r="G30" s="23"/>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B31" s="24">
+        <v>6</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="F31" s="23">
+        <v>60</v>
+      </c>
+      <c r="G31" s="23"/>
+    </row>
+    <row r="32" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B32" s="24">
+        <v>7</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="23">
+        <v>70</v>
+      </c>
+      <c r="G32" s="23"/>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B33" s="24">
+        <v>8</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="F33" s="23">
+        <v>80</v>
+      </c>
+      <c r="G33" s="23"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B34" s="24">
+        <v>9</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F34" s="23">
+        <v>90</v>
+      </c>
+      <c r="G34" s="23"/>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B35" s="24">
+        <v>10</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="F35" s="23">
+        <v>100</v>
+      </c>
+      <c r="G35" s="23"/>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B36" s="24">
+        <v>11</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="F36" s="23">
+        <v>110</v>
+      </c>
+      <c r="G36" s="23"/>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B37" s="24">
+        <v>12</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F37" s="23">
+        <v>120</v>
+      </c>
+      <c r="G37" s="23"/>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B38" s="24">
         <v>13</v>
       </c>
-      <c r="E25" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>277</v>
-      </c>
-      <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B26" s="23">
+      <c r="C38" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F38" s="23">
+        <v>130</v>
+      </c>
+      <c r="G38" s="23"/>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B39" s="24">
+        <v>14</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F39" s="23">
+        <v>140</v>
+      </c>
+      <c r="G39" s="23"/>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B40" s="24">
+        <v>15</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F40" s="23">
+        <v>150</v>
+      </c>
+      <c r="G40" s="23"/>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B41" s="24">
         <v>1</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="F26" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="G26" s="22"/>
-    </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B27" s="23">
+      <c r="C41" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="F41" s="23">
+        <v>10</v>
+      </c>
+      <c r="G41" s="23"/>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B42" s="24">
         <v>2</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="G27" s="22"/>
-    </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B28" s="23">
+      <c r="C42" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F42" s="23">
+        <v>20</v>
+      </c>
+      <c r="G42" s="23"/>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B43" s="24">
         <v>3</v>
       </c>
-      <c r="C28" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="F28" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="G28" s="22"/>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B29" s="23">
+      <c r="C43" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="F43" s="23">
+        <v>30</v>
+      </c>
+      <c r="G43" s="23"/>
+    </row>
+    <row r="44" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B44" s="24">
         <v>4</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="F29" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="G29" s="22"/>
-    </row>
-    <row r="30" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B30" s="23">
+      <c r="C44" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44" s="23">
+        <v>40</v>
+      </c>
+      <c r="G44" s="23"/>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B45" s="24">
         <v>5</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="G30" s="22"/>
-    </row>
-    <row r="31" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B31" s="23">
+      <c r="C45" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F45" s="23">
+        <v>50</v>
+      </c>
+      <c r="G45" s="23"/>
+    </row>
+    <row r="46" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B46" s="24">
         <v>6</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D31" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="G31" s="22"/>
-    </row>
-    <row r="32" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B32" s="23">
+      <c r="C46" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F46" s="23">
+        <v>60</v>
+      </c>
+      <c r="G46" s="23"/>
+    </row>
+    <row r="47" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B47" s="24">
         <v>7</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="G32" s="22"/>
-    </row>
-    <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="23">
-        <v>8</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="23">
+      <c r="C47" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F47" s="23">
+        <v>70</v>
+      </c>
+      <c r="G47" s="23"/>
+    </row>
+    <row r="48" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B48" s="24">
+        <v>8</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D48" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="F48" s="23">
+        <v>80</v>
+      </c>
+      <c r="G48" s="23"/>
+    </row>
+    <row r="49" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B49" s="24">
         <v>9</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="F34" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="G34" s="22"/>
-    </row>
-    <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="23">
+      <c r="C49" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F49" s="23">
+        <v>90</v>
+      </c>
+      <c r="G49" s="23"/>
+    </row>
+    <row r="50" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B50" s="24">
         <v>10</v>
       </c>
-      <c r="C35" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D35" s="22" t="s">
+      <c r="C50" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F50" s="23">
+        <v>100</v>
+      </c>
+      <c r="G50" s="23"/>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B51" s="24">
+        <v>11</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F51" s="23">
+        <v>110</v>
+      </c>
+      <c r="G51" s="23"/>
+    </row>
+    <row r="52" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B52" s="24">
+        <v>12</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="F52" s="23">
+        <v>120</v>
+      </c>
+      <c r="G52" s="23"/>
+    </row>
+    <row r="53" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B53" s="24">
         <v>13</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="C53" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="F35" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="G35" s="22"/>
-    </row>
-    <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="23">
-        <v>11</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="F36" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="G36" s="22"/>
-    </row>
-    <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="23">
-        <v>12</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="G37" s="22"/>
-    </row>
-    <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="23">
-        <v>13</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="F38" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="G38" s="22"/>
-    </row>
-    <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="23">
-        <v>14</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="G39" s="22"/>
-    </row>
-    <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="23">
-        <v>15</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="G40" s="22"/>
-    </row>
-    <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="23">
-        <v>1</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="G41" s="22"/>
-    </row>
-    <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="23">
-        <v>2</v>
-      </c>
-      <c r="C42" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="F42" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="G42" s="22"/>
-    </row>
-    <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="23">
-        <v>3</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="F43" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="G43" s="22"/>
-    </row>
-    <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="23">
-        <v>4</v>
-      </c>
-      <c r="C44" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="G44" s="22"/>
-    </row>
-    <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="23">
-        <v>5</v>
-      </c>
-      <c r="C45" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="F45" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="G45" s="22"/>
-    </row>
-    <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="23">
-        <v>6</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="G46" s="22"/>
-    </row>
-    <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="23">
-        <v>7</v>
-      </c>
-      <c r="C47" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="F47" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="G47" s="22"/>
-    </row>
-    <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="23">
-        <v>8</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="F48" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="G48" s="22"/>
-    </row>
-    <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="23">
-        <v>9</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="F49" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="G49" s="22"/>
-    </row>
-    <row r="50" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B50" s="23">
-        <v>10</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="F50" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="G50" s="22"/>
-    </row>
-    <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="23">
-        <v>11</v>
-      </c>
-      <c r="C51" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="F51" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="G51" s="22"/>
-    </row>
-    <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="23">
-        <v>12</v>
-      </c>
-      <c r="C52" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="G52" s="22"/>
-    </row>
-    <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="23">
-        <v>13</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="G53" s="22"/>
+      <c r="D53" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F53" s="23">
+        <v>130</v>
+      </c>
+      <c r="G53" s="23"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
@@ -8120,294 +8395,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>238</v>
-      </c>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="31" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.4">
-      <c r="A2" s="21">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="35">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>291</v>
+      <c r="C2" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4">
-      <c r="A3" s="21">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="35">
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>265</v>
+      <c r="C3" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4">
-      <c r="A4" s="21">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="35">
         <v>3</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>241</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>273</v>
+      <c r="C4" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.4">
-      <c r="A5" s="21">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="35">
         <v>4</v>
       </c>
-      <c r="C5" s="22" t="s">
-        <v>242</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>273</v>
+      <c r="C5" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4">
-      <c r="A6" s="21">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="35">
         <v>5</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>271</v>
+      <c r="C6" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4">
-      <c r="A7" s="21">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="35">
         <v>6</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>269</v>
+      <c r="C7" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4">
-      <c r="A8" s="21">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="35">
         <v>7</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.4">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35">
+        <v>8</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.4">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35">
+        <v>9</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.4">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="35">
+        <v>10</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.4">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="35">
+        <v>11</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.4">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="35">
+        <v>12</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.4">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="35">
+        <v>13</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.4">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="35">
+        <v>14</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.4">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="35">
+        <v>15</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.4">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="35">
+        <v>16</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.4">
-      <c r="A9" s="21">
-        <v>8</v>
-      </c>
-      <c r="B9" s="33">
-        <v>8</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="D9" s="34" t="s">
+      <c r="D17" s="36" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.4">
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="B18" s="35">
+        <v>17</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.4">
-      <c r="A10" s="21">
-        <v>9</v>
-      </c>
-      <c r="B10" s="33">
-        <v>9</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.4">
-      <c r="A11" s="21">
-        <v>10</v>
-      </c>
-      <c r="B11" s="33">
-        <v>10</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.4">
-      <c r="A12" s="21">
-        <v>11</v>
-      </c>
-      <c r="B12" s="33">
-        <v>11</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.4">
-      <c r="A13" s="21">
-        <v>12</v>
-      </c>
-      <c r="B13" s="33">
-        <v>12</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.4">
-      <c r="A14" s="21">
-        <v>13</v>
-      </c>
-      <c r="B14" s="33">
-        <v>13</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.4">
-      <c r="A15" s="21">
-        <v>14</v>
-      </c>
-      <c r="B15" s="33">
-        <v>14</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.4">
-      <c r="A16" s="21">
-        <v>15</v>
-      </c>
-      <c r="B16" s="33">
-        <v>15</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="D16" s="34" t="s">
+    <row r="19" spans="1:4" ht="14.4">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="35">
+        <v>18</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="D19" s="36" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.4">
-      <c r="A17" s="21">
-        <v>16</v>
-      </c>
-      <c r="B17" s="33">
-        <v>16</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.4">
-      <c r="A18" s="21">
-        <v>17</v>
-      </c>
-      <c r="B18" s="33">
-        <v>17</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.4">
-      <c r="A19" s="21">
-        <v>18</v>
-      </c>
-      <c r="B19" s="33">
-        <v>18</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>270</v>
-      </c>
-    </row>
     <row r="20" spans="1:4" ht="14.4">
-      <c r="A20" s="21">
+      <c r="A20" s="22">
         <v>19</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="35">
         <v>19</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>295</v>
+      <c r="C20" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.4">
-      <c r="A21" s="21">
+      <c r="A21" s="22">
         <v>20</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="35">
         <v>20</v>
       </c>
-      <c r="C21" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>267</v>
+      <c r="C21" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/00_assignment/0. Data structures programs/MCS_001_Data Structures_Algorithms.xlsx
+++ b/00_assignment/0. Data structures programs/MCS_001_Data Structures_Algorithms.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="304">
   <si>
     <t>Program #</t>
   </si>
@@ -697,9 +697,6 @@
     <t xml:space="preserve"> find the maximum occurring character in a given string</t>
   </si>
   <si>
-    <t xml:space="preserve">Get the current memory address and the length in elements of the buffer used to hold an arrays? contents and also find the size </t>
-  </si>
-  <si>
     <t>Find maximum and the minimum value in a set</t>
   </si>
   <si>
@@ -932,6 +929,15 @@
   </si>
   <si>
     <t>22 min</t>
+  </si>
+  <si>
+    <t>1 min</t>
+  </si>
+  <si>
+    <t>2 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get the current memory address and the length in elements of the buffer used to hold an arrays? contents and also   find the size </t>
   </si>
 </sst>
 </file>
@@ -1135,7 +1141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1153,7 +1159,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1422,33 +1427,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4">
-      <c r="A1" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.4">
-      <c r="A2" s="32">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1458,23 +1463,23 @@
         <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>268</v>
+        <v>238</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>267</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4">
-      <c r="A3" s="32">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1484,23 +1489,23 @@
         <v>67</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>267</v>
+        <v>238</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.4">
-      <c r="A4" s="32">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1510,20 +1515,20 @@
         <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>269</v>
+        <v>238</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.4">
-      <c r="A5" s="32">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1536,20 +1541,20 @@
         <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>286</v>
+        <v>238</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>285</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H5">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.4">
-      <c r="A6" s="32">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1562,20 +1567,20 @@
         <v>77</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>284</v>
+        <v>238</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H6">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.4">
-      <c r="A7" s="32">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1588,20 +1593,20 @@
         <v>80</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>267</v>
+        <v>238</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H7">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.4">
-      <c r="A8" s="32">
+      <c r="A8" s="31">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1614,20 +1619,20 @@
         <v>83</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>287</v>
+        <v>238</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>286</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H8">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.4">
-      <c r="A9" s="32">
+      <c r="A9" s="31">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1637,23 +1642,23 @@
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>270</v>
+        <v>238</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>269</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H9">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.4">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1666,20 +1671,20 @@
         <v>86</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>282</v>
+        <v>238</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>281</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H10">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.4">
-      <c r="A11" s="32">
+      <c r="A11" s="31">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1692,20 +1697,20 @@
         <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>271</v>
+        <v>238</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>270</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.4">
-      <c r="A12" s="32">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1718,20 +1723,20 @@
         <v>95</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>272</v>
+        <v>238</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H12">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.4">
-      <c r="A13" s="32">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1744,20 +1749,20 @@
         <v>100</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>273</v>
+        <v>238</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H13">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.4">
-      <c r="A14" s="32">
+      <c r="A14" s="31">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1770,20 +1775,20 @@
         <v>105</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>274</v>
+        <v>238</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>273</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H14">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.4">
-      <c r="A15" s="32">
+      <c r="A15" s="31">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1796,20 +1801,20 @@
         <v>108</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>269</v>
+        <v>238</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H15">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.4">
-      <c r="A16" s="32">
+      <c r="A16" s="31">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1822,20 +1827,20 @@
         <v>114</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>273</v>
+        <v>238</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H16">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.4">
-      <c r="A17" s="32">
+      <c r="A17" s="31">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1848,20 +1853,20 @@
         <v>118</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>285</v>
+        <v>238</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>284</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H17">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.4">
-      <c r="A18" s="32">
+      <c r="A18" s="31">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1874,20 +1879,20 @@
         <v>123</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>288</v>
+        <v>238</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>287</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H18">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.4">
-      <c r="A19" s="32">
+      <c r="A19" s="31">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1900,20 +1905,20 @@
         <v>127</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>289</v>
+        <v>238</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>288</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H19">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="32">
+      <c r="A20" s="31">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1926,1164 +1931,1164 @@
         <v>129</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>275</v>
+        <v>238</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>274</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H20">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="32">
+      <c r="A21" s="31">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="25" t="s">
         <v>130</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>285</v>
+        <v>238</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>284</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H21">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="32">
+      <c r="A22" s="31">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="26" t="s">
+      <c r="C22" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>267</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="32">
+      <c r="A23" s="31">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="25" t="s">
         <v>135</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>267</v>
+        <v>238</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H23">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="32">
+      <c r="A24" s="31">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="26" t="s">
+      <c r="C24" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="25" t="s">
         <v>138</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>276</v>
+        <v>238</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>275</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H24">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="32">
+      <c r="A25" s="31">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="26" t="s">
+      <c r="C25" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="25" t="s">
         <v>142</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>277</v>
+        <v>238</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>276</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H25">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="32">
+      <c r="A26" s="31">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="25" t="s">
         <v>144</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>290</v>
+        <v>238</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H26">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="32">
+      <c r="A27" s="31">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="26" t="s">
         <v>148</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>278</v>
+        <v>238</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>277</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H27">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="32">
+      <c r="A28" s="31">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="26" t="s">
         <v>154</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>278</v>
+        <v>238</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>277</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H28">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="32">
+      <c r="A29" s="31">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="25" t="s">
         <v>156</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>285</v>
+        <v>238</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>284</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H29">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="32">
+      <c r="A30" s="31">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="26" t="s">
+      <c r="C30" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>159</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>278</v>
+        <v>238</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>277</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H30">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="32">
+      <c r="A31" s="31">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="26" t="s">
+      <c r="C31" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="25" t="s">
         <v>162</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>274</v>
+        <v>238</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>273</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H31">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="32">
+      <c r="A32" s="31">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="26" t="s">
+      <c r="C32" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="25" t="s">
         <v>166</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>279</v>
+        <v>238</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>278</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H32">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="32">
+      <c r="A33" s="31">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="25" t="s">
         <v>169</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>282</v>
+        <v>238</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>281</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H33">
         <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="32">
+      <c r="A34" s="31">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="25" t="s">
         <v>171</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>275</v>
+        <v>238</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>274</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H34">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="32">
+      <c r="A35" s="31">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="25" t="s">
         <v>173</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>289</v>
+        <v>238</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>288</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H35">
         <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="32">
+      <c r="A36" s="31">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="26" t="s">
+      <c r="C36" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="25" t="s">
         <v>175</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>267</v>
+        <v>238</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H36">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="32">
+      <c r="A37" s="31">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="26" t="s">
+      <c r="C37" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="25" t="s">
         <v>177</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>273</v>
+        <v>238</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H37">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="32">
+      <c r="A38" s="31">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="D38" s="25" t="s">
         <v>179</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>289</v>
+        <v>238</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>288</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H38">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="32">
+      <c r="A39" s="31">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="26" t="s">
+      <c r="C39" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="25" t="s">
         <v>181</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>280</v>
+        <v>238</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>279</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H39">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="32">
+      <c r="A40" s="31">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D40" s="25" t="s">
         <v>183</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>291</v>
+        <v>238</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>290</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H40">
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="32">
+      <c r="A41" s="31">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="27" t="s">
+      <c r="D41" s="26" t="s">
         <v>184</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>284</v>
+        <v>238</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H41">
         <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="32">
+      <c r="A42" s="31">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="26" t="s">
+      <c r="D42" s="25" t="s">
         <v>185</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>272</v>
+        <v>238</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H42">
         <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="32">
+      <c r="A43" s="31">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="26" t="s">
+      <c r="C43" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="25" t="s">
         <v>186</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>274</v>
+        <v>238</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>273</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H43">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="32">
+      <c r="A44" s="31">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="25" t="s">
         <v>187</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>289</v>
+        <v>238</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>288</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H44">
         <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="32">
+      <c r="A45" s="31">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="26" t="s">
+      <c r="C45" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="25" t="s">
         <v>188</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>268</v>
+        <v>238</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>267</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H45">
         <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A46" s="32">
+      <c r="A46" s="31">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="26" t="s">
+      <c r="D46" s="25" t="s">
         <v>189</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>292</v>
+        <v>238</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>291</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H46">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A47" s="32">
+      <c r="A47" s="31">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="26" t="s">
+      <c r="C47" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="25" t="s">
         <v>190</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>269</v>
+        <v>238</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H47">
         <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A48" s="32">
+      <c r="A48" s="31">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D48" s="25" t="s">
         <v>191</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>279</v>
+        <v>238</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>278</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H48">
         <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A49" s="32">
+      <c r="A49" s="31">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="26" t="s">
+      <c r="C49" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="25" t="s">
         <v>192</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>281</v>
+        <v>238</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>280</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H49">
         <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="32">
+      <c r="A50" s="31">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="26" t="s">
+      <c r="C50" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="25" t="s">
         <v>193</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>282</v>
+        <v>238</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>281</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H50">
         <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A51" s="32">
+      <c r="A51" s="31">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="25" t="s">
         <v>196</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>273</v>
+        <v>238</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H51">
         <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="32">
+      <c r="A52" s="31">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="25" t="s">
         <v>198</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>267</v>
+        <v>238</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H52">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="32">
+      <c r="A53" s="31">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="26" t="s">
         <v>200</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>286</v>
+        <v>238</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>285</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H53">
         <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A54" s="32">
+      <c r="A54" s="31">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D54" s="25" t="s">
         <v>204</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>293</v>
+        <v>238</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>292</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H54">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A55" s="32">
+      <c r="A55" s="31">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="25" t="s">
         <v>207</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>268</v>
+        <v>238</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>267</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H55">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A56" s="32">
+      <c r="A56" s="31">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="25" t="s">
         <v>209</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>294</v>
+        <v>238</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>293</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H56">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A57" s="32">
+      <c r="A57" s="31">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D57" s="27" t="s">
+      <c r="D57" s="26" t="s">
         <v>213</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>279</v>
+        <v>238</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>278</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H57">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A58" s="32">
+      <c r="A58" s="31">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="27" t="s">
+      <c r="C58" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="26" t="s">
         <v>215</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>283</v>
+        <v>238</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>282</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H58">
         <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A59" s="32">
+      <c r="A59" s="31">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="27" t="s">
+      <c r="C59" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="26" t="s">
         <v>217</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>284</v>
+        <v>238</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H59">
         <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A60" s="32">
+      <c r="A60" s="31">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D60" s="26" t="s">
         <v>222</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>271</v>
+        <v>238</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>270</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H60">
         <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A61" s="32">
+      <c r="A61" s="31">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>225</v>
+      <c r="C61" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>224</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>285</v>
+        <v>238</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>284</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H61">
         <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A62" s="32">
+      <c r="A62" s="31">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="27" t="s">
-        <v>228</v>
+      <c r="D62" s="26" t="s">
+        <v>227</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>270</v>
+        <v>238</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>269</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H62">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A63" s="32">
+      <c r="A63" s="31">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C63" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="27" t="s">
-        <v>230</v>
+      <c r="D63" s="26" t="s">
+        <v>229</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>295</v>
+        <v>238</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>294</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H63">
         <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A64" s="32">
+      <c r="A64" s="31">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>232</v>
+      <c r="C64" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>231</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>275</v>
+        <v>238</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>274</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H64">
         <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A65" s="32">
+      <c r="A65" s="31">
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -3092,17 +3097,17 @@
       <c r="C65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="27" t="s">
-        <v>236</v>
+      <c r="D65" s="26" t="s">
+        <v>235</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H65">
         <v>61</v>
@@ -3163,7 +3168,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="14.4">
-      <c r="A2" s="33">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -3176,7 +3181,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F2" s="4">
         <v>10</v>
@@ -3184,7 +3189,7 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="14.4">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3196,8 +3201,8 @@
       <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="30" t="s">
-        <v>240</v>
+      <c r="E3" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F3" s="4">
         <v>20</v>
@@ -3205,7 +3210,7 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="14.4">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -3217,8 +3222,8 @@
       <c r="D4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>240</v>
+      <c r="E4" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F4" s="4">
         <v>30</v>
@@ -3226,7 +3231,7 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="14.4">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -3238,18 +3243,18 @@
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>240</v>
+      <c r="E5" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F5" s="4">
         <v>40</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
     </row>
     <row r="6" spans="1:10" ht="14.4">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -3261,8 +3266,8 @@
       <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>240</v>
+      <c r="E6" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F6" s="4">
         <v>50</v>
@@ -3270,7 +3275,7 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="14.4">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -3282,8 +3287,8 @@
       <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>240</v>
+      <c r="E7" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F7" s="4">
         <v>60</v>
@@ -3291,7 +3296,7 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="14.4">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -3300,20 +3305,20 @@
       <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>240</v>
+      <c r="E8" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F8" s="4">
         <v>70</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="J8" s="36"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:10" ht="14.4">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -3322,11 +3327,11 @@
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>240</v>
+      <c r="E9" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F9" s="4">
         <v>80</v>
@@ -3334,7 +3339,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="14.4">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -3346,17 +3351,17 @@
       <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="30" t="s">
-        <v>240</v>
+      <c r="E10" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F10" s="4">
         <v>90</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="J10" s="36"/>
+      <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:10" ht="14.4">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -3368,8 +3373,8 @@
       <c r="D11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="30" t="s">
-        <v>240</v>
+      <c r="E11" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F11" s="4">
         <v>100</v>
@@ -3377,7 +3382,7 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="14.4">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3389,8 +3394,8 @@
       <c r="D12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="30" t="s">
-        <v>240</v>
+      <c r="E12" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F12" s="4">
         <v>110</v>
@@ -3398,7 +3403,7 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="14.4">
-      <c r="A13" s="33">
+      <c r="A13" s="32">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -3410,8 +3415,8 @@
       <c r="D13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>240</v>
+      <c r="E13" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F13" s="4">
         <v>120</v>
@@ -3419,7 +3424,7 @@
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:10" ht="14.4">
-      <c r="A14" s="33">
+      <c r="A14" s="32">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -3431,8 +3436,8 @@
       <c r="D14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="30" t="s">
-        <v>240</v>
+      <c r="E14" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F14" s="4">
         <v>130</v>
@@ -3440,7 +3445,7 @@
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="14.4">
-      <c r="A15" s="33">
+      <c r="A15" s="32">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -3452,8 +3457,8 @@
       <c r="D15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>240</v>
+      <c r="E15" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F15" s="4">
         <v>140</v>
@@ -3461,7 +3466,7 @@
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="14.4">
-      <c r="A16" s="33">
+      <c r="A16" s="32">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -3473,8 +3478,8 @@
       <c r="D16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="30" t="s">
-        <v>240</v>
+      <c r="E16" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F16" s="4">
         <v>150</v>
@@ -3482,7 +3487,7 @@
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" ht="14.4">
-      <c r="A17" s="33">
+      <c r="A17" s="32">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -3494,8 +3499,8 @@
       <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="30" t="s">
-        <v>240</v>
+      <c r="E17" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F17" s="4">
         <v>160</v>
@@ -3503,7 +3508,7 @@
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="14.4">
-      <c r="A18" s="33">
+      <c r="A18" s="32">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -3515,8 +3520,8 @@
       <c r="D18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>240</v>
+      <c r="E18" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F18" s="4">
         <v>170</v>
@@ -3524,7 +3529,7 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" ht="14.4">
-      <c r="A19" s="33">
+      <c r="A19" s="32">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -3536,8 +3541,8 @@
       <c r="D19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="34" t="s">
-        <v>241</v>
+      <c r="E19" s="33" t="s">
+        <v>240</v>
       </c>
       <c r="F19" s="4">
         <v>180</v>
@@ -3545,7 +3550,7 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A20" s="33">
+      <c r="A20" s="32">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -3557,8 +3562,8 @@
       <c r="D20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="30" t="s">
-        <v>240</v>
+      <c r="E20" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F20" s="4">
         <v>190</v>
@@ -3566,7 +3571,7 @@
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A21" s="33">
+      <c r="A21" s="32">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3578,8 +3583,8 @@
       <c r="D21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="30" t="s">
-        <v>240</v>
+      <c r="E21" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F21" s="4">
         <v>200</v>
@@ -3587,7 +3592,7 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="33">
+      <c r="A22" s="32">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -3599,16 +3604,16 @@
       <c r="D22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="30" t="s">
-        <v>240</v>
+      <c r="E22" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F22" s="4">
         <v>201</v>
       </c>
-      <c r="G22" s="17"/>
+      <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A23" s="33">
+      <c r="A23" s="32">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -3620,16 +3625,16 @@
       <c r="D23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="30" t="s">
-        <v>240</v>
+      <c r="E23" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F23" s="4">
         <v>202</v>
       </c>
-      <c r="G23" s="17"/>
+      <c r="G23" s="16"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="33">
+      <c r="A24" s="32">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -3641,16 +3646,16 @@
       <c r="D24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="30" t="s">
-        <v>240</v>
+      <c r="E24" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F24" s="4">
         <v>203</v>
       </c>
-      <c r="G24" s="17"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A25" s="33">
+      <c r="A25" s="32">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -3662,16 +3667,16 @@
       <c r="D25" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E25" s="30" t="s">
-        <v>240</v>
+      <c r="E25" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F25" s="4">
         <v>204</v>
       </c>
-      <c r="G25" s="17"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A26" s="33">
+      <c r="A26" s="32">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3683,16 +3688,16 @@
       <c r="D26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="30" t="s">
-        <v>240</v>
+      <c r="E26" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F26" s="4">
         <v>205</v>
       </c>
-      <c r="G26" s="17"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A27" s="33">
+      <c r="A27" s="32">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -3704,16 +3709,16 @@
       <c r="D27" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="30" t="s">
-        <v>240</v>
+      <c r="E27" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F27" s="4">
         <v>206</v>
       </c>
-      <c r="G27" s="17"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A28" s="33">
+      <c r="A28" s="32">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3725,16 +3730,16 @@
       <c r="D28" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="30" t="s">
-        <v>240</v>
+      <c r="E28" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F28" s="4">
         <v>207</v>
       </c>
-      <c r="G28" s="17"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A29" s="33">
+      <c r="A29" s="32">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3746,16 +3751,16 @@
       <c r="D29" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E29" s="34" t="s">
-        <v>241</v>
+      <c r="E29" s="33" t="s">
+        <v>240</v>
       </c>
       <c r="F29" s="4">
         <v>208</v>
       </c>
-      <c r="G29" s="17"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A30" s="33">
+      <c r="A30" s="32">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -3767,16 +3772,16 @@
       <c r="D30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="34" t="s">
-        <v>241</v>
+      <c r="E30" s="33" t="s">
+        <v>240</v>
       </c>
       <c r="F30" s="4">
         <v>209</v>
       </c>
-      <c r="G30" s="17"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A31" s="33">
+      <c r="A31" s="32">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -3788,16 +3793,16 @@
       <c r="D31" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="30" t="s">
-        <v>240</v>
+      <c r="E31" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F31" s="4">
         <v>210</v>
       </c>
-      <c r="G31" s="17"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A32" s="33">
+      <c r="A32" s="32">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -3809,16 +3814,16 @@
       <c r="D32" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="30" t="s">
-        <v>240</v>
+      <c r="E32" s="29" t="s">
+        <v>239</v>
       </c>
       <c r="F32" s="4">
         <v>211</v>
       </c>
-      <c r="G32" s="17"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A33" s="33">
+      <c r="A33" s="32">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -3830,16 +3835,16 @@
       <c r="D33" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="34" t="s">
-        <v>241</v>
+      <c r="E33" s="33" t="s">
+        <v>240</v>
       </c>
       <c r="F33" s="4">
         <v>212</v>
       </c>
-      <c r="G33" s="17"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A34" s="33">
+      <c r="A34" s="32">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -3857,10 +3862,10 @@
       <c r="F34" s="4">
         <v>213</v>
       </c>
-      <c r="G34" s="17"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A35" s="33">
+      <c r="A35" s="32">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -3878,10 +3883,10 @@
       <c r="F35" s="4">
         <v>214</v>
       </c>
-      <c r="G35" s="17"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A36" s="33">
+      <c r="A36" s="32">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -3899,10 +3904,10 @@
       <c r="F36" s="4">
         <v>215</v>
       </c>
-      <c r="G36" s="17"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A37" s="33">
+      <c r="A37" s="32">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -3920,10 +3925,10 @@
       <c r="F37" s="4">
         <v>216</v>
       </c>
-      <c r="G37" s="17"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A38" s="33">
+      <c r="A38" s="32">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3941,10 +3946,10 @@
       <c r="F38" s="4">
         <v>217</v>
       </c>
-      <c r="G38" s="17"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A39" s="33">
+      <c r="A39" s="32">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -3962,10 +3967,10 @@
       <c r="F39" s="4">
         <v>218</v>
       </c>
-      <c r="G39" s="17"/>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A40" s="33">
+      <c r="A40" s="32">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -3983,10 +3988,10 @@
       <c r="F40" s="4">
         <v>219</v>
       </c>
-      <c r="G40" s="17"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A41" s="33">
+      <c r="A41" s="32">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -4004,10 +4009,10 @@
       <c r="F41" s="4">
         <v>220</v>
       </c>
-      <c r="G41" s="17"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A42" s="33">
+      <c r="A42" s="32">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -4025,10 +4030,10 @@
       <c r="F42" s="4">
         <v>221</v>
       </c>
-      <c r="G42" s="17"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A43" s="33">
+      <c r="A43" s="32">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -4046,10 +4051,10 @@
       <c r="F43" s="4">
         <v>222</v>
       </c>
-      <c r="G43" s="17"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A44" s="33">
+      <c r="A44" s="32">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -4067,10 +4072,10 @@
       <c r="F44" s="4">
         <v>223</v>
       </c>
-      <c r="G44" s="17"/>
+      <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A45" s="33">
+      <c r="A45" s="32">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -4088,10 +4093,10 @@
       <c r="F45" s="4">
         <v>224</v>
       </c>
-      <c r="G45" s="17"/>
+      <c r="G45" s="16"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A46" s="33">
+      <c r="A46" s="32">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -4109,10 +4114,10 @@
       <c r="F46" s="4">
         <v>225</v>
       </c>
-      <c r="G46" s="17"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A47" s="33">
+      <c r="A47" s="32">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -4130,10 +4135,10 @@
       <c r="F47" s="4">
         <v>226</v>
       </c>
-      <c r="G47" s="17"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A48" s="33">
+      <c r="A48" s="32">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -4146,15 +4151,15 @@
         <v>107</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F48" s="4">
         <v>227</v>
       </c>
-      <c r="G48" s="17"/>
+      <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A49" s="33">
+      <c r="A49" s="32">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -4166,16 +4171,16 @@
       <c r="D49" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="30" t="s">
-        <v>241</v>
+      <c r="E49" s="29" t="s">
+        <v>240</v>
       </c>
       <c r="F49" s="4">
         <v>228</v>
       </c>
-      <c r="G49" s="17"/>
+      <c r="G49" s="16"/>
     </row>
     <row r="50" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A50" s="33">
+      <c r="A50" s="32">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -4187,16 +4192,16 @@
       <c r="D50" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="E50" s="30" t="s">
-        <v>241</v>
+      <c r="E50" s="29" t="s">
+        <v>240</v>
       </c>
       <c r="F50" s="4">
         <v>229</v>
       </c>
-      <c r="G50" s="17"/>
+      <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A51" s="33">
+      <c r="A51" s="32">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -4208,16 +4213,16 @@
       <c r="D51" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="30" t="s">
-        <v>241</v>
+      <c r="E51" s="29" t="s">
+        <v>240</v>
       </c>
       <c r="F51" s="4">
         <v>230</v>
       </c>
-      <c r="G51" s="17"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A52" s="33">
+      <c r="A52" s="32">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -4235,10 +4240,10 @@
       <c r="F52" s="4">
         <v>231</v>
       </c>
-      <c r="G52" s="17"/>
+      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A53" s="33">
+      <c r="A53" s="32">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -4256,10 +4261,10 @@
       <c r="F53" s="4">
         <v>232</v>
       </c>
-      <c r="G53" s="17"/>
+      <c r="G53" s="16"/>
     </row>
     <row r="54" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A54" s="33">
+      <c r="A54" s="32">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -4277,10 +4282,10 @@
       <c r="F54" s="4">
         <v>233</v>
       </c>
-      <c r="G54" s="17"/>
+      <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A55" s="33">
+      <c r="A55" s="32">
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -4298,10 +4303,10 @@
       <c r="F55" s="4">
         <v>234</v>
       </c>
-      <c r="G55" s="17"/>
+      <c r="G55" s="16"/>
     </row>
     <row r="56" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A56" s="33">
+      <c r="A56" s="32">
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -4319,10 +4324,10 @@
       <c r="F56" s="4">
         <v>235</v>
       </c>
-      <c r="G56" s="17"/>
+      <c r="G56" s="16"/>
     </row>
     <row r="57" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A57" s="33">
+      <c r="A57" s="32">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -4340,10 +4345,10 @@
       <c r="F57" s="4">
         <v>236</v>
       </c>
-      <c r="G57" s="17"/>
+      <c r="G57" s="16"/>
     </row>
     <row r="58" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A58" s="33">
+      <c r="A58" s="32">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -4361,10 +4366,10 @@
       <c r="F58" s="4">
         <v>237</v>
       </c>
-      <c r="G58" s="17"/>
+      <c r="G58" s="16"/>
     </row>
     <row r="59" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A59" s="33">
+      <c r="A59" s="32">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -4377,15 +4382,15 @@
         <v>137</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F59" s="4">
         <v>238</v>
       </c>
-      <c r="G59" s="17"/>
+      <c r="G59" s="16"/>
     </row>
     <row r="60" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A60" s="33">
+      <c r="A60" s="32">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -4398,15 +4403,15 @@
         <v>141</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F60" s="4">
         <v>239</v>
       </c>
-      <c r="G60" s="17"/>
+      <c r="G60" s="16"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A61" s="33">
+      <c r="A61" s="32">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -4419,15 +4424,15 @@
         <v>145</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F61" s="4">
         <v>240</v>
       </c>
-      <c r="G61" s="17"/>
+      <c r="G61" s="16"/>
     </row>
     <row r="62" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A62" s="33">
+      <c r="A62" s="32">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -4440,15 +4445,15 @@
         <v>149</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F62" s="4">
         <v>241</v>
       </c>
-      <c r="G62" s="17"/>
+      <c r="G62" s="16"/>
     </row>
     <row r="63" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A63" s="33">
+      <c r="A63" s="32">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -4466,10 +4471,10 @@
       <c r="F63" s="4">
         <v>242</v>
       </c>
-      <c r="G63" s="17"/>
+      <c r="G63" s="16"/>
     </row>
     <row r="64" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A64" s="33">
+      <c r="A64" s="32">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -4487,10 +4492,10 @@
       <c r="F64" s="4">
         <v>243</v>
       </c>
-      <c r="G64" s="17"/>
+      <c r="G64" s="16"/>
     </row>
     <row r="65" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A65" s="33">
+      <c r="A65" s="32">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -4508,10 +4513,10 @@
       <c r="F65" s="4">
         <v>244</v>
       </c>
-      <c r="G65" s="17"/>
+      <c r="G65" s="16"/>
     </row>
     <row r="66" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A66" s="33">
+      <c r="A66" s="32">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -4529,10 +4534,10 @@
       <c r="F66" s="4">
         <v>245</v>
       </c>
-      <c r="G66" s="17"/>
+      <c r="G66" s="16"/>
     </row>
     <row r="67" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A67" s="33">
+      <c r="A67" s="32">
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -4550,10 +4555,10 @@
       <c r="F67" s="4">
         <v>246</v>
       </c>
-      <c r="G67" s="17"/>
+      <c r="G67" s="16"/>
     </row>
     <row r="68" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A68" s="33">
+      <c r="A68" s="32">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -4571,10 +4576,10 @@
       <c r="F68" s="4">
         <v>247</v>
       </c>
-      <c r="G68" s="17"/>
+      <c r="G68" s="16"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A69" s="33">
+      <c r="A69" s="32">
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -4592,10 +4597,10 @@
       <c r="F69" s="4">
         <v>248</v>
       </c>
-      <c r="G69" s="17"/>
+      <c r="G69" s="16"/>
     </row>
     <row r="70" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A70" s="33">
+      <c r="A70" s="32">
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -4613,10 +4618,10 @@
       <c r="F70" s="4">
         <v>249</v>
       </c>
-      <c r="G70" s="17"/>
+      <c r="G70" s="16"/>
     </row>
     <row r="71" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A71" s="33">
+      <c r="A71" s="32">
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -4634,10 +4639,10 @@
       <c r="F71" s="4">
         <v>250</v>
       </c>
-      <c r="G71" s="17"/>
+      <c r="G71" s="16"/>
     </row>
     <row r="72" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A72" s="33">
+      <c r="A72" s="32">
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -4655,10 +4660,10 @@
       <c r="F72" s="4">
         <v>251</v>
       </c>
-      <c r="G72" s="17"/>
+      <c r="G72" s="16"/>
     </row>
     <row r="73" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A73" s="33">
+      <c r="A73" s="32">
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -4676,10 +4681,10 @@
       <c r="F73" s="4">
         <v>252</v>
       </c>
-      <c r="G73" s="17"/>
+      <c r="G73" s="16"/>
     </row>
     <row r="74" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A74" s="33">
+      <c r="A74" s="32">
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -4697,10 +4702,10 @@
       <c r="F74" s="4">
         <v>253</v>
       </c>
-      <c r="G74" s="17"/>
+      <c r="G74" s="16"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A75" s="33">
+      <c r="A75" s="32">
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -4718,10 +4723,10 @@
       <c r="F75" s="4">
         <v>254</v>
       </c>
-      <c r="G75" s="17"/>
+      <c r="G75" s="16"/>
     </row>
     <row r="76" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A76" s="33">
+      <c r="A76" s="32">
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -4739,7 +4744,7 @@
       <c r="F76" s="4">
         <v>255</v>
       </c>
-      <c r="G76" s="17"/>
+      <c r="G76" s="16"/>
     </row>
     <row r="77" spans="1:7" ht="15" hidden="1" customHeight="1"/>
     <row r="78" spans="1:7" ht="15" hidden="1" customHeight="1"/>
@@ -5977,516 +5982,516 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="14.4">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="14.4">
-      <c r="B2" s="22">
+      <c r="B2" s="21">
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="2:6" ht="14.4">
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="2:6" ht="14.4">
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="2:6" ht="14.4">
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="15"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="2:6" ht="14.4">
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="2:6" ht="14.4">
-      <c r="B7" s="22">
+      <c r="B7" s="21">
         <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="2:6" ht="14.4">
-      <c r="B8" s="22">
+      <c r="B8" s="21">
         <v>7</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="2:6" ht="14.4">
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>8</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="2:6" ht="14.4">
-      <c r="B10" s="22">
+      <c r="B10" s="21">
         <v>9</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="2:6" ht="14.4">
-      <c r="B11" s="22">
+      <c r="B11" s="21">
         <v>10</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="2:6" ht="14.4">
-      <c r="B12" s="22">
+      <c r="B12" s="21">
         <v>11</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="2:6" ht="14.4">
-      <c r="B13" s="22">
+      <c r="B13" s="21">
         <v>12</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="2:6" ht="14.4">
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <v>13</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="2:6" ht="14.4">
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>14</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="2:6" ht="14.4">
-      <c r="B16" s="22">
+      <c r="B16" s="21">
         <v>15</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="2:6" ht="14.4">
-      <c r="B17" s="22">
+      <c r="B17" s="21">
         <v>16</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="2:6" ht="14.4">
-      <c r="B18" s="22">
+      <c r="B18" s="21">
         <v>17</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="2:6" ht="14.4">
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>18</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>19</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>20</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="15"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>21</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="15"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B23" s="22">
+      <c r="B23" s="21">
         <v>22</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="15"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B24" s="22">
+      <c r="B24" s="21">
         <v>23</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B25" s="22">
+      <c r="B25" s="21">
         <v>24</v>
       </c>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="F25" s="15"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B26" s="22">
+      <c r="B26" s="21">
         <v>25</v>
       </c>
-      <c r="C26" s="25" t="s">
+      <c r="C26" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="22" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F26" s="15"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B27" s="22">
+      <c r="B27" s="21">
         <v>26</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="F27" s="15"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>27</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="15"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B29" s="22">
+      <c r="B29" s="21">
         <v>28</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F29" s="15"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B30" s="22">
+      <c r="B30" s="21">
         <v>29</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F30" s="15"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B31" s="22">
+      <c r="B31" s="21">
         <v>30</v>
       </c>
-      <c r="C31" s="25" t="s">
+      <c r="C31" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="F31" s="15"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B32" s="22">
+      <c r="B32" s="21">
         <v>31</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="F32" s="15"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B33" s="22">
+      <c r="B33" s="21">
         <v>32</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="F33" s="15"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B34" s="22">
+      <c r="B34" s="21">
         <v>33</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="C34" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="F34" s="15"/>
+      <c r="F34" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:F34">
@@ -6502,10 +6507,10 @@
   <dimension ref="B1:G976"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -6546,14 +6551,14 @@
       <c r="C2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>282</v>
+      <c r="F2" s="22" t="s">
+        <v>281</v>
       </c>
       <c r="G2" s="11"/>
     </row>
@@ -6564,14 +6569,14 @@
       <c r="C3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>301</v>
+      <c r="F3" s="22" t="s">
+        <v>300</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -6582,14 +6587,14 @@
       <c r="C4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="23" t="s">
+      <c r="D4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>289</v>
+      <c r="F4" s="22" t="s">
+        <v>288</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -6600,14 +6605,14 @@
       <c r="C5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>284</v>
+      <c r="F5" s="22" t="s">
+        <v>283</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -6618,14 +6623,14 @@
       <c r="C6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>293</v>
+      <c r="F6" s="22" t="s">
+        <v>292</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -6636,14 +6641,14 @@
       <c r="C7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="23" t="s">
+      <c r="D7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>282</v>
+      <c r="F7" s="22" t="s">
+        <v>281</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -6654,14 +6659,14 @@
       <c r="C8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="D8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>289</v>
+      <c r="F8" s="22" t="s">
+        <v>288</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -6672,14 +6677,14 @@
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="23" t="s">
+      <c r="D9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>267</v>
+      <c r="F9" s="22" t="s">
+        <v>266</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -6690,14 +6695,14 @@
       <c r="C10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>285</v>
+      <c r="F10" s="22" t="s">
+        <v>284</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -6708,14 +6713,14 @@
       <c r="C11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="16" t="s">
+      <c r="D11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>289</v>
+      <c r="F11" s="22" t="s">
+        <v>288</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -6726,13 +6731,15 @@
       <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="22" t="s">
+        <v>288</v>
+      </c>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="2:7" ht="14.4">
@@ -6742,13 +6749,15 @@
       <c r="C13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="13" t="s">
+      <c r="D13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="22" t="s">
+        <v>283</v>
+      </c>
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="2:7" ht="14.4">
@@ -6758,13 +6767,15 @@
       <c r="C14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="D14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="11"/>
+      <c r="F14" s="22" t="s">
+        <v>281</v>
+      </c>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="2:7" ht="14.4">
@@ -6774,13 +6785,15 @@
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="22" t="s">
+        <v>286</v>
+      </c>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="2:7" ht="14.4">
@@ -6790,13 +6803,15 @@
       <c r="C16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="22" t="s">
+        <v>301</v>
+      </c>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="2:7" ht="14.4">
@@ -6806,13 +6821,15 @@
       <c r="C17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="22" t="s">
+        <v>280</v>
+      </c>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="2:7" ht="14.4">
@@ -6822,13 +6839,15 @@
       <c r="C18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="D18" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="22" t="s">
+        <v>274</v>
+      </c>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="2:7" ht="14.4">
@@ -6838,13 +6857,15 @@
       <c r="C19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="22" t="s">
+        <v>302</v>
+      </c>
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1">
@@ -6854,13 +6875,15 @@
       <c r="C20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="13" t="s">
+      <c r="D20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="22" t="s">
+        <v>288</v>
+      </c>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1">
@@ -6870,582 +6893,592 @@
       <c r="C21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="13" t="s">
+      <c r="D21" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="22" t="s">
+        <v>268</v>
+      </c>
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>21</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="D22" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="F22" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>22</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="D23" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="F23" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>23</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="16" t="s">
+      <c r="D24" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="F24" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>24</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="F25" s="24" t="s">
+        <v>281</v>
+      </c>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B26" s="24">
+      <c r="B26" s="23">
         <v>1</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="16" t="s">
+      <c r="D26" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="F26" s="23">
+      <c r="F26" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B27" s="23">
+        <v>2</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B28" s="23">
+        <v>3</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B29" s="23">
+        <v>4</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B30" s="23">
+        <v>5</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B31" s="23">
+        <v>6</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B32" s="23">
+        <v>7</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B33" s="23">
+        <v>8</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B34" s="23">
+        <v>9</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B35" s="23">
         <v>10</v>
       </c>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B27" s="24">
+      <c r="C35" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B36" s="23">
+        <v>11</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B37" s="23">
+        <v>12</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B38" s="23">
+        <v>13</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B39" s="23">
+        <v>14</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B40" s="23">
+        <v>15</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B41" s="23">
+        <v>1</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B42" s="23">
         <v>2</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="F27" s="23">
-        <v>20</v>
-      </c>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B28" s="24">
+      <c r="C42" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B43" s="23">
         <v>3</v>
       </c>
-      <c r="C28" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="F28" s="23">
-        <v>30</v>
-      </c>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B29" s="24">
+      <c r="C43" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>272</v>
+      </c>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B44" s="23">
         <v>4</v>
       </c>
-      <c r="C29" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="F29" s="23">
-        <v>40</v>
-      </c>
-      <c r="G29" s="23"/>
-    </row>
-    <row r="30" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B30" s="24">
+      <c r="C44" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B45" s="23">
         <v>5</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="F30" s="23">
-        <v>50</v>
-      </c>
-      <c r="G30" s="23"/>
-    </row>
-    <row r="31" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B31" s="24">
+      <c r="C45" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B46" s="23">
         <v>6</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="F31" s="23">
-        <v>60</v>
-      </c>
-      <c r="G31" s="23"/>
-    </row>
-    <row r="32" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B32" s="24">
+      <c r="C46" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B47" s="23">
         <v>7</v>
       </c>
-      <c r="C32" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F32" s="23">
-        <v>70</v>
-      </c>
-      <c r="G32" s="23"/>
-    </row>
-    <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="24">
-        <v>8</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="F33" s="23">
-        <v>80</v>
-      </c>
-      <c r="G33" s="23"/>
-    </row>
-    <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="24">
+      <c r="C47" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B48" s="23">
+        <v>8</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B49" s="23">
         <v>9</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="F34" s="23">
-        <v>90</v>
-      </c>
-      <c r="G34" s="23"/>
-    </row>
-    <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="24">
+      <c r="C49" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B50" s="23">
         <v>10</v>
       </c>
-      <c r="C35" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D35" s="23" t="s">
+      <c r="C50" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="F35" s="23">
-        <v>100</v>
-      </c>
-      <c r="G35" s="23"/>
-    </row>
-    <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="24">
+      <c r="E50" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B51" s="23">
         <v>11</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D36" s="23" t="s">
+      <c r="C51" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B52" s="23">
+        <v>12</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D52" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="F36" s="23">
-        <v>110</v>
-      </c>
-      <c r="G36" s="23"/>
-    </row>
-    <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="24">
-        <v>12</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="F37" s="23">
-        <v>120</v>
-      </c>
-      <c r="G37" s="23"/>
-    </row>
-    <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="24">
+      <c r="E52" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F52" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B53" s="23">
         <v>13</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="F38" s="23">
-        <v>130</v>
-      </c>
-      <c r="G38" s="23"/>
-    </row>
-    <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="24">
-        <v>14</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="F39" s="23">
-        <v>140</v>
-      </c>
-      <c r="G39" s="23"/>
-    </row>
-    <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="24">
-        <v>15</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F40" s="23">
-        <v>150</v>
-      </c>
-      <c r="G40" s="23"/>
-    </row>
-    <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="24">
-        <v>1</v>
-      </c>
-      <c r="C41" s="23" t="s">
+      <c r="C53" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="D41" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="F41" s="23">
-        <v>10</v>
-      </c>
-      <c r="G41" s="23"/>
-    </row>
-    <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="24">
-        <v>2</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="F42" s="23">
-        <v>20</v>
-      </c>
-      <c r="G42" s="23"/>
-    </row>
-    <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="24">
-        <v>3</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="F43" s="23">
-        <v>30</v>
-      </c>
-      <c r="G43" s="23"/>
-    </row>
-    <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="24">
-        <v>4</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="F44" s="23">
-        <v>40</v>
-      </c>
-      <c r="G44" s="23"/>
-    </row>
-    <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="24">
-        <v>5</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="F45" s="23">
-        <v>50</v>
-      </c>
-      <c r="G45" s="23"/>
-    </row>
-    <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="24">
-        <v>6</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="F46" s="23">
-        <v>60</v>
-      </c>
-      <c r="G46" s="23"/>
-    </row>
-    <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="24">
-        <v>7</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="F47" s="23">
-        <v>70</v>
-      </c>
-      <c r="G47" s="23"/>
-    </row>
-    <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="24">
-        <v>8</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="F48" s="23">
-        <v>80</v>
-      </c>
-      <c r="G48" s="23"/>
-    </row>
-    <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="24">
-        <v>9</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="F49" s="23">
-        <v>90</v>
-      </c>
-      <c r="G49" s="23"/>
-    </row>
-    <row r="50" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B50" s="24">
-        <v>10</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="F50" s="23">
-        <v>100</v>
-      </c>
-      <c r="G50" s="23"/>
-    </row>
-    <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="24">
-        <v>11</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="F51" s="23">
-        <v>110</v>
-      </c>
-      <c r="G51" s="23"/>
-    </row>
-    <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="24">
-        <v>12</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="16" t="s">
+      <c r="D53" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="F52" s="23">
-        <v>120</v>
-      </c>
-      <c r="G52" s="23"/>
-    </row>
-    <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="24">
-        <v>13</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="F53" s="23">
-        <v>130</v>
-      </c>
-      <c r="G53" s="23"/>
+      <c r="F53" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="G53" s="22"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
@@ -8395,294 +8428,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.4">
-      <c r="A2" s="22">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="34">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.4">
+      <c r="A3" s="21">
+        <v>2</v>
+      </c>
+      <c r="B3" s="34">
+        <v>2</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D3" s="35" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.4">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="34">
+        <v>3</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.4">
+      <c r="A5" s="21">
+        <v>4</v>
+      </c>
+      <c r="B5" s="34">
+        <v>4</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.4">
+      <c r="A6" s="21">
+        <v>5</v>
+      </c>
+      <c r="B6" s="34">
+        <v>5</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.4">
+      <c r="A7" s="21">
+        <v>6</v>
+      </c>
+      <c r="B7" s="34">
+        <v>6</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.4">
+      <c r="A8" s="21">
+        <v>7</v>
+      </c>
+      <c r="B8" s="34">
+        <v>7</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="35" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.4">
-      <c r="A3" s="22">
-        <v>2</v>
-      </c>
-      <c r="B3" s="35">
-        <v>2</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.4">
-      <c r="A4" s="22">
-        <v>3</v>
-      </c>
-      <c r="B4" s="35">
-        <v>3</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.4">
-      <c r="A5" s="22">
-        <v>4</v>
-      </c>
-      <c r="B5" s="35">
-        <v>4</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.4">
-      <c r="A6" s="22">
-        <v>5</v>
-      </c>
-      <c r="B6" s="35">
-        <v>5</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.4">
-      <c r="A7" s="22">
-        <v>6</v>
-      </c>
-      <c r="B7" s="35">
-        <v>6</v>
-      </c>
-      <c r="C7" s="23" t="s">
+    <row r="9" spans="1:4" ht="14.4">
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="34">
+        <v>8</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D9" s="35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.4">
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="34">
+        <v>9</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.4">
+      <c r="A11" s="21">
+        <v>10</v>
+      </c>
+      <c r="B11" s="34">
+        <v>10</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.4">
+      <c r="A12" s="21">
+        <v>11</v>
+      </c>
+      <c r="B12" s="34">
+        <v>11</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.4">
+      <c r="A13" s="21">
+        <v>12</v>
+      </c>
+      <c r="B13" s="34">
+        <v>12</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.4">
+      <c r="A14" s="21">
+        <v>13</v>
+      </c>
+      <c r="B14" s="34">
+        <v>13</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.4">
+      <c r="A15" s="21">
+        <v>14</v>
+      </c>
+      <c r="B15" s="34">
+        <v>14</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.4">
+      <c r="A16" s="21">
+        <v>15</v>
+      </c>
+      <c r="B16" s="34">
+        <v>15</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.4">
+      <c r="A17" s="21">
+        <v>16</v>
+      </c>
+      <c r="B17" s="34">
+        <v>16</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.4">
+      <c r="A18" s="21">
+        <v>17</v>
+      </c>
+      <c r="B18" s="34">
+        <v>17</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.4">
+      <c r="A19" s="21">
+        <v>18</v>
+      </c>
+      <c r="B19" s="34">
+        <v>18</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" s="35" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.4">
-      <c r="A8" s="22">
-        <v>7</v>
-      </c>
-      <c r="B8" s="35">
-        <v>7</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.4">
-      <c r="A9" s="22">
-        <v>8</v>
-      </c>
-      <c r="B9" s="35">
-        <v>8</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.4">
-      <c r="A10" s="22">
-        <v>9</v>
-      </c>
-      <c r="B10" s="35">
-        <v>9</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.4">
-      <c r="A11" s="22">
-        <v>10</v>
-      </c>
-      <c r="B11" s="35">
-        <v>10</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.4">
-      <c r="A12" s="22">
-        <v>11</v>
-      </c>
-      <c r="B12" s="35">
-        <v>11</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.4">
-      <c r="A13" s="22">
-        <v>12</v>
-      </c>
-      <c r="B13" s="35">
-        <v>12</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.4">
-      <c r="A14" s="22">
-        <v>13</v>
-      </c>
-      <c r="B14" s="35">
-        <v>13</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.4">
-      <c r="A15" s="22">
-        <v>14</v>
-      </c>
-      <c r="B15" s="35">
-        <v>14</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="D15" s="36" t="s">
+    <row r="20" spans="1:4" ht="14.4">
+      <c r="A20" s="21">
+        <v>19</v>
+      </c>
+      <c r="B20" s="34">
+        <v>19</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" s="35" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="14.4">
-      <c r="A16" s="22">
-        <v>15</v>
-      </c>
-      <c r="B16" s="35">
-        <v>15</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.4">
-      <c r="A17" s="22">
-        <v>16</v>
-      </c>
-      <c r="B17" s="35">
-        <v>16</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.4">
-      <c r="A18" s="22">
-        <v>17</v>
-      </c>
-      <c r="B18" s="35">
-        <v>17</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.4">
-      <c r="A19" s="22">
-        <v>18</v>
-      </c>
-      <c r="B19" s="35">
-        <v>18</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.4">
-      <c r="A20" s="22">
-        <v>19</v>
-      </c>
-      <c r="B20" s="35">
-        <v>19</v>
-      </c>
-      <c r="C20" s="23" t="s">
+    <row r="21" spans="1:4" ht="14.4">
+      <c r="A21" s="21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="34">
+        <v>20</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="D20" s="36" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.4">
-      <c r="A21" s="22">
-        <v>20</v>
-      </c>
-      <c r="B21" s="35">
-        <v>20</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>272</v>
+      <c r="D21" s="35" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/00_assignment/0. Data structures programs/MCS_001_Data Structures_Algorithms.xlsx
+++ b/00_assignment/0. Data structures programs/MCS_001_Data Structures_Algorithms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="B. String_63" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="304">
   <si>
     <t>Program #</t>
   </si>
@@ -5963,11 +5963,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -5976,7 +5976,7 @@
     <col min="2" max="2" width="6.3984375" customWidth="1"/>
     <col min="3" max="3" width="8.69921875" customWidth="1"/>
     <col min="4" max="4" width="5.3984375" customWidth="1"/>
-    <col min="5" max="5" width="39.09765625" customWidth="1"/>
+    <col min="5" max="5" width="83.296875" customWidth="1"/>
     <col min="6" max="6" width="28.19921875" customWidth="1"/>
     <col min="7" max="21" width="7.59765625" customWidth="1"/>
   </cols>
@@ -6008,10 +6008,12 @@
       <c r="D2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="24" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="3" spans="2:6" ht="14.4">
       <c r="B3" s="21">
@@ -6023,10 +6025,12 @@
       <c r="D3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="24" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="4" spans="2:6" ht="14.4">
       <c r="B4" s="21">
@@ -6038,10 +6042,12 @@
       <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="24" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="5" spans="2:6" ht="14.4">
       <c r="B5" s="21">
@@ -6053,10 +6059,12 @@
       <c r="D5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="24" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="6" spans="2:6" ht="14.4">
       <c r="B6" s="21">
@@ -6068,10 +6076,12 @@
       <c r="D6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="24" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="7" spans="2:6" ht="14.4">
       <c r="B7" s="21">
@@ -6083,10 +6093,12 @@
       <c r="D7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="24" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="8" spans="2:6" ht="14.4">
       <c r="B8" s="21">
@@ -6098,10 +6110,12 @@
       <c r="D8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="24" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="14.4">
       <c r="B9" s="21">
@@ -6113,10 +6127,12 @@
       <c r="D9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="24" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="10" spans="2:6" ht="14.4">
       <c r="B10" s="21">
@@ -6128,10 +6144,12 @@
       <c r="D10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="24" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="11" spans="2:6" ht="14.4">
       <c r="B11" s="21">
@@ -6143,10 +6161,12 @@
       <c r="D11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="24" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="12" spans="2:6" ht="14.4">
       <c r="B12" s="21">
@@ -6158,10 +6178,12 @@
       <c r="D12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="24" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="13" spans="2:6" ht="14.4">
       <c r="B13" s="21">
@@ -6173,10 +6195,12 @@
       <c r="D13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="24" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="14" spans="2:6" ht="14.4">
       <c r="B14" s="21">
@@ -6188,10 +6212,12 @@
       <c r="D14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="24" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="15" spans="2:6" ht="14.4">
       <c r="B15" s="21">
@@ -6203,10 +6229,12 @@
       <c r="D15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="24" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="16" spans="2:6" ht="14.4">
       <c r="B16" s="21">
@@ -6218,10 +6246,12 @@
       <c r="D16" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="24" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="17" spans="2:6" ht="14.4">
       <c r="B17" s="21">
@@ -6233,10 +6263,12 @@
       <c r="D17" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="24" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="18" spans="2:6" ht="14.4">
       <c r="B18" s="21">
@@ -6248,10 +6280,12 @@
       <c r="D18" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="24" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="19" spans="2:6" ht="14.4">
       <c r="B19" s="21">
@@ -6263,10 +6297,12 @@
       <c r="D19" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="24" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1">
       <c r="B20" s="21">
@@ -6278,10 +6314,12 @@
       <c r="D20" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="F20" s="24" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1">
       <c r="B21" s="21">
@@ -6293,10 +6331,12 @@
       <c r="D21" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="24" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" customHeight="1">
       <c r="B22" s="21">
@@ -6308,10 +6348,12 @@
       <c r="D22" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="24" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" customHeight="1">
       <c r="B23" s="21">
@@ -6323,10 +6365,12 @@
       <c r="D23" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="24" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="24" spans="2:6" ht="15.75" customHeight="1">
       <c r="B24" s="21">
@@ -6338,10 +6382,12 @@
       <c r="D24" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="24" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" customHeight="1">
       <c r="B25" s="21">
@@ -6353,10 +6399,12 @@
       <c r="D25" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="24" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" customHeight="1">
       <c r="B26" s="21">
@@ -6368,10 +6416,12 @@
       <c r="D26" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="F26" s="14"/>
+      <c r="F26" s="24" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" customHeight="1">
       <c r="B27" s="21">
@@ -6383,10 +6433,12 @@
       <c r="D27" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="F27" s="14"/>
+      <c r="F27" s="24" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="28" spans="2:6" ht="15.75" customHeight="1">
       <c r="B28" s="21">
@@ -6398,10 +6450,12 @@
       <c r="D28" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="22" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="14"/>
+      <c r="F28" s="24" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" customHeight="1">
       <c r="B29" s="21">
@@ -6413,10 +6467,12 @@
       <c r="D29" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="F29" s="14"/>
+      <c r="F29" s="24" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" customHeight="1">
       <c r="B30" s="21">
@@ -6428,10 +6484,12 @@
       <c r="D30" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="F30" s="14"/>
+      <c r="F30" s="24" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" customHeight="1">
       <c r="B31" s="21">
@@ -6443,10 +6501,12 @@
       <c r="D31" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="F31" s="14"/>
+      <c r="F31" s="24" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1">
       <c r="B32" s="21">
@@ -6458,10 +6518,12 @@
       <c r="D32" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="F32" s="14"/>
+      <c r="F32" s="24" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="33" spans="2:6" ht="15.75" customHeight="1">
       <c r="B33" s="21">
@@ -6473,10 +6535,12 @@
       <c r="D33" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="F33" s="14"/>
+      <c r="F33" s="24" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="34" spans="2:6" ht="15.75" customHeight="1">
       <c r="B34" s="21">
@@ -6488,7 +6552,7 @@
       <c r="D34" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="22" t="s">
         <v>167</v>
       </c>
       <c r="F34" s="14"/>
@@ -6506,7 +6570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:G976"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/00_assignment/0. Data structures programs/MCS_001_Data Structures_Algorithms.xlsx
+++ b/00_assignment/0. Data structures programs/MCS_001_Data Structures_Algorithms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="B. String_63" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'10.FUNCTIONS'!$A$1:$C$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'B. String_63'!$A$1:$G$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'C. List_75'!$A$1:$G$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'C. List_75'!$A$1:$F$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'D. Tuple,set,Arrays52'!$B$1:$G$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'E. Dictionary_33'!$B$1:$F$34</definedName>
     <definedName name="S.No" localSheetId="4">'10.FUNCTIONS'!$B$2</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="300">
   <si>
     <t>Program #</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Sum of elements</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Mulitply of elements</t>
   </si>
   <si>
@@ -745,16 +742,7 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>IN progress</t>
-  </si>
-  <si>
     <t>S.No</t>
-  </si>
-  <si>
-    <t>in progress</t>
   </si>
   <si>
     <t>check given word is palindrome or not</t>
@@ -1027,7 +1015,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1043,12 +1031,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,7 +1123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1187,7 +1169,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
@@ -1428,7 +1409,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>1</v>
@@ -1454,22 +1435,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1480,22 +1461,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -1506,22 +1487,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1532,22 +1513,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -1558,22 +1539,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H6">
         <v>29</v>
@@ -1584,22 +1565,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H7">
         <v>30</v>
@@ -1610,22 +1591,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H8">
         <v>31</v>
@@ -1636,22 +1617,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H9">
         <v>4</v>
@@ -1662,22 +1643,22 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H10">
         <v>32</v>
@@ -1688,22 +1669,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -1714,22 +1695,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -1740,22 +1721,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H13">
         <v>7</v>
@@ -1766,22 +1747,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -1792,22 +1773,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H15">
         <v>33</v>
@@ -1818,22 +1799,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H16">
         <v>62</v>
@@ -1844,22 +1825,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H17">
         <v>63</v>
@@ -1870,22 +1851,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H18">
         <v>34</v>
@@ -1896,22 +1877,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H19">
         <v>35</v>
@@ -1922,22 +1903,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H20">
         <v>9</v>
@@ -1948,22 +1929,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H21">
         <v>36</v>
@@ -1974,22 +1955,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H22">
         <v>10</v>
@@ -2000,22 +1981,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H23">
         <v>37</v>
@@ -2026,22 +2007,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H24">
         <v>11</v>
@@ -2052,22 +2033,22 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H25">
         <v>12</v>
@@ -2078,22 +2059,22 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H26">
         <v>38</v>
@@ -2104,22 +2085,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H27">
         <v>39</v>
@@ -2130,22 +2111,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H28">
         <v>40</v>
@@ -2156,22 +2137,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H29">
         <v>41</v>
@@ -2182,22 +2163,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H30">
         <v>13</v>
@@ -2208,22 +2189,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H31">
         <v>14</v>
@@ -2234,22 +2215,22 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H32">
         <v>15</v>
@@ -2260,22 +2241,22 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H33">
         <v>42</v>
@@ -2286,22 +2267,22 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H34">
         <v>43</v>
@@ -2312,22 +2293,22 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H35">
         <v>44</v>
@@ -2338,22 +2319,22 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H36">
         <v>16</v>
@@ -2364,22 +2345,22 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H37">
         <v>17</v>
@@ -2390,22 +2371,22 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H38">
         <v>45</v>
@@ -2416,22 +2397,22 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H39">
         <v>18</v>
@@ -2442,22 +2423,22 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H40">
         <v>46</v>
@@ -2468,22 +2449,22 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H41">
         <v>47</v>
@@ -2494,22 +2475,22 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" s="25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H42">
         <v>48</v>
@@ -2520,22 +2501,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H43">
         <v>19</v>
@@ -2546,22 +2527,22 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H44">
         <v>49</v>
@@ -2572,22 +2553,22 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H45">
         <v>20</v>
@@ -2598,22 +2579,22 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H46">
         <v>50</v>
@@ -2624,22 +2605,22 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H47">
         <v>21</v>
@@ -2650,22 +2631,22 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H48">
         <v>51</v>
@@ -2676,22 +2657,22 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H49">
         <v>22</v>
@@ -2702,22 +2683,22 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H50">
         <v>23</v>
@@ -2728,22 +2709,22 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H51">
         <v>52</v>
@@ -2754,22 +2735,22 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D52" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H52">
         <v>53</v>
@@ -2780,22 +2761,22 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H53">
         <v>64</v>
@@ -2806,22 +2787,22 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" s="25" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H54">
         <v>54</v>
@@ -2832,22 +2813,22 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55" s="25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H55">
         <v>65</v>
@@ -2858,22 +2839,22 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H56">
         <v>55</v>
@@ -2884,22 +2865,22 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H57">
         <v>56</v>
@@ -2910,22 +2891,22 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H58">
         <v>24</v>
@@ -2936,22 +2917,22 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H59">
         <v>25</v>
@@ -2962,22 +2943,22 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H60">
         <v>57</v>
@@ -2988,22 +2969,22 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H61">
         <v>26</v>
@@ -3014,22 +2995,22 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H62">
         <v>59</v>
@@ -3040,22 +3021,22 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D63" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H63">
         <v>60</v>
@@ -3066,22 +3047,22 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H64">
         <v>27</v>
@@ -3092,22 +3073,22 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65" s="26" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H65">
         <v>61</v>
@@ -3124,27 +3105,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1280"/>
+  <dimension ref="A1:I1280"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A999" sqref="A999:XFD1280"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.3984375" customWidth="1"/>
     <col min="2" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="30.69921875" customWidth="1"/>
-    <col min="5" max="5" width="9.19921875" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" customWidth="1"/>
-    <col min="7" max="7" width="32.09765625" customWidth="1"/>
-    <col min="8" max="22" width="7.59765625" customWidth="1"/>
+    <col min="4" max="4" width="73.19921875" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" customWidth="1"/>
+    <col min="6" max="6" width="32.09765625" customWidth="1"/>
+    <col min="7" max="21" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4">
+    <row r="1" spans="1:9" ht="14.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3158,16 +3138,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.4">
+    <row r="2" spans="1:9" ht="14.4">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -3177,18 +3154,15 @@
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F2" s="4">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.4">
+      <c r="E2" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.4">
       <c r="A3" s="32">
         <v>2</v>
       </c>
@@ -3198,18 +3172,15 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F3" s="4">
-        <v>20</v>
-      </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.4">
+      <c r="D3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.4">
       <c r="A4" s="32">
         <v>3</v>
       </c>
@@ -3219,18 +3190,15 @@
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F4" s="4">
-        <v>30</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.4">
+      <c r="D4" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.4">
       <c r="A5" s="32">
         <v>4</v>
       </c>
@@ -3240,20 +3208,17 @@
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F5" s="4">
-        <v>40</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-    </row>
-    <row r="6" spans="1:10" ht="14.4">
+      <c r="D5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.4">
       <c r="A6" s="32">
         <v>5</v>
       </c>
@@ -3261,20 +3226,17 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F6" s="4">
-        <v>50</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.4">
+      <c r="E6" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.4">
       <c r="A7" s="32">
         <v>6</v>
       </c>
@@ -3282,20 +3244,17 @@
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F7" s="4">
-        <v>60</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.4">
+      <c r="E7" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.4">
       <c r="A8" s="32">
         <v>7</v>
       </c>
@@ -3306,18 +3265,15 @@
         <v>8</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F8" s="4">
-        <v>70</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="J8" s="35"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.4">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4">
       <c r="A9" s="32">
         <v>8</v>
       </c>
@@ -3328,17 +3284,14 @@
         <v>8</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F9" s="4">
-        <v>80</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.4">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.4">
       <c r="A10" s="32">
         <v>9</v>
       </c>
@@ -3348,19 +3301,16 @@
       <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F10" s="4">
-        <v>90</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="J10" s="35"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.4">
+      <c r="D10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.4">
       <c r="A11" s="32">
         <v>10</v>
       </c>
@@ -3368,20 +3318,17 @@
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" s="4">
-        <v>100</v>
-      </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.4">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.4">
       <c r="A12" s="32">
         <v>11</v>
       </c>
@@ -3391,18 +3338,15 @@
       <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F12" s="4">
-        <v>110</v>
-      </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="14.4">
+      <c r="D12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.4">
       <c r="A13" s="32">
         <v>12</v>
       </c>
@@ -3412,18 +3356,15 @@
       <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F13" s="4">
-        <v>120</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.4">
+      <c r="D13" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.4">
       <c r="A14" s="32">
         <v>13</v>
       </c>
@@ -3431,20 +3372,17 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F14" s="4">
-        <v>130</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="14.4">
+        <v>13</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.4">
       <c r="A15" s="32">
         <v>14</v>
       </c>
@@ -3455,17 +3393,12 @@
         <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F15" s="4">
-        <v>140</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.4">
+        <v>24</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.4">
       <c r="A16" s="32">
         <v>15</v>
       </c>
@@ -3476,17 +3409,12 @@
         <v>8</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F16" s="4">
-        <v>150</v>
-      </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.4">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.4">
       <c r="A17" s="32">
         <v>16</v>
       </c>
@@ -3494,20 +3422,15 @@
         <v>7</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F17" s="4">
-        <v>160</v>
-      </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.4">
+        <v>26</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.4">
       <c r="A18" s="32">
         <v>17</v>
       </c>
@@ -3515,20 +3438,15 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F18" s="4">
-        <v>170</v>
-      </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.4">
+        <v>27</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.4">
       <c r="A19" s="32">
         <v>18</v>
       </c>
@@ -3536,20 +3454,15 @@
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F19" s="4">
-        <v>180</v>
-      </c>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="32">
         <v>19</v>
       </c>
@@ -3560,17 +3473,12 @@
         <v>8</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F20" s="4">
-        <v>190</v>
-      </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+        <v>29</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="32">
         <v>20</v>
       </c>
@@ -3581,17 +3489,12 @@
         <v>8</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F21" s="4">
-        <v>200</v>
-      </c>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+        <v>30</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="32">
         <v>21</v>
       </c>
@@ -3602,17 +3505,12 @@
         <v>8</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F22" s="4">
-        <v>201</v>
-      </c>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="32">
         <v>22</v>
       </c>
@@ -3623,17 +3521,12 @@
         <v>8</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F23" s="4">
-        <v>202</v>
-      </c>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+        <v>56</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="32">
         <v>23</v>
       </c>
@@ -3644,17 +3537,12 @@
         <v>8</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F24" s="4">
-        <v>203</v>
-      </c>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+        <v>58</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="32">
         <v>24</v>
       </c>
@@ -3665,17 +3553,12 @@
         <v>8</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F25" s="4">
-        <v>204</v>
-      </c>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+        <v>59</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="32">
         <v>25</v>
       </c>
@@ -3686,17 +3569,12 @@
         <v>8</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F26" s="4">
-        <v>205</v>
-      </c>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="32">
         <v>26</v>
       </c>
@@ -3707,17 +3585,12 @@
         <v>8</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F27" s="4">
-        <v>206</v>
-      </c>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+        <v>62</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="32">
         <v>27</v>
       </c>
@@ -3728,17 +3601,12 @@
         <v>8</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F28" s="4">
-        <v>207</v>
-      </c>
-      <c r="G28" s="16"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+        <v>64</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="32">
         <v>28</v>
       </c>
@@ -3749,17 +3617,12 @@
         <v>8</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F29" s="4">
-        <v>208</v>
-      </c>
-      <c r="G29" s="16"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="32">
         <v>29</v>
       </c>
@@ -3770,17 +3633,12 @@
         <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F30" s="4">
-        <v>209</v>
-      </c>
-      <c r="G30" s="16"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1">
+        <v>67</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="32">
         <v>30</v>
       </c>
@@ -3791,17 +3649,12 @@
         <v>8</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F31" s="4">
-        <v>210</v>
-      </c>
-      <c r="G31" s="16"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1">
+        <v>68</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="32">
         <v>31</v>
       </c>
@@ -3812,17 +3665,12 @@
         <v>8</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>239</v>
-      </c>
-      <c r="F32" s="4">
-        <v>211</v>
-      </c>
-      <c r="G32" s="16"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1">
+        <v>70</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="32">
         <v>32</v>
       </c>
@@ -3833,17 +3681,12 @@
         <v>8</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F33" s="4">
-        <v>212</v>
-      </c>
-      <c r="G33" s="16"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1">
+        <v>71</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="32">
         <v>33</v>
       </c>
@@ -3854,17 +3697,12 @@
         <v>8</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="4">
-        <v>213</v>
-      </c>
-      <c r="G34" s="16"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1">
+        <v>73</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="32">
         <v>34</v>
       </c>
@@ -3875,17 +3713,12 @@
         <v>8</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="4">
-        <v>214</v>
-      </c>
-      <c r="G35" s="16"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1">
+        <v>74</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="32">
         <v>35</v>
       </c>
@@ -3896,17 +3729,12 @@
         <v>8</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="4">
-        <v>215</v>
-      </c>
-      <c r="G36" s="16"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1">
+        <v>75</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="32">
         <v>36</v>
       </c>
@@ -3917,17 +3745,12 @@
         <v>8</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="4">
-        <v>216</v>
-      </c>
-      <c r="G37" s="16"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1">
+        <v>77</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="32">
         <v>37</v>
       </c>
@@ -3938,17 +3761,12 @@
         <v>8</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="4">
-        <v>217</v>
-      </c>
-      <c r="G38" s="16"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1">
+        <v>78</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="32">
         <v>38</v>
       </c>
@@ -3959,17 +3777,12 @@
         <v>8</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="4">
-        <v>218</v>
-      </c>
-      <c r="G39" s="16"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1">
+        <v>80</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="32">
         <v>39</v>
       </c>
@@ -3980,17 +3793,12 @@
         <v>8</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="4">
-        <v>219</v>
-      </c>
-      <c r="G40" s="16"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1">
+        <v>81</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="32">
         <v>40</v>
       </c>
@@ -4001,17 +3809,12 @@
         <v>8</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="4">
-        <v>220</v>
-      </c>
-      <c r="G41" s="16"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1">
+        <v>83</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="32">
         <v>41</v>
       </c>
@@ -4022,17 +3825,12 @@
         <v>8</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="4">
-        <v>221</v>
-      </c>
-      <c r="G42" s="16"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1">
+        <v>84</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="32">
         <v>42</v>
       </c>
@@ -4043,17 +3841,12 @@
         <v>8</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="4">
-        <v>222</v>
-      </c>
-      <c r="G43" s="16"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1">
+        <v>86</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="32">
         <v>43</v>
       </c>
@@ -4064,17 +3857,12 @@
         <v>8</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="4">
-        <v>223</v>
-      </c>
-      <c r="G44" s="16"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1">
+        <v>90</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="32">
         <v>44</v>
       </c>
@@ -4085,17 +3873,12 @@
         <v>8</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="4">
-        <v>224</v>
-      </c>
-      <c r="G45" s="16"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1">
+        <v>96</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="32">
         <v>45</v>
       </c>
@@ -4106,17 +3889,12 @@
         <v>8</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="4">
-        <v>225</v>
-      </c>
-      <c r="G46" s="16"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1">
+        <v>98</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1">
       <c r="A47" s="32">
         <v>46</v>
       </c>
@@ -4127,17 +3905,12 @@
         <v>8</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="4">
-        <v>226</v>
-      </c>
-      <c r="G47" s="16"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1">
+        <v>102</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1">
       <c r="A48" s="32">
         <v>47</v>
       </c>
@@ -4148,17 +3921,12 @@
         <v>8</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="F48" s="4">
-        <v>227</v>
-      </c>
-      <c r="G48" s="16"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1">
+        <v>106</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1">
       <c r="A49" s="32">
         <v>48</v>
       </c>
@@ -4169,17 +3937,12 @@
         <v>8</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="F49" s="4">
-        <v>228</v>
-      </c>
-      <c r="G49" s="16"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1">
+        <v>109</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1">
       <c r="A50" s="32">
         <v>49</v>
       </c>
@@ -4190,17 +3953,12 @@
         <v>8</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="F50" s="4">
-        <v>229</v>
-      </c>
-      <c r="G50" s="16"/>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1">
+        <v>111</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1">
       <c r="A51" s="32">
         <v>50</v>
       </c>
@@ -4211,17 +3969,12 @@
         <v>8</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E51" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="F51" s="4">
-        <v>230</v>
-      </c>
-      <c r="G51" s="16"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1">
+        <v>115</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="16"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
       <c r="A52" s="32">
         <v>51</v>
       </c>
@@ -4232,17 +3985,12 @@
         <v>8</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="4">
-        <v>231</v>
-      </c>
-      <c r="G52" s="16"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1">
+        <v>119</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="32">
         <v>52</v>
       </c>
@@ -4253,17 +4001,12 @@
         <v>8</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="4">
-        <v>232</v>
-      </c>
-      <c r="G53" s="16"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1">
+        <v>123</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="16"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
       <c r="A54" s="32">
         <v>53</v>
       </c>
@@ -4274,17 +4017,12 @@
         <v>8</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="4">
-        <v>233</v>
-      </c>
-      <c r="G54" s="16"/>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1">
+        <v>125</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="16"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="A55" s="32">
         <v>54</v>
       </c>
@@ -4295,17 +4033,12 @@
         <v>8</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="4">
-        <v>234</v>
-      </c>
-      <c r="G55" s="16"/>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1">
+        <v>127</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="16"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1">
       <c r="A56" s="32">
         <v>55</v>
       </c>
@@ -4316,17 +4049,12 @@
         <v>8</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="4">
-        <v>235</v>
-      </c>
-      <c r="G56" s="16"/>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1">
+        <v>130</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="16"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1">
       <c r="A57" s="32">
         <v>56</v>
       </c>
@@ -4337,17 +4065,12 @@
         <v>8</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="4">
-        <v>236</v>
-      </c>
-      <c r="G57" s="16"/>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1">
+        <v>131</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="16"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1">
       <c r="A58" s="32">
         <v>57</v>
       </c>
@@ -4358,17 +4081,12 @@
         <v>8</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="4">
-        <v>237</v>
-      </c>
-      <c r="G58" s="16"/>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1">
+        <v>132</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="16"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1">
       <c r="A59" s="32">
         <v>58</v>
       </c>
@@ -4379,17 +4097,12 @@
         <v>8</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F59" s="4">
-        <v>238</v>
-      </c>
-      <c r="G59" s="16"/>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1">
+        <v>136</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="16"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="32">
         <v>59</v>
       </c>
@@ -4400,17 +4113,12 @@
         <v>8</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F60" s="4">
-        <v>239</v>
-      </c>
-      <c r="G60" s="16"/>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1">
+        <v>140</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="16"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1">
       <c r="A61" s="32">
         <v>60</v>
       </c>
@@ -4421,17 +4129,12 @@
         <v>8</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="F61" s="4">
-        <v>240</v>
-      </c>
-      <c r="G61" s="16"/>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1">
+        <v>144</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="16"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1">
       <c r="A62" s="32">
         <v>61</v>
       </c>
@@ -4442,17 +4145,12 @@
         <v>8</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F62" s="4">
-        <v>241</v>
-      </c>
-      <c r="G62" s="16"/>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1">
+        <v>148</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="16"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1">
       <c r="A63" s="32">
         <v>62</v>
       </c>
@@ -4463,17 +4161,12 @@
         <v>8</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="4">
-        <v>242</v>
-      </c>
-      <c r="G63" s="16"/>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1">
+        <v>150</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="16"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1">
       <c r="A64" s="32">
         <v>63</v>
       </c>
@@ -4484,17 +4177,12 @@
         <v>8</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="4">
-        <v>243</v>
-      </c>
-      <c r="G64" s="16"/>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1">
+        <v>154</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="16"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1">
       <c r="A65" s="32">
         <v>64</v>
       </c>
@@ -4505,17 +4193,12 @@
         <v>8</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="4">
-        <v>244</v>
-      </c>
-      <c r="G65" s="16"/>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1">
+        <v>156</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="16"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1">
       <c r="A66" s="32">
         <v>65</v>
       </c>
@@ -4526,17 +4209,12 @@
         <v>8</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="4">
-        <v>245</v>
-      </c>
-      <c r="G66" s="16"/>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1">
+        <v>157</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="16"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1">
       <c r="A67" s="32">
         <v>66</v>
       </c>
@@ -4547,17 +4225,12 @@
         <v>8</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="4">
-        <v>246</v>
-      </c>
-      <c r="G67" s="16"/>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1">
+        <v>160</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="16"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1">
       <c r="A68" s="32">
         <v>67</v>
       </c>
@@ -4568,17 +4241,12 @@
         <v>8</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="4">
-        <v>247</v>
-      </c>
-      <c r="G68" s="16"/>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1">
+        <v>163</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="16"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1">
       <c r="A69" s="32">
         <v>68</v>
       </c>
@@ -4589,17 +4257,12 @@
         <v>8</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="4">
-        <v>248</v>
-      </c>
-      <c r="G69" s="16"/>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1">
+        <v>167</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="16"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1">
       <c r="A70" s="32">
         <v>69</v>
       </c>
@@ -4610,17 +4273,12 @@
         <v>8</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="4">
-        <v>249</v>
-      </c>
-      <c r="G70" s="16"/>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1">
+        <v>169</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="16"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1">
       <c r="A71" s="32">
         <v>70</v>
       </c>
@@ -4631,17 +4289,12 @@
         <v>8</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="4">
-        <v>250</v>
-      </c>
-      <c r="G71" s="16"/>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1">
+        <v>171</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="16"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1">
       <c r="A72" s="32">
         <v>71</v>
       </c>
@@ -4652,17 +4305,12 @@
         <v>8</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="4">
-        <v>251</v>
-      </c>
-      <c r="G72" s="16"/>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1">
+        <v>173</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="16"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1">
       <c r="A73" s="32">
         <v>72</v>
       </c>
@@ -4673,17 +4321,12 @@
         <v>8</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="4">
-        <v>252</v>
-      </c>
-      <c r="G73" s="16"/>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1">
+        <v>175</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="16"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1">
       <c r="A74" s="32">
         <v>73</v>
       </c>
@@ -4694,17 +4337,12 @@
         <v>8</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="4">
-        <v>253</v>
-      </c>
-      <c r="G74" s="16"/>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1">
+        <v>177</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="16"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1">
       <c r="A75" s="32">
         <v>74</v>
       </c>
@@ -4715,17 +4353,12 @@
         <v>8</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="4">
-        <v>254</v>
-      </c>
-      <c r="G75" s="16"/>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1">
+        <v>179</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="16"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1">
       <c r="A76" s="32">
         <v>75</v>
       </c>
@@ -4736,20 +4369,15 @@
         <v>8</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="4">
-        <v>255</v>
-      </c>
-      <c r="G76" s="16"/>
-    </row>
-    <row r="77" spans="1:7" ht="15" hidden="1" customHeight="1"/>
-    <row r="78" spans="1:7" ht="15" hidden="1" customHeight="1"/>
-    <row r="79" spans="1:7" ht="15" hidden="1" customHeight="1"/>
-    <row r="80" spans="1:7" ht="15" hidden="1" customHeight="1"/>
+        <v>181</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="16"/>
+    </row>
+    <row r="77" spans="1:6" ht="15" hidden="1" customHeight="1"/>
+    <row r="78" spans="1:6" ht="15" hidden="1" customHeight="1"/>
+    <row r="79" spans="1:6" ht="15" hidden="1" customHeight="1"/>
+    <row r="80" spans="1:6" ht="15" hidden="1" customHeight="1"/>
     <row r="81" ht="15" hidden="1" customHeight="1"/>
     <row r="82" ht="15" hidden="1" customHeight="1"/>
     <row r="83" ht="15" hidden="1" customHeight="1"/>
@@ -5951,7 +5579,7 @@
     <row r="1279" ht="15" hidden="1" customHeight="1"/>
     <row r="1280" ht="15" hidden="1" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:G76">
+  <autoFilter ref="A1:F76">
     <filterColumn colId="2"/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5963,7 +5591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6003,16 +5631,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>89</v>
-      </c>
       <c r="F2" s="24" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="14.4">
@@ -6020,16 +5648,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.4">
@@ -6037,16 +5665,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="14.4">
@@ -6054,16 +5682,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="14.4">
@@ -6071,16 +5699,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="14.4">
@@ -6088,16 +5716,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="14.4">
@@ -6105,16 +5733,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="14.4">
@@ -6122,16 +5750,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="14.4">
@@ -6139,16 +5767,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="14.4">
@@ -6156,16 +5784,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="14.4">
@@ -6173,16 +5801,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="14.4">
@@ -6190,16 +5818,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="14.4">
@@ -6207,16 +5835,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="14.4">
@@ -6224,16 +5852,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="14.4">
@@ -6241,16 +5869,16 @@
         <v>15</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="14.4">
@@ -6258,16 +5886,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="14.4">
@@ -6275,16 +5903,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="14.4">
@@ -6292,16 +5920,16 @@
         <v>18</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1">
@@ -6309,16 +5937,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1">
@@ -6326,16 +5954,16 @@
         <v>20</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" customHeight="1">
@@ -6343,16 +5971,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" customHeight="1">
@@ -6360,16 +5988,16 @@
         <v>22</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.75" customHeight="1">
@@ -6377,16 +6005,16 @@
         <v>23</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" customHeight="1">
@@ -6394,16 +6022,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" customHeight="1">
@@ -6411,16 +6039,16 @@
         <v>25</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" customHeight="1">
@@ -6428,16 +6056,16 @@
         <v>26</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="15.75" customHeight="1">
@@ -6445,16 +6073,16 @@
         <v>27</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" customHeight="1">
@@ -6462,16 +6090,16 @@
         <v>28</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" customHeight="1">
@@ -6479,16 +6107,16 @@
         <v>29</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" customHeight="1">
@@ -6496,16 +6124,16 @@
         <v>30</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1">
@@ -6513,16 +6141,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15.75" customHeight="1">
@@ -6530,16 +6158,16 @@
         <v>32</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15.75" customHeight="1">
@@ -6547,13 +6175,13 @@
         <v>33</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F34" s="14"/>
     </row>
@@ -6613,16 +6241,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>34</v>
-      </c>
       <c r="F2" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G2" s="11"/>
     </row>
@@ -6631,16 +6259,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -6649,16 +6277,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -6667,16 +6295,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -6685,16 +6313,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -6703,16 +6331,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G7" s="11"/>
     </row>
@@ -6721,16 +6349,16 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G8" s="11"/>
     </row>
@@ -6739,16 +6367,16 @@
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -6757,16 +6385,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G10" s="11"/>
     </row>
@@ -6775,16 +6403,16 @@
         <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G11" s="11"/>
     </row>
@@ -6793,16 +6421,16 @@
         <v>11</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -6811,16 +6439,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G13" s="11"/>
     </row>
@@ -6829,16 +6457,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -6847,16 +6475,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G15" s="11"/>
     </row>
@@ -6865,16 +6493,16 @@
         <v>15</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -6883,16 +6511,16 @@
         <v>16</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G17" s="11"/>
     </row>
@@ -6901,16 +6529,16 @@
         <v>17</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -6919,16 +6547,16 @@
         <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G19" s="11"/>
     </row>
@@ -6937,16 +6565,16 @@
         <v>19</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -6955,16 +6583,16 @@
         <v>20</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -6973,16 +6601,16 @@
         <v>21</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G22" s="14"/>
     </row>
@@ -6991,16 +6619,16 @@
         <v>22</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G23" s="14"/>
     </row>
@@ -7009,16 +6637,16 @@
         <v>23</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G24" s="14"/>
     </row>
@@ -7027,16 +6655,16 @@
         <v>24</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G25" s="14"/>
     </row>
@@ -7045,16 +6673,16 @@
         <v>1</v>
       </c>
       <c r="C26" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>195</v>
-      </c>
       <c r="F26" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G26" s="22"/>
     </row>
@@ -7063,16 +6691,16 @@
         <v>2</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G27" s="22"/>
     </row>
@@ -7081,16 +6709,16 @@
         <v>3</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G28" s="22"/>
     </row>
@@ -7099,16 +6727,16 @@
         <v>4</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G29" s="22"/>
     </row>
@@ -7117,16 +6745,16 @@
         <v>5</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G30" s="22"/>
     </row>
@@ -7135,16 +6763,16 @@
         <v>6</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G31" s="22"/>
     </row>
@@ -7153,16 +6781,16 @@
         <v>7</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D32" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G32" s="22"/>
     </row>
@@ -7171,16 +6799,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D33" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G33" s="22"/>
     </row>
@@ -7189,16 +6817,16 @@
         <v>9</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D34" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G34" s="22"/>
     </row>
@@ -7207,16 +6835,16 @@
         <v>10</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G35" s="22"/>
     </row>
@@ -7225,16 +6853,16 @@
         <v>11</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G36" s="22"/>
     </row>
@@ -7243,16 +6871,16 @@
         <v>12</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D37" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G37" s="22"/>
     </row>
@@ -7261,16 +6889,16 @@
         <v>13</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G38" s="22"/>
     </row>
@@ -7279,16 +6907,16 @@
         <v>14</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D39" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G39" s="22"/>
     </row>
@@ -7297,16 +6925,16 @@
         <v>15</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D40" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G40" s="22"/>
     </row>
@@ -7315,16 +6943,16 @@
         <v>1</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D41" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G41" s="22"/>
     </row>
@@ -7333,16 +6961,16 @@
         <v>2</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D42" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G42" s="22"/>
     </row>
@@ -7351,16 +6979,16 @@
         <v>3</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D43" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G43" s="22"/>
     </row>
@@ -7369,16 +6997,16 @@
         <v>4</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G44" s="22"/>
     </row>
@@ -7387,16 +7015,16 @@
         <v>5</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G45" s="22"/>
     </row>
@@ -7405,16 +7033,16 @@
         <v>6</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G46" s="22"/>
     </row>
@@ -7423,16 +7051,16 @@
         <v>7</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D47" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G47" s="22"/>
     </row>
@@ -7441,16 +7069,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D48" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G48" s="22"/>
     </row>
@@ -7459,16 +7087,16 @@
         <v>9</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D49" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G49" s="22"/>
     </row>
@@ -7477,16 +7105,16 @@
         <v>10</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G50" s="22"/>
     </row>
@@ -7495,16 +7123,16 @@
         <v>11</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D51" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G51" s="22"/>
     </row>
@@ -7513,16 +7141,16 @@
         <v>12</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G52" s="22"/>
     </row>
@@ -7531,16 +7159,16 @@
         <v>13</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D53" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G53" s="22"/>
     </row>
@@ -8496,7 +8124,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>3</v>
@@ -8506,280 +8134,280 @@
       <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="33">
         <v>1</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>243</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>295</v>
+        <v>239</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4">
       <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="33">
         <v>2</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>269</v>
+        <v>240</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4">
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="33">
         <v>3</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>277</v>
+        <v>241</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.4">
       <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="33">
         <v>4</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>277</v>
+        <v>242</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4">
       <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="33">
         <v>5</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>275</v>
+        <v>243</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4">
       <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="33">
         <v>6</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>273</v>
+        <v>244</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4">
       <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="33">
         <v>7</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>296</v>
+        <v>258</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.4">
       <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="33">
         <v>8</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>280</v>
+        <v>245</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.4">
       <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="33">
         <v>9</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>284</v>
+        <v>246</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.4">
       <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="33">
         <v>10</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>297</v>
+        <v>247</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.4">
       <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="33">
         <v>11</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>280</v>
+        <v>248</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.4">
       <c r="A13" s="21">
         <v>12</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="33">
         <v>12</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>281</v>
+        <v>249</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.4">
       <c r="A14" s="21">
         <v>13</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="33">
         <v>13</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>287</v>
+        <v>250</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.4">
       <c r="A15" s="21">
         <v>14</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="33">
         <v>14</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>255</v>
-      </c>
-      <c r="D15" s="35" t="s">
-        <v>298</v>
+        <v>251</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.4">
       <c r="A16" s="21">
         <v>15</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="33">
         <v>15</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>279</v>
+        <v>252</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.4">
       <c r="A17" s="21">
         <v>16</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="33">
         <v>16</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>257</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>281</v>
+        <v>253</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.4">
       <c r="A18" s="21">
         <v>17</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="33">
         <v>17</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>275</v>
+        <v>254</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.4">
       <c r="A19" s="21">
         <v>18</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="33">
         <v>18</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>274</v>
+        <v>255</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.4">
       <c r="A20" s="21">
         <v>19</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="33">
         <v>19</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>299</v>
+        <v>256</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.4">
       <c r="A21" s="21">
         <v>20</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="33">
         <v>20</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>271</v>
+        <v>257</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/00_assignment/0. Data structures programs/MCS_001_Data Structures_Algorithms.xlsx
+++ b/00_assignment/0. Data structures programs/MCS_001_Data Structures_Algorithms.xlsx
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'10.FUNCTIONS'!$A$1:$C$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'B. String_63'!$A$1:$G$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'C. List_75'!$A$1:$F$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'C. List_75'!$A$1:$E$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'D. Tuple,set,Arrays52'!$B$1:$G$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'E. Dictionary_33'!$B$1:$F$34</definedName>
     <definedName name="S.No" localSheetId="4">'10.FUNCTIONS'!$B$2</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="300">
   <si>
     <t>Program #</t>
   </si>
@@ -1123,7 +1123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1131,7 +1131,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1146,7 +1145,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1171,6 +1169,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1408,33 +1407,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.4">
-      <c r="A2" s="31">
+      <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="26" t="s">
         <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1446,7 +1445,7 @@
       <c r="E2" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>263</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -1457,10 +1456,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4">
-      <c r="A3" s="31">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="26" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1472,7 +1471,7 @@
       <c r="E3" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>262</v>
       </c>
       <c r="G3" s="1" t="s">
@@ -1483,10 +1482,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.4">
-      <c r="A4" s="31">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1498,7 +1497,7 @@
       <c r="E4" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="16" t="s">
         <v>264</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -1509,7 +1508,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.4">
-      <c r="A5" s="31">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1524,7 +1523,7 @@
       <c r="E5" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="16" t="s">
         <v>281</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -1535,7 +1534,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.4">
-      <c r="A6" s="31">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1550,7 +1549,7 @@
       <c r="E6" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="16" t="s">
         <v>279</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1561,7 +1560,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.4">
-      <c r="A7" s="31">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1576,7 +1575,7 @@
       <c r="E7" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>262</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1587,7 +1586,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.4">
-      <c r="A8" s="31">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1602,7 +1601,7 @@
       <c r="E8" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>282</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1613,7 +1612,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.4">
-      <c r="A9" s="31">
+      <c r="A9" s="29">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1628,7 +1627,7 @@
       <c r="E9" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="16" t="s">
         <v>265</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1639,7 +1638,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.4">
-      <c r="A10" s="31">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1654,7 +1653,7 @@
       <c r="E10" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>277</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1665,7 +1664,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.4">
-      <c r="A11" s="31">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1680,7 +1679,7 @@
       <c r="E11" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="16" t="s">
         <v>266</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1691,7 +1690,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.4">
-      <c r="A12" s="31">
+      <c r="A12" s="29">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1706,7 +1705,7 @@
       <c r="E12" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="16" t="s">
         <v>267</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1717,7 +1716,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.4">
-      <c r="A13" s="31">
+      <c r="A13" s="29">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1732,7 +1731,7 @@
       <c r="E13" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="16" t="s">
         <v>268</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1743,7 +1742,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.4">
-      <c r="A14" s="31">
+      <c r="A14" s="29">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1758,7 +1757,7 @@
       <c r="E14" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="16" t="s">
         <v>269</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1769,7 +1768,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.4">
-      <c r="A15" s="31">
+      <c r="A15" s="29">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1784,7 +1783,7 @@
       <c r="E15" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="16" t="s">
         <v>264</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -1795,7 +1794,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.4">
-      <c r="A16" s="31">
+      <c r="A16" s="29">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1810,7 +1809,7 @@
       <c r="E16" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="16" t="s">
         <v>268</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1821,7 +1820,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.4">
-      <c r="A17" s="31">
+      <c r="A17" s="29">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1836,7 +1835,7 @@
       <c r="E17" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="16" t="s">
         <v>280</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -1847,7 +1846,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.4">
-      <c r="A18" s="31">
+      <c r="A18" s="29">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1862,7 +1861,7 @@
       <c r="E18" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="16" t="s">
         <v>283</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -1873,7 +1872,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.4">
-      <c r="A19" s="31">
+      <c r="A19" s="29">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1888,7 +1887,7 @@
       <c r="E19" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="16" t="s">
         <v>284</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -1899,7 +1898,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="31">
+      <c r="A20" s="29">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1914,7 +1913,7 @@
       <c r="E20" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="16" t="s">
         <v>270</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -1925,22 +1924,22 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="31">
+      <c r="A21" s="29">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="23" t="s">
         <v>129</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="16" t="s">
         <v>280</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -1951,22 +1950,22 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="31">
+      <c r="A22" s="29">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="25" t="s">
+      <c r="C22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>261</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="16" t="s">
         <v>262</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -1977,22 +1976,22 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="31">
+      <c r="A23" s="29">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="23" t="s">
         <v>134</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="16" t="s">
         <v>262</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -2003,22 +2002,22 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="31">
+      <c r="A24" s="29">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="25" t="s">
+      <c r="C24" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="23" t="s">
         <v>137</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="16" t="s">
         <v>271</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -2029,22 +2028,22 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="31">
+      <c r="A25" s="29">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="25" t="s">
+      <c r="C25" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="23" t="s">
         <v>141</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="16" t="s">
         <v>272</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -2055,22 +2054,22 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="31">
+      <c r="A26" s="29">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="23" t="s">
         <v>143</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="16" t="s">
         <v>285</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -2081,22 +2080,22 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="31">
+      <c r="A27" s="29">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="24" t="s">
         <v>147</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="16" t="s">
         <v>273</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -2107,22 +2106,22 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="31">
+      <c r="A28" s="29">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="24" t="s">
         <v>153</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="16" t="s">
         <v>273</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -2133,22 +2132,22 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="31">
+      <c r="A29" s="29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="23" t="s">
         <v>155</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F29" s="18" t="s">
+      <c r="F29" s="16" t="s">
         <v>280</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -2159,22 +2158,22 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="31">
+      <c r="A30" s="29">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="25" t="s">
+      <c r="C30" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>158</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="16" t="s">
         <v>273</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -2185,22 +2184,22 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="31">
+      <c r="A31" s="29">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="25" t="s">
+      <c r="C31" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="23" t="s">
         <v>161</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="16" t="s">
         <v>269</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -2211,22 +2210,22 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="31">
+      <c r="A32" s="29">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="25" t="s">
+      <c r="C32" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="23" t="s">
         <v>165</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F32" s="18" t="s">
+      <c r="F32" s="16" t="s">
         <v>274</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -2237,22 +2236,22 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="31">
+      <c r="A33" s="29">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="23" t="s">
         <v>168</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="F33" s="16" t="s">
         <v>277</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -2263,22 +2262,22 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="31">
+      <c r="A34" s="29">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="25" t="s">
+      <c r="D34" s="23" t="s">
         <v>170</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="16" t="s">
         <v>270</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -2289,22 +2288,22 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="31">
+      <c r="A35" s="29">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="23" t="s">
         <v>172</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="16" t="s">
         <v>284</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -2315,22 +2314,22 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="31">
+      <c r="A36" s="29">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="25" t="s">
+      <c r="C36" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="23" t="s">
         <v>174</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F36" s="18" t="s">
+      <c r="F36" s="16" t="s">
         <v>262</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -2341,22 +2340,22 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="31">
+      <c r="A37" s="29">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="25" t="s">
+      <c r="C37" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="23" t="s">
         <v>176</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="16" t="s">
         <v>268</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -2367,22 +2366,22 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="31">
+      <c r="A38" s="29">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="23" t="s">
         <v>178</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="16" t="s">
         <v>284</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -2393,22 +2392,22 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="31">
+      <c r="A39" s="29">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="25" t="s">
+      <c r="C39" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="23" t="s">
         <v>180</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="16" t="s">
         <v>275</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -2419,22 +2418,22 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="31">
+      <c r="A40" s="29">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="23" t="s">
         <v>182</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F40" s="18" t="s">
+      <c r="F40" s="16" t="s">
         <v>286</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -2445,22 +2444,22 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="31">
+      <c r="A41" s="29">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="24" t="s">
         <v>183</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="16" t="s">
         <v>279</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -2471,22 +2470,22 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="31">
+      <c r="A42" s="29">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="23" t="s">
         <v>184</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="16" t="s">
         <v>267</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -2497,22 +2496,22 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="31">
+      <c r="A43" s="29">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="25" t="s">
+      <c r="C43" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="23" t="s">
         <v>185</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="16" t="s">
         <v>269</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -2523,22 +2522,22 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="31">
+      <c r="A44" s="29">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="23" t="s">
         <v>186</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="16" t="s">
         <v>284</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -2549,22 +2548,22 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="31">
+      <c r="A45" s="29">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="25" t="s">
+      <c r="C45" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="23" t="s">
         <v>187</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="16" t="s">
         <v>263</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -2575,22 +2574,22 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A46" s="31">
+      <c r="A46" s="29">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="18" t="s">
+      <c r="C46" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="23" t="s">
         <v>188</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="16" t="s">
         <v>287</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -2601,22 +2600,22 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A47" s="31">
+      <c r="A47" s="29">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="25" t="s">
+      <c r="C47" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="23" t="s">
         <v>189</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F47" s="18" t="s">
+      <c r="F47" s="16" t="s">
         <v>264</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -2627,22 +2626,22 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A48" s="31">
+      <c r="A48" s="29">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="C48" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="23" t="s">
         <v>190</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F48" s="18" t="s">
+      <c r="F48" s="16" t="s">
         <v>274</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -2653,22 +2652,22 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A49" s="31">
+      <c r="A49" s="29">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="25" t="s">
+      <c r="C49" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="23" t="s">
         <v>191</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F49" s="18" t="s">
+      <c r="F49" s="16" t="s">
         <v>276</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -2679,22 +2678,22 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="31">
+      <c r="A50" s="29">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="25" t="s">
+      <c r="C50" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="23" t="s">
         <v>192</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="16" t="s">
         <v>277</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -2705,22 +2704,22 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A51" s="31">
+      <c r="A51" s="29">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" s="23" t="s">
         <v>195</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F51" s="18" t="s">
+      <c r="F51" s="16" t="s">
         <v>268</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -2731,22 +2730,22 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="31">
+      <c r="A52" s="29">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="18" t="s">
+      <c r="C52" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="25" t="s">
+      <c r="D52" s="23" t="s">
         <v>197</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="16" t="s">
         <v>262</v>
       </c>
       <c r="G52" s="1" t="s">
@@ -2757,22 +2756,22 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="31">
+      <c r="A53" s="29">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="24" t="s">
         <v>199</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F53" s="18" t="s">
+      <c r="F53" s="16" t="s">
         <v>281</v>
       </c>
       <c r="G53" s="1" t="s">
@@ -2783,22 +2782,22 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A54" s="31">
+      <c r="A54" s="29">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="25" t="s">
+      <c r="D54" s="23" t="s">
         <v>203</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F54" s="18" t="s">
+      <c r="F54" s="16" t="s">
         <v>288</v>
       </c>
       <c r="G54" s="1" t="s">
@@ -2809,22 +2808,22 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A55" s="31">
+      <c r="A55" s="29">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="25" t="s">
+      <c r="D55" s="23" t="s">
         <v>206</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F55" s="18" t="s">
+      <c r="F55" s="16" t="s">
         <v>263</v>
       </c>
       <c r="G55" s="1" t="s">
@@ -2835,22 +2834,22 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A56" s="31">
+      <c r="A56" s="29">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="18" t="s">
+      <c r="C56" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="25" t="s">
+      <c r="D56" s="23" t="s">
         <v>208</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="16" t="s">
         <v>289</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -2861,22 +2860,22 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A57" s="31">
+      <c r="A57" s="29">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="26" t="s">
+      <c r="D57" s="24" t="s">
         <v>212</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F57" s="18" t="s">
+      <c r="F57" s="16" t="s">
         <v>274</v>
       </c>
       <c r="G57" s="1" t="s">
@@ -2887,22 +2886,22 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A58" s="31">
+      <c r="A58" s="29">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="26" t="s">
+      <c r="C58" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="24" t="s">
         <v>214</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F58" s="18" t="s">
+      <c r="F58" s="16" t="s">
         <v>278</v>
       </c>
       <c r="G58" s="1" t="s">
@@ -2913,22 +2912,22 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A59" s="31">
+      <c r="A59" s="29">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="26" t="s">
+      <c r="C59" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="24" t="s">
         <v>216</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F59" s="18" t="s">
+      <c r="F59" s="16" t="s">
         <v>279</v>
       </c>
       <c r="G59" s="1" t="s">
@@ -2939,22 +2938,22 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A60" s="31">
+      <c r="A60" s="29">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="26" t="s">
+      <c r="D60" s="24" t="s">
         <v>221</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F60" s="18" t="s">
+      <c r="F60" s="16" t="s">
         <v>266</v>
       </c>
       <c r="G60" s="1" t="s">
@@ -2965,22 +2964,22 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A61" s="31">
+      <c r="A61" s="29">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C61" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="26" t="s">
+      <c r="C61" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="24" t="s">
         <v>223</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F61" s="18" t="s">
+      <c r="F61" s="16" t="s">
         <v>280</v>
       </c>
       <c r="G61" s="1" t="s">
@@ -2991,22 +2990,22 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A62" s="31">
+      <c r="A62" s="29">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="26" t="s">
+      <c r="D62" s="24" t="s">
         <v>226</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F62" s="18" t="s">
+      <c r="F62" s="16" t="s">
         <v>265</v>
       </c>
       <c r="G62" s="1" t="s">
@@ -3017,22 +3016,22 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A63" s="31">
+      <c r="A63" s="29">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="26" t="s">
+      <c r="D63" s="24" t="s">
         <v>228</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F63" s="18" t="s">
+      <c r="F63" s="16" t="s">
         <v>290</v>
       </c>
       <c r="G63" s="1" t="s">
@@ -3043,22 +3042,22 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A64" s="31">
+      <c r="A64" s="29">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="26" t="s">
+      <c r="C64" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="24" t="s">
         <v>230</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F64" s="18" t="s">
+      <c r="F64" s="16" t="s">
         <v>270</v>
       </c>
       <c r="G64" s="1" t="s">
@@ -3069,7 +3068,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A65" s="31">
+      <c r="A65" s="29">
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -3078,7 +3077,7 @@
       <c r="C65" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="26" t="s">
+      <c r="D65" s="24" t="s">
         <v>234</v>
       </c>
       <c r="E65" s="1" t="s">
@@ -3105,13 +3104,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1280"/>
+  <dimension ref="A1:H1280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -3120,11 +3119,10 @@
     <col min="2" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="73.19921875" customWidth="1"/>
     <col min="5" max="5" width="13.09765625" customWidth="1"/>
-    <col min="6" max="6" width="32.09765625" customWidth="1"/>
-    <col min="7" max="21" width="7.59765625" customWidth="1"/>
+    <col min="6" max="20" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4">
+    <row r="1" spans="1:8" ht="14.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3140,12 +3138,9 @@
       <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="14.4">
-      <c r="A2" s="32">
+    </row>
+    <row r="2" spans="1:8" ht="14.4">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -3154,16 +3149,15 @@
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="27" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.4">
-      <c r="A3" s="32">
+    </row>
+    <row r="3" spans="1:8" ht="14.4">
+      <c r="A3" s="30">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3172,16 +3166,15 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="27" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.4">
-      <c r="A4" s="32">
+    </row>
+    <row r="4" spans="1:8" ht="14.4">
+      <c r="A4" s="30">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -3190,16 +3183,15 @@
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.4">
-      <c r="A5" s="32">
+    </row>
+    <row r="5" spans="1:8" ht="14.4">
+      <c r="A5" s="30">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -3208,18 +3200,17 @@
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="27" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.4">
-      <c r="A6" s="32">
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" ht="14.4">
+      <c r="A6" s="30">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -3228,16 +3219,15 @@
       <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="27" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.4">
-      <c r="A7" s="32">
+    </row>
+    <row r="7" spans="1:8" ht="14.4">
+      <c r="A7" s="30">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -3246,16 +3236,15 @@
       <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="27" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.4">
-      <c r="A8" s="32">
+    </row>
+    <row r="8" spans="1:8" ht="14.4">
+      <c r="A8" s="30">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -3264,17 +3253,16 @@
       <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="27" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="I8" s="34"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.4">
-      <c r="A9" s="32">
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.4">
+      <c r="A9" s="30">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -3283,16 +3271,15 @@
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="27" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.4">
-      <c r="A10" s="32">
+    </row>
+    <row r="10" spans="1:8" ht="14.4">
+      <c r="A10" s="30">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -3301,17 +3288,16 @@
       <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="27" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:9" ht="14.4">
-      <c r="A11" s="32">
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.4">
+      <c r="A11" s="30">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -3320,16 +3306,15 @@
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" ht="14.4">
-      <c r="A12" s="32">
+    </row>
+    <row r="12" spans="1:8" ht="14.4">
+      <c r="A12" s="30">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3338,16 +3323,15 @@
       <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="27" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" ht="14.4">
-      <c r="A13" s="32">
+    </row>
+    <row r="13" spans="1:8" ht="14.4">
+      <c r="A13" s="30">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -3356,16 +3340,15 @@
       <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="27" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.4">
-      <c r="A14" s="32">
+    </row>
+    <row r="14" spans="1:8" ht="14.4">
+      <c r="A14" s="30">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -3374,16 +3357,15 @@
       <c r="C14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="27" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" ht="14.4">
-      <c r="A15" s="32">
+    </row>
+    <row r="15" spans="1:8" ht="14.4">
+      <c r="A15" s="30">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -3392,14 +3374,15 @@
       <c r="C15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" ht="14.4">
-      <c r="A16" s="32">
+      <c r="E15" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.4">
+      <c r="A16" s="30">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -3408,14 +3391,15 @@
       <c r="C16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.4">
-      <c r="A17" s="32">
+      <c r="E16" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.4">
+      <c r="A17" s="30">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -3424,14 +3408,15 @@
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="14.4">
-      <c r="A18" s="32">
+      <c r="E17" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.4">
+      <c r="A18" s="30">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -3440,14 +3425,15 @@
       <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.4">
-      <c r="A19" s="32">
+      <c r="E18" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.4">
+      <c r="A19" s="30">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -3456,14 +3442,15 @@
       <c r="C19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A20" s="32">
+      <c r="E19" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A20" s="30">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -3472,14 +3459,15 @@
       <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A21" s="32">
+      <c r="E20" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A21" s="30">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3488,14 +3476,15 @@
       <c r="C21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A22" s="32">
+      <c r="E21" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A22" s="30">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -3504,14 +3493,15 @@
       <c r="C22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A23" s="32">
+      <c r="E22" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A23" s="30">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -3520,14 +3510,15 @@
       <c r="C23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="32">
+      <c r="E23" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A24" s="30">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -3536,14 +3527,15 @@
       <c r="C24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A25" s="32">
+      <c r="E24" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A25" s="30">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -3552,14 +3544,15 @@
       <c r="C25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="32">
+      <c r="E25" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A26" s="30">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3568,14 +3561,15 @@
       <c r="C26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A27" s="32">
+      <c r="E26" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A27" s="30">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -3584,14 +3578,15 @@
       <c r="C27" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" s="32">
+      <c r="E27" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A28" s="30">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3600,14 +3595,15 @@
       <c r="C28" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="32">
+      <c r="E28" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A29" s="30">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3616,14 +3612,15 @@
       <c r="C29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A30" s="32">
+      <c r="E29" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A30" s="30">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -3632,14 +3629,15 @@
       <c r="C30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A31" s="32">
+      <c r="E30" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A31" s="30">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -3648,14 +3646,15 @@
       <c r="C31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A32" s="32">
+      <c r="E31" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A32" s="30">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -3664,14 +3663,15 @@
       <c r="C32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A33" s="32">
+      <c r="E32" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A33" s="30">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -3680,14 +3680,15 @@
       <c r="C33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A34" s="32">
+      <c r="E33" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A34" s="30">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -3696,14 +3697,15 @@
       <c r="C34" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A35" s="32">
+      <c r="E34" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A35" s="30">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -3712,14 +3714,15 @@
       <c r="C35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A36" s="32">
+      <c r="E35" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A36" s="30">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -3728,14 +3731,15 @@
       <c r="C36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="4"/>
-      <c r="F36" s="16"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A37" s="32">
+      <c r="E36" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A37" s="30">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -3744,14 +3748,15 @@
       <c r="C37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A38" s="32">
+      <c r="E37" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A38" s="30">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3763,11 +3768,12 @@
       <c r="D38" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E38" s="4"/>
-      <c r="F38" s="16"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A39" s="32">
+      <c r="E38" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A39" s="30">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -3776,14 +3782,15 @@
       <c r="C39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="4"/>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A40" s="32">
+      <c r="E39" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A40" s="30">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -3792,14 +3799,15 @@
       <c r="C40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A41" s="32">
+      <c r="E40" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A41" s="30">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -3808,14 +3816,15 @@
       <c r="C41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A42" s="32">
+      <c r="E41" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A42" s="30">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -3824,14 +3833,15 @@
       <c r="C42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A43" s="32">
+      <c r="E42" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A43" s="30">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -3843,11 +3853,12 @@
       <c r="D43" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E43" s="4"/>
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A44" s="32">
+      <c r="E43" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A44" s="30">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -3859,11 +3870,12 @@
       <c r="D44" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="16"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A45" s="32">
+      <c r="E44" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A45" s="30">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -3875,11 +3887,12 @@
       <c r="D45" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="16"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A46" s="32">
+      <c r="E45" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A46" s="30">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -3891,11 +3904,12 @@
       <c r="D46" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A47" s="32">
+      <c r="E46" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A47" s="30">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -3907,11 +3921,12 @@
       <c r="D47" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="16"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A48" s="32">
+      <c r="E47" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A48" s="30">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -3923,11 +3938,12 @@
       <c r="D48" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A49" s="32">
+      <c r="E48" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A49" s="30">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -3939,11 +3955,12 @@
       <c r="D49" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A50" s="32">
+      <c r="E49" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A50" s="30">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -3955,11 +3972,12 @@
       <c r="D50" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="16"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A51" s="32">
+      <c r="E50" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A51" s="30">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -3971,11 +3989,12 @@
       <c r="D51" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="16"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A52" s="32">
+      <c r="E51" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A52" s="30">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -3987,11 +4006,12 @@
       <c r="D52" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="16"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A53" s="32">
+      <c r="E52" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A53" s="30">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -4003,11 +4023,12 @@
       <c r="D53" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="16"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A54" s="32">
+      <c r="E53" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A54" s="30">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -4019,11 +4040,12 @@
       <c r="D54" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="16"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A55" s="32">
+      <c r="E54" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A55" s="30">
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -4035,11 +4057,12 @@
       <c r="D55" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="16"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A56" s="32">
+      <c r="E55" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A56" s="30">
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -4051,11 +4074,12 @@
       <c r="D56" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="16"/>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A57" s="32">
+      <c r="E56" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A57" s="30">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -4067,11 +4091,12 @@
       <c r="D57" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="16"/>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A58" s="32">
+      <c r="E57" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A58" s="30">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -4083,11 +4108,12 @@
       <c r="D58" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="16"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A59" s="32">
+      <c r="E58" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A59" s="30">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -4099,11 +4125,12 @@
       <c r="D59" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="16"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A60" s="32">
+      <c r="E59" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A60" s="30">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -4115,11 +4142,12 @@
       <c r="D60" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="16"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A61" s="32">
+      <c r="E60" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A61" s="30">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -4131,11 +4159,12 @@
       <c r="D61" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="16"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A62" s="32">
+      <c r="E61" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A62" s="30">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -4147,11 +4176,12 @@
       <c r="D62" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E62" s="4"/>
-      <c r="F62" s="16"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A63" s="32">
+      <c r="E62" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A63" s="30">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -4163,11 +4193,12 @@
       <c r="D63" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E63" s="4"/>
-      <c r="F63" s="16"/>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A64" s="32">
+      <c r="E63" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A64" s="30">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -4179,11 +4210,12 @@
       <c r="D64" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="16"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A65" s="32">
+      <c r="E64" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A65" s="30">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -4195,11 +4227,12 @@
       <c r="D65" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E65" s="4"/>
-      <c r="F65" s="16"/>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A66" s="32">
+      <c r="E65" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A66" s="30">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -4211,11 +4244,12 @@
       <c r="D66" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="16"/>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A67" s="32">
+      <c r="E66" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A67" s="30">
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -4227,11 +4261,12 @@
       <c r="D67" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="16"/>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A68" s="32">
+      <c r="E67" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A68" s="30">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -4243,11 +4278,12 @@
       <c r="D68" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="16"/>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A69" s="32">
+      <c r="E68" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A69" s="30">
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -4259,11 +4295,12 @@
       <c r="D69" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E69" s="4"/>
-      <c r="F69" s="16"/>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A70" s="32">
+      <c r="E69" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A70" s="30">
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -4275,11 +4312,12 @@
       <c r="D70" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="16"/>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A71" s="32">
+      <c r="E70" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A71" s="30">
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -4291,11 +4329,12 @@
       <c r="D71" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E71" s="4"/>
-      <c r="F71" s="16"/>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A72" s="32">
+      <c r="E71" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A72" s="30">
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -4307,11 +4346,12 @@
       <c r="D72" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="16"/>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A73" s="32">
+      <c r="E72" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A73" s="30">
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -4323,11 +4363,12 @@
       <c r="D73" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E73" s="4"/>
-      <c r="F73" s="16"/>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A74" s="32">
+      <c r="E73" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A74" s="30">
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -4339,11 +4380,12 @@
       <c r="D74" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E74" s="4"/>
-      <c r="F74" s="16"/>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A75" s="32">
+      <c r="E74" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A75" s="30">
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -4355,11 +4397,12 @@
       <c r="D75" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E75" s="4"/>
-      <c r="F75" s="16"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A76" s="32">
+      <c r="E75" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A76" s="30">
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -4371,13 +4414,14 @@
       <c r="D76" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E76" s="4"/>
-      <c r="F76" s="16"/>
-    </row>
-    <row r="77" spans="1:6" ht="15" hidden="1" customHeight="1"/>
-    <row r="78" spans="1:6" ht="15" hidden="1" customHeight="1"/>
-    <row r="79" spans="1:6" ht="15" hidden="1" customHeight="1"/>
-    <row r="80" spans="1:6" ht="15" hidden="1" customHeight="1"/>
+      <c r="E76" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" hidden="1" customHeight="1"/>
+    <row r="78" spans="1:5" ht="15" hidden="1" customHeight="1"/>
+    <row r="79" spans="1:5" ht="15" hidden="1" customHeight="1"/>
+    <row r="80" spans="1:5" ht="15" hidden="1" customHeight="1"/>
     <row r="81" ht="15" hidden="1" customHeight="1"/>
     <row r="82" ht="15" hidden="1" customHeight="1"/>
     <row r="83" ht="15" hidden="1" customHeight="1"/>
@@ -5579,7 +5623,7 @@
     <row r="1279" ht="15" hidden="1" customHeight="1"/>
     <row r="1280" ht="15" hidden="1" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:F76">
+  <autoFilter ref="A1:E76">
     <filterColumn colId="2"/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5610,580 +5654,580 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="14.4">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="14.4">
-      <c r="B2" s="21">
+      <c r="B2" s="19">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="22" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="14.4">
-      <c r="B3" s="21">
+      <c r="B3" s="19">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="14.4">
-      <c r="B4" s="21">
+      <c r="B4" s="19">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="22" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="14.4">
-      <c r="B5" s="21">
+      <c r="B5" s="19">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="22" t="s">
+      <c r="D5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="22" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="14.4">
-      <c r="B6" s="21">
+      <c r="B6" s="19">
         <v>5</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="22" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="14.4">
-      <c r="B7" s="21">
+      <c r="B7" s="19">
         <v>6</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="22" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="14.4">
-      <c r="B8" s="21">
+      <c r="B8" s="19">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="22" t="s">
+      <c r="D8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="22" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="14.4">
-      <c r="B9" s="21">
-        <v>8</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="19">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="22" t="s">
+      <c r="D9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="22" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="14.4">
-      <c r="B10" s="21">
+      <c r="B10" s="19">
         <v>9</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="22" t="s">
+      <c r="D10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="22" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="14.4">
-      <c r="B11" s="21">
+      <c r="B11" s="19">
         <v>10</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="22" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="14.4">
-      <c r="B12" s="21">
+      <c r="B12" s="19">
         <v>11</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="22" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="14.4">
-      <c r="B13" s="21">
+      <c r="B13" s="19">
         <v>12</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="22" t="s">
+      <c r="D13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="22" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="14.4">
-      <c r="B14" s="21">
+      <c r="B14" s="19">
         <v>13</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="22" t="s">
+      <c r="D14" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="22" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="15" spans="2:6" ht="14.4">
-      <c r="B15" s="21">
+      <c r="B15" s="19">
         <v>14</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="22" t="s">
+      <c r="D15" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="22" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="16" spans="2:6" ht="14.4">
-      <c r="B16" s="21">
+      <c r="B16" s="19">
         <v>15</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="22" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="14.4">
-      <c r="B17" s="21">
+      <c r="B17" s="19">
         <v>16</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="22" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="14.4">
-      <c r="B18" s="21">
+      <c r="B18" s="19">
         <v>17</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="22" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="14.4">
-      <c r="B19" s="21">
+      <c r="B19" s="19">
         <v>18</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="24" t="s">
+      <c r="F19" s="22" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B20" s="21">
+      <c r="B20" s="19">
         <v>19</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="22" t="s">
+      <c r="D20" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="22" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B21" s="21">
+      <c r="B21" s="19">
         <v>20</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="22" t="s">
+      <c r="D21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="22" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B22" s="21">
+      <c r="B22" s="19">
         <v>21</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="22" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B23" s="21">
+      <c r="B23" s="19">
         <v>22</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="22" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B24" s="21">
+      <c r="B24" s="19">
         <v>23</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="22" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B25" s="21">
+      <c r="B25" s="19">
         <v>24</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="22" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B26" s="21">
+      <c r="B26" s="19">
         <v>25</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="22" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B27" s="21">
+      <c r="B27" s="19">
         <v>26</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="22" t="s">
+      <c r="D27" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="22" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="28" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B28" s="21">
+      <c r="B28" s="19">
         <v>27</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="22" t="s">
+      <c r="D28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="22" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B29" s="21">
+      <c r="B29" s="19">
         <v>28</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="22" t="s">
+      <c r="D29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="22" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B30" s="21">
+      <c r="B30" s="19">
         <v>29</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="22" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B31" s="21">
+      <c r="B31" s="19">
         <v>30</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="22" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B32" s="21">
+      <c r="B32" s="19">
         <v>31</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="22" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="33" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B33" s="21">
+      <c r="B33" s="19">
         <v>32</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="F33" s="24" t="s">
+      <c r="F33" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="34" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B34" s="21">
+      <c r="B34" s="19">
         <v>33</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="F34" s="14"/>
+      <c r="F34" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:F34">
@@ -6217,960 +6261,960 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.4">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="14.4">
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="15" t="s">
+      <c r="D2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="G2" s="11"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="2:7" ht="14.4">
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="2:7" ht="14.4">
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="G4" s="11"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="2:7" ht="14.4">
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="22" t="s">
+      <c r="D5" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="G5" s="11"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="2:7" ht="14.4">
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="2:7" ht="14.4">
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="2:7" ht="14.4">
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="D8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="2:7" ht="14.4">
-      <c r="B9" s="10">
-        <v>8</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="22" t="s">
+      <c r="D9" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="2:7" ht="14.4">
-      <c r="B10" s="10">
+      <c r="B10" s="9">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="D10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="2:7" ht="14.4">
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>10</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="D11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="2:7" ht="14.4">
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>11</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="G12" s="11"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="2:7" ht="14.4">
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>12</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:7" ht="14.4">
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>13</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="D14" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="2:7" ht="14.4">
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>14</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:7" ht="14.4">
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>15</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="2:7" ht="14.4">
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>16</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="15" t="s">
+      <c r="D17" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:7" ht="14.4">
-      <c r="B18" s="10">
+      <c r="B18" s="9">
         <v>17</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="15" t="s">
+      <c r="D18" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="G18" s="11"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="2:7" ht="14.4">
-      <c r="B19" s="10">
+      <c r="B19" s="9">
         <v>18</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="G19" s="11"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B20" s="10">
+      <c r="B20" s="9">
         <v>19</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="15" t="s">
+      <c r="D20" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B21" s="10">
+      <c r="B21" s="9">
         <v>20</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="15" t="s">
+      <c r="D21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="G21" s="11"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>21</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="15" t="s">
+      <c r="D22" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="G22" s="14"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B23" s="13">
+      <c r="B23" s="12">
         <v>22</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="15" t="s">
+      <c r="D23" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="G23" s="14"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B24" s="13">
+      <c r="B24" s="12">
         <v>23</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="15" t="s">
+      <c r="D24" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="G24" s="14"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B25" s="13">
+      <c r="B25" s="12">
         <v>24</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="24" t="s">
+      <c r="F25" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="G25" s="14"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B26" s="23">
+      <c r="B26" s="21">
         <v>1</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="15" t="s">
+      <c r="D26" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="G26" s="22"/>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B27" s="23">
+      <c r="B27" s="21">
         <v>2</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="15" t="s">
+      <c r="D27" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="G27" s="22"/>
+      <c r="G27" s="20"/>
     </row>
     <row r="28" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B28" s="23">
+      <c r="B28" s="21">
         <v>3</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="15" t="s">
+      <c r="D28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="G28" s="22"/>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B29" s="23">
+      <c r="B29" s="21">
         <v>4</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="15" t="s">
+      <c r="D29" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="G29" s="22"/>
+      <c r="G29" s="20"/>
     </row>
     <row r="30" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B30" s="23">
+      <c r="B30" s="21">
         <v>5</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D30" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="15" t="s">
+      <c r="D30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="G30" s="22"/>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B31" s="23">
+      <c r="B31" s="21">
         <v>6</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D31" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="15" t="s">
+      <c r="D31" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="G31" s="22"/>
+      <c r="G31" s="20"/>
     </row>
     <row r="32" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B32" s="23">
+      <c r="B32" s="21">
         <v>7</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D32" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="15" t="s">
+      <c r="D32" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="G32" s="22"/>
+      <c r="G32" s="20"/>
     </row>
     <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="23">
-        <v>8</v>
-      </c>
-      <c r="C33" s="22" t="s">
+      <c r="B33" s="21">
+        <v>8</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D33" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="15" t="s">
+      <c r="D33" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="F33" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="G33" s="22"/>
+      <c r="G33" s="20"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="23">
+      <c r="B34" s="21">
         <v>9</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D34" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="15" t="s">
+      <c r="D34" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="G34" s="22"/>
+      <c r="G34" s="20"/>
     </row>
     <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="23">
+      <c r="B35" s="21">
         <v>10</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="15" t="s">
+      <c r="E35" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="G35" s="22"/>
+      <c r="G35" s="20"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="23">
+      <c r="B36" s="21">
         <v>11</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="G36" s="22"/>
+      <c r="G36" s="20"/>
     </row>
     <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="23">
+      <c r="B37" s="21">
         <v>12</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="15" t="s">
+      <c r="D37" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="F37" s="22" t="s">
+      <c r="F37" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="G37" s="22"/>
+      <c r="G37" s="20"/>
     </row>
     <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="23">
+      <c r="B38" s="21">
         <v>13</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="F38" s="22" t="s">
+      <c r="F38" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="G38" s="22"/>
+      <c r="G38" s="20"/>
     </row>
     <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="23">
+      <c r="B39" s="21">
         <v>14</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D39" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="15" t="s">
+      <c r="D39" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="G39" s="22"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="23">
+      <c r="B40" s="21">
         <v>15</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="D40" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="15" t="s">
+      <c r="D40" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="F40" s="22" t="s">
+      <c r="F40" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="G40" s="22"/>
+      <c r="G40" s="20"/>
     </row>
     <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="23">
+      <c r="B41" s="21">
         <v>1</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D41" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="15" t="s">
+      <c r="D41" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="F41" s="22" t="s">
+      <c r="F41" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="G41" s="22"/>
+      <c r="G41" s="20"/>
     </row>
     <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="23">
+      <c r="B42" s="21">
         <v>2</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D42" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="15" t="s">
+      <c r="D42" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="F42" s="22" t="s">
+      <c r="F42" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="G42" s="22"/>
+      <c r="G42" s="20"/>
     </row>
     <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="23">
+      <c r="B43" s="21">
         <v>3</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D43" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="15" t="s">
+      <c r="D43" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="G43" s="22"/>
+      <c r="G43" s="20"/>
     </row>
     <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="23">
+      <c r="B44" s="21">
         <v>4</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="F44" s="22" t="s">
+      <c r="F44" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="G44" s="22"/>
+      <c r="G44" s="20"/>
     </row>
     <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="23">
+      <c r="B45" s="21">
         <v>5</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="F45" s="22" t="s">
+      <c r="F45" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="G45" s="22"/>
+      <c r="G45" s="20"/>
     </row>
     <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="23">
+      <c r="B46" s="21">
         <v>6</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="E46" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="F46" s="22" t="s">
+      <c r="F46" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="G46" s="22"/>
+      <c r="G46" s="20"/>
     </row>
     <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="23">
+      <c r="B47" s="21">
         <v>7</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D47" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="15" t="s">
+      <c r="D47" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="G47" s="22"/>
+      <c r="G47" s="20"/>
     </row>
     <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="23">
-        <v>8</v>
-      </c>
-      <c r="C48" s="22" t="s">
+      <c r="B48" s="21">
+        <v>8</v>
+      </c>
+      <c r="C48" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D48" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="15" t="s">
+      <c r="D48" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="F48" s="22" t="s">
+      <c r="F48" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="G48" s="22"/>
+      <c r="G48" s="20"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="23">
+      <c r="B49" s="21">
         <v>9</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D49" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="15" t="s">
+      <c r="D49" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="F49" s="22" t="s">
+      <c r="F49" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="G49" s="22"/>
+      <c r="G49" s="20"/>
     </row>
     <row r="50" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B50" s="23">
+      <c r="B50" s="21">
         <v>10</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="15" t="s">
+      <c r="E50" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F50" s="22" t="s">
+      <c r="F50" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="G50" s="22"/>
+      <c r="G50" s="20"/>
     </row>
     <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="23">
+      <c r="B51" s="21">
         <v>11</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D51" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="15" t="s">
+      <c r="D51" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="G51" s="22"/>
+      <c r="G51" s="20"/>
     </row>
     <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="23">
+      <c r="B52" s="21">
         <v>12</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F52" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="G52" s="22"/>
+      <c r="G52" s="20"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="23">
+      <c r="B53" s="21">
         <v>13</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="D53" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="15" t="s">
+      <c r="D53" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="G53" s="22"/>
+      <c r="G53" s="20"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
@@ -8120,293 +8164,293 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.4">
-      <c r="A2" s="21">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="31">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="32" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.4">
-      <c r="A3" s="21">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="31">
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="32" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4">
-      <c r="A4" s="21">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="31">
         <v>3</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="32" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.4">
-      <c r="A5" s="21">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="31">
         <v>4</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="32" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4">
-      <c r="A6" s="21">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="31">
         <v>5</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="20" t="s">
         <v>243</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="32" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.4">
-      <c r="A7" s="21">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="31">
         <v>6</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="32" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.4">
-      <c r="A8" s="21">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="31">
         <v>7</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="32" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.4">
-      <c r="A9" s="21">
-        <v>8</v>
-      </c>
-      <c r="B9" s="33">
-        <v>8</v>
-      </c>
-      <c r="C9" s="22" t="s">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31">
+        <v>8</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="32" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.4">
-      <c r="A10" s="21">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="31">
         <v>9</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="32" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.4">
-      <c r="A11" s="21">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="31">
         <v>10</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="32" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.4">
-      <c r="A12" s="21">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="31">
         <v>11</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="32" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.4">
-      <c r="A13" s="21">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="31">
         <v>12</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="32" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.4">
-      <c r="A14" s="21">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="31">
         <v>13</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="32" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.4">
-      <c r="A15" s="21">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="31">
         <v>14</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="D15" s="34" t="s">
+      <c r="D15" s="32" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.4">
-      <c r="A16" s="21">
+      <c r="A16" s="19">
         <v>15</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="31">
         <v>15</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="32" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.4">
-      <c r="A17" s="21">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="31">
         <v>16</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="32" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.4">
-      <c r="A18" s="21">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="31">
         <v>17</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="32" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.4">
-      <c r="A19" s="21">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="31">
         <v>18</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="32" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.4">
-      <c r="A20" s="21">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="31">
         <v>19</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="32" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.4">
-      <c r="A21" s="21">
+      <c r="A21" s="19">
         <v>20</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="31">
         <v>20</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="D21" s="34" t="s">
+      <c r="D21" s="32" t="s">
         <v>267</v>
       </c>
     </row>

--- a/00_assignment/0. Data structures programs/MCS_001_Data Structures_Algorithms.xlsx
+++ b/00_assignment/0. Data structures programs/MCS_001_Data Structures_Algorithms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="B. String_63" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'10.FUNCTIONS'!$A$1:$C$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'B. String_63'!$A$1:$G$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'C. List_75'!$A$1:$G$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'C. List_75'!$A$1:$F$76</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'D. Tuple,set,Arrays52'!$B$1:$G$53</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'E. Dictionary_33'!$B$1:$F$34</definedName>
     <definedName name="S.No" localSheetId="4">'10.FUNCTIONS'!$B$2</definedName>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="300">
   <si>
     <t>Program #</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Sum of elements</t>
   </si>
   <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>Mulitply of elements</t>
   </si>
   <si>
@@ -697,9 +694,6 @@
     <t xml:space="preserve"> find the maximum occurring character in a given string</t>
   </si>
   <si>
-    <t xml:space="preserve">Get the current memory address and the length in elements of the buffer used to hold an arrays? contents and also find the size </t>
-  </si>
-  <si>
     <t>Find maximum and the minimum value in a set</t>
   </si>
   <si>
@@ -748,18 +742,9 @@
     <t>Completed</t>
   </si>
   <si>
-    <t>completed</t>
-  </si>
-  <si>
-    <t>IN progress</t>
-  </si>
-  <si>
     <t>S.No</t>
   </si>
   <si>
-    <t>in progress</t>
-  </si>
-  <si>
     <t>check given word is palindrome or not</t>
   </si>
   <si>
@@ -929,6 +914,18 @@
   </si>
   <si>
     <t>23 min</t>
+  </si>
+  <si>
+    <t>22 min</t>
+  </si>
+  <si>
+    <t>1 min</t>
+  </si>
+  <si>
+    <t>2 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get the current memory address and the length in elements of the buffer used to hold an arrays? contents and also   find the size </t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1015,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1034,12 +1031,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,7 +1123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1150,7 +1141,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1179,7 +1169,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
@@ -1419,1687 +1408,1687 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4">
-      <c r="A1" s="31" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" s="28" t="s">
+      <c r="A1" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.4">
-      <c r="A2" s="32">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>62</v>
+      <c r="B2" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>268</v>
+        <v>237</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>263</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.4">
-      <c r="A3" s="32">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>62</v>
+      <c r="B3" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>267</v>
+        <v>237</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.4">
-      <c r="A4" s="32">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>62</v>
+      <c r="B4" s="28" t="s">
+        <v>61</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>269</v>
+        <v>237</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>264</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.4">
-      <c r="A5" s="32">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>286</v>
+        <v>237</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>281</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H5">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.4">
-      <c r="A6" s="32">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>284</v>
+        <v>237</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>279</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H6">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.4">
-      <c r="A7" s="32">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>267</v>
+        <v>237</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H7">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.4">
-      <c r="A8" s="32">
+      <c r="A8" s="31">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>287</v>
+        <v>237</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>282</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H8">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.4">
-      <c r="A9" s="32">
+      <c r="A9" s="31">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>270</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H9">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.4">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>282</v>
+        <v>237</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>277</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H10">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.4">
-      <c r="A11" s="32">
+      <c r="A11" s="31">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>271</v>
+        <v>237</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.4">
-      <c r="A12" s="32">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>272</v>
+        <v>237</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>267</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H12">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.4">
-      <c r="A13" s="32">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>273</v>
+        <v>237</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H13">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.4">
-      <c r="A14" s="32">
+      <c r="A14" s="31">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>274</v>
+        <v>237</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>269</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.4">
+      <c r="A15" s="31">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="H14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.4">
-      <c r="A15" s="32">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>269</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H15">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.4">
-      <c r="A16" s="32">
+      <c r="A16" s="31">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>273</v>
+        <v>237</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H16">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.4">
-      <c r="A17" s="32">
+      <c r="A17" s="31">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>285</v>
+        <v>237</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>280</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H17">
         <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.4">
-      <c r="A18" s="32">
+      <c r="A18" s="31">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>288</v>
+        <v>237</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>283</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H18">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.4">
-      <c r="A19" s="32">
+      <c r="A19" s="31">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>289</v>
+        <v>237</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>284</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H19">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="32">
+      <c r="A20" s="31">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>275</v>
+        <v>237</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>270</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H20">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="32">
+      <c r="A21" s="31">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>130</v>
+        <v>61</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>129</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>285</v>
+        <v>237</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>280</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H21">
         <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="32">
+      <c r="A22" s="31">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>266</v>
+        <v>61</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>261</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>267</v>
+        <v>237</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H22">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="32">
+      <c r="A23" s="31">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>135</v>
+        <v>61</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>134</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>267</v>
+        <v>237</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H23">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="32">
+      <c r="A24" s="31">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>138</v>
+        <v>61</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>137</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>276</v>
+        <v>237</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>271</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H24">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="32">
+      <c r="A25" s="31">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>142</v>
+        <v>61</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>141</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F25" s="19" t="s">
-        <v>277</v>
+        <v>237</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>272</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H25">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="32">
+      <c r="A26" s="31">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>144</v>
+        <v>61</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>143</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>290</v>
+        <v>237</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>285</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H26">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="32">
+      <c r="A27" s="31">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="27" t="s">
-        <v>148</v>
+        <v>61</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>147</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>278</v>
+        <v>237</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>273</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H27">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A28" s="32">
+      <c r="A28" s="31">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>154</v>
+        <v>61</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>153</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>278</v>
+        <v>237</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>273</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H28">
         <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A29" s="32">
+      <c r="A29" s="31">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>156</v>
+        <v>61</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>155</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F29" s="19" t="s">
-        <v>285</v>
+        <v>237</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>280</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H29">
         <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A30" s="32">
+      <c r="A30" s="31">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>159</v>
+        <v>61</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>158</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>278</v>
+        <v>237</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>273</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H30">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A31" s="32">
+      <c r="A31" s="31">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>162</v>
+        <v>61</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>161</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>274</v>
+        <v>237</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>269</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H31">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A32" s="32">
+      <c r="A32" s="31">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>166</v>
+        <v>61</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>165</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>279</v>
+        <v>237</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>274</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H32">
         <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A33" s="32">
+      <c r="A33" s="31">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>169</v>
+        <v>61</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>168</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>282</v>
+        <v>237</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>277</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H33">
         <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A34" s="32">
+      <c r="A34" s="31">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>171</v>
+        <v>61</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>170</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>275</v>
+        <v>237</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>270</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H34">
         <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A35" s="32">
+      <c r="A35" s="31">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>173</v>
+        <v>61</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>172</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>289</v>
+        <v>237</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>284</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H35">
         <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A36" s="32">
+      <c r="A36" s="31">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>175</v>
+        <v>61</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>174</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>267</v>
+        <v>237</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H36">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A37" s="32">
+      <c r="A37" s="31">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="26" t="s">
-        <v>177</v>
+        <v>61</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>176</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>273</v>
+        <v>237</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H37">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A38" s="32">
+      <c r="A38" s="31">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>179</v>
+        <v>61</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>178</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>289</v>
+        <v>237</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>284</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H38">
         <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A39" s="32">
+      <c r="A39" s="31">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>181</v>
+        <v>61</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>180</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>280</v>
+        <v>237</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>275</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H39">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A40" s="32">
+      <c r="A40" s="31">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>183</v>
+        <v>61</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>182</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>291</v>
+        <v>237</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>286</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H40">
         <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A41" s="32">
+      <c r="A41" s="31">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>184</v>
+        <v>61</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>183</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>284</v>
+        <v>237</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>279</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H41">
         <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A42" s="32">
+      <c r="A42" s="31">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>185</v>
+        <v>61</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>184</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>272</v>
+        <v>237</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>267</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H42">
         <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A43" s="32">
+      <c r="A43" s="31">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>186</v>
+        <v>61</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>185</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>274</v>
+        <v>237</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>269</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H43">
         <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A44" s="32">
+      <c r="A44" s="31">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>187</v>
+        <v>61</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>289</v>
+        <v>237</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>284</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H44">
         <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A45" s="32">
+      <c r="A45" s="31">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>188</v>
+        <v>61</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>187</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F45" s="19" t="s">
-        <v>268</v>
+        <v>237</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>263</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H45">
         <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A46" s="32">
+      <c r="A46" s="31">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>189</v>
+        <v>61</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>188</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>292</v>
+        <v>237</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>287</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H46">
         <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A47" s="32">
+      <c r="A47" s="31">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>190</v>
+        <v>61</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>189</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>269</v>
+        <v>237</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>264</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H47">
         <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A48" s="32">
+      <c r="A48" s="31">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>191</v>
+        <v>61</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>190</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F48" s="19" t="s">
-        <v>279</v>
+        <v>237</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>274</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H48">
         <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A49" s="32">
+      <c r="A49" s="31">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>192</v>
+        <v>61</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>191</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>281</v>
+        <v>237</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>276</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H49">
         <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A50" s="32">
+      <c r="A50" s="31">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="26" t="s">
-        <v>193</v>
+        <v>61</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>192</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F50" s="19" t="s">
-        <v>282</v>
+        <v>237</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>277</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H50">
         <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A51" s="32">
+      <c r="A51" s="31">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>196</v>
+        <v>61</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>195</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>273</v>
+        <v>237</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>268</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H51">
         <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A52" s="32">
+      <c r="A52" s="31">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>198</v>
+        <v>61</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>197</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>267</v>
+        <v>237</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>262</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H52">
         <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A53" s="32">
+      <c r="A53" s="31">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="27" t="s">
-        <v>200</v>
+        <v>61</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>199</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F53" s="19" t="s">
-        <v>286</v>
+        <v>237</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>281</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H53">
         <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A54" s="32">
+      <c r="A54" s="31">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D54" s="26" t="s">
-        <v>204</v>
+        <v>61</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>293</v>
+        <v>237</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>288</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H54">
         <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A55" s="32">
+      <c r="A55" s="31">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>207</v>
+        <v>61</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="25" t="s">
+        <v>206</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>268</v>
+        <v>237</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>263</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H55">
         <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A56" s="32">
+      <c r="A56" s="31">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>209</v>
+        <v>61</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>208</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F56" s="19" t="s">
-        <v>294</v>
+        <v>237</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H56">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A57" s="32">
+      <c r="A57" s="31">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>213</v>
+        <v>61</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>212</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F57" s="19" t="s">
-        <v>279</v>
+        <v>237</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>274</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H57">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A58" s="32">
+      <c r="A58" s="31">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>215</v>
+        <v>61</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>214</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F58" s="19" t="s">
-        <v>283</v>
+        <v>237</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>278</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H58">
         <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A59" s="32">
+      <c r="A59" s="31">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="27" t="s">
-        <v>217</v>
+        <v>61</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>216</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F59" s="19" t="s">
-        <v>284</v>
+        <v>237</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>279</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H59">
         <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A60" s="32">
+      <c r="A60" s="31">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="27" t="s">
-        <v>222</v>
+        <v>61</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="26" t="s">
+        <v>221</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F60" s="19" t="s">
-        <v>271</v>
+        <v>237</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>266</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H60">
         <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A61" s="32">
+      <c r="A61" s="31">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>225</v>
+        <v>61</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="26" t="s">
+        <v>223</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F61" s="19" t="s">
-        <v>285</v>
+        <v>237</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>280</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H61">
         <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A62" s="32">
+      <c r="A62" s="31">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C62" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>228</v>
+        <v>61</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>226</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F62" s="19" t="s">
-        <v>270</v>
+        <v>237</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>265</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H62">
         <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A63" s="32">
+      <c r="A63" s="31">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>230</v>
+        <v>61</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>228</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F63" s="19" t="s">
-        <v>295</v>
+        <v>237</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>290</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H63">
         <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A64" s="32">
+      <c r="A64" s="31">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="27" t="s">
-        <v>232</v>
+        <v>61</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>230</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F64" s="19" t="s">
-        <v>275</v>
+        <v>237</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>270</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H64">
         <v>27</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A65" s="32">
+      <c r="A65" s="31">
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>236</v>
+        <v>13</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>234</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H65">
         <v>61</v>
@@ -3116,27 +3105,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1280"/>
+  <dimension ref="A1:I1280"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A999" sqref="A999:XFD1280"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.3984375" customWidth="1"/>
     <col min="2" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="30.69921875" customWidth="1"/>
-    <col min="5" max="5" width="9.19921875" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" customWidth="1"/>
-    <col min="7" max="7" width="32.09765625" customWidth="1"/>
-    <col min="8" max="22" width="7.59765625" customWidth="1"/>
+    <col min="4" max="4" width="73.19921875" customWidth="1"/>
+    <col min="5" max="5" width="13.09765625" customWidth="1"/>
+    <col min="6" max="6" width="32.09765625" customWidth="1"/>
+    <col min="7" max="21" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4">
+    <row r="1" spans="1:9" ht="14.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3150,17 +3138,14 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.4">
-      <c r="A2" s="33">
+    <row r="2" spans="1:9" ht="14.4">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -3169,19 +3154,16 @@
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="F2" s="4">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="14.4">
-      <c r="A3" s="33">
+      <c r="E2" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="14.4">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -3190,19 +3172,16 @@
       <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F3" s="4">
-        <v>20</v>
-      </c>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="14.4">
-      <c r="A4" s="33">
+      <c r="D3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="14.4">
+      <c r="A4" s="32">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -3211,19 +3190,16 @@
       <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F4" s="4">
-        <v>30</v>
-      </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="14.4">
-      <c r="A5" s="33">
+      <c r="D4" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.4">
+      <c r="A5" s="32">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -3232,63 +3208,54 @@
       <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F5" s="4">
-        <v>40</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-    </row>
-    <row r="6" spans="1:10" ht="14.4">
-      <c r="A6" s="33">
+      <c r="D5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+    </row>
+    <row r="6" spans="1:9" ht="14.4">
+      <c r="A6" s="32">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F6" s="4">
-        <v>50</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="14.4">
-      <c r="A7" s="33">
+      <c r="E6" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.4">
+      <c r="A7" s="32">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F7" s="4">
-        <v>60</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.4">
-      <c r="A8" s="33">
+      <c r="E7" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.4">
+      <c r="A8" s="32">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -3297,20 +3264,17 @@
       <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F8" s="4">
-        <v>70</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="J8" s="36"/>
-    </row>
-    <row r="9" spans="1:10" ht="14.4">
-      <c r="A9" s="33">
+      <c r="D8" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4">
+      <c r="A9" s="32">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -3319,19 +3283,16 @@
       <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F9" s="4">
-        <v>80</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.4">
-      <c r="A10" s="33">
+      <c r="D9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="14.4">
+      <c r="A10" s="32">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -3340,41 +3301,35 @@
       <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F10" s="4">
-        <v>90</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="J10" s="36"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.4">
-      <c r="A11" s="33">
+      <c r="D10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="I10" s="34"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.4">
+      <c r="A11" s="32">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F11" s="4">
-        <v>100</v>
-      </c>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="14.4">
-      <c r="A12" s="33">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="14.4">
+      <c r="A12" s="32">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3383,19 +3338,16 @@
       <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F12" s="4">
-        <v>110</v>
-      </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="14.4">
-      <c r="A13" s="33">
+      <c r="D12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.4">
+      <c r="A13" s="32">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -3404,40 +3356,34 @@
       <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F13" s="4">
-        <v>120</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="14.4">
-      <c r="A14" s="33">
+      <c r="D13" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.4">
+      <c r="A14" s="32">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F14" s="4">
-        <v>130</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="14.4">
-      <c r="A15" s="33">
+        <v>13</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.4">
+      <c r="A15" s="32">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -3447,18 +3393,13 @@
         <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F15" s="4">
-        <v>140</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" ht="14.4">
-      <c r="A16" s="33">
+        <v>24</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="14.4">
+      <c r="A16" s="32">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -3468,81 +3409,61 @@
         <v>8</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F16" s="4">
-        <v>150</v>
-      </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.4">
-      <c r="A17" s="33">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.4">
+      <c r="A17" s="32">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F17" s="4">
-        <v>160</v>
-      </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" ht="14.4">
-      <c r="A18" s="33">
+        <v>26</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.4">
+      <c r="A18" s="32">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F18" s="4">
-        <v>170</v>
-      </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" ht="14.4">
-      <c r="A19" s="33">
+        <v>27</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.4">
+      <c r="A19" s="32">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="F19" s="4">
-        <v>180</v>
-      </c>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A20" s="33">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A20" s="32">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -3552,18 +3473,13 @@
         <v>8</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F20" s="4">
-        <v>190</v>
-      </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A21" s="33">
+        <v>29</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A21" s="32">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3573,18 +3489,13 @@
         <v>8</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F21" s="4">
-        <v>200</v>
-      </c>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A22" s="33">
+        <v>30</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A22" s="32">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -3594,18 +3505,13 @@
         <v>8</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F22" s="4">
-        <v>201</v>
-      </c>
-      <c r="G22" s="17"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A23" s="33">
+        <v>31</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A23" s="32">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -3615,18 +3521,13 @@
         <v>8</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F23" s="4">
-        <v>202</v>
-      </c>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="33">
+        <v>56</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A24" s="32">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -3636,18 +3537,13 @@
         <v>8</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F24" s="4">
-        <v>203</v>
-      </c>
-      <c r="G24" s="17"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A25" s="33">
+        <v>58</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A25" s="32">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -3657,18 +3553,13 @@
         <v>8</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F25" s="4">
-        <v>204</v>
-      </c>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A26" s="33">
+        <v>59</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A26" s="32">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -3678,18 +3569,13 @@
         <v>8</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F26" s="4">
-        <v>205</v>
-      </c>
-      <c r="G26" s="17"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A27" s="33">
+        <v>60</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A27" s="32">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -3699,18 +3585,13 @@
         <v>8</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F27" s="4">
-        <v>206</v>
-      </c>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A28" s="33">
+        <v>62</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A28" s="32">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -3720,18 +3601,13 @@
         <v>8</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F28" s="4">
-        <v>207</v>
-      </c>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A29" s="33">
+        <v>64</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A29" s="32">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -3741,18 +3617,13 @@
         <v>8</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="F29" s="4">
-        <v>208</v>
-      </c>
-      <c r="G29" s="17"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A30" s="33">
+        <v>65</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A30" s="32">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -3762,18 +3633,13 @@
         <v>8</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="F30" s="4">
-        <v>209</v>
-      </c>
-      <c r="G30" s="17"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A31" s="33">
+        <v>67</v>
+      </c>
+      <c r="E30" s="4"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A31" s="32">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -3783,18 +3649,13 @@
         <v>8</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F31" s="4">
-        <v>210</v>
-      </c>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A32" s="33">
+        <v>68</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A32" s="32">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -3804,18 +3665,13 @@
         <v>8</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="F32" s="4">
-        <v>211</v>
-      </c>
-      <c r="G32" s="17"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A33" s="33">
+        <v>70</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A33" s="32">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -3825,18 +3681,13 @@
         <v>8</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="F33" s="4">
-        <v>212</v>
-      </c>
-      <c r="G33" s="17"/>
-    </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A34" s="33">
+        <v>71</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A34" s="32">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -3846,18 +3697,13 @@
         <v>8</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="4">
-        <v>213</v>
-      </c>
-      <c r="G34" s="17"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A35" s="33">
+        <v>73</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A35" s="32">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -3867,18 +3713,13 @@
         <v>8</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="4">
-        <v>214</v>
-      </c>
-      <c r="G35" s="17"/>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A36" s="33">
+        <v>74</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A36" s="32">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -3888,18 +3729,13 @@
         <v>8</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="4">
-        <v>215</v>
-      </c>
-      <c r="G36" s="17"/>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A37" s="33">
+        <v>75</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A37" s="32">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -3909,18 +3745,13 @@
         <v>8</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="4">
-        <v>216</v>
-      </c>
-      <c r="G37" s="17"/>
-    </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A38" s="33">
+        <v>77</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A38" s="32">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -3930,18 +3761,13 @@
         <v>8</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="4">
-        <v>217</v>
-      </c>
-      <c r="G38" s="17"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A39" s="33">
+        <v>78</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A39" s="32">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -3951,18 +3777,13 @@
         <v>8</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="4">
-        <v>218</v>
-      </c>
-      <c r="G39" s="17"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A40" s="33">
+        <v>80</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A40" s="32">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -3972,18 +3793,13 @@
         <v>8</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="4">
-        <v>219</v>
-      </c>
-      <c r="G40" s="17"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A41" s="33">
+        <v>81</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A41" s="32">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -3993,18 +3809,13 @@
         <v>8</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="4">
-        <v>220</v>
-      </c>
-      <c r="G41" s="17"/>
-    </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A42" s="33">
+        <v>83</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A42" s="32">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -4014,18 +3825,13 @@
         <v>8</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="4">
-        <v>221</v>
-      </c>
-      <c r="G42" s="17"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A43" s="33">
+        <v>84</v>
+      </c>
+      <c r="E42" s="4"/>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A43" s="32">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -4035,18 +3841,13 @@
         <v>8</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="4">
-        <v>222</v>
-      </c>
-      <c r="G43" s="17"/>
-    </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A44" s="33">
+        <v>86</v>
+      </c>
+      <c r="E43" s="4"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A44" s="32">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -4056,18 +3857,13 @@
         <v>8</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="4">
-        <v>223</v>
-      </c>
-      <c r="G44" s="17"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A45" s="33">
+        <v>90</v>
+      </c>
+      <c r="E44" s="4"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A45" s="32">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -4077,18 +3873,13 @@
         <v>8</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="4">
-        <v>224</v>
-      </c>
-      <c r="G45" s="17"/>
-    </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A46" s="33">
+        <v>96</v>
+      </c>
+      <c r="E45" s="4"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A46" s="32">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -4098,18 +3889,13 @@
         <v>8</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="4">
-        <v>225</v>
-      </c>
-      <c r="G46" s="17"/>
-    </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A47" s="33">
+        <v>98</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A47" s="32">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -4119,18 +3905,13 @@
         <v>8</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="4">
-        <v>226</v>
-      </c>
-      <c r="G47" s="17"/>
-    </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A48" s="33">
+        <v>102</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A48" s="32">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -4140,18 +3921,13 @@
         <v>8</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F48" s="4">
-        <v>227</v>
-      </c>
-      <c r="G48" s="17"/>
-    </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A49" s="33">
+        <v>106</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A49" s="32">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -4161,18 +3937,13 @@
         <v>8</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E49" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="F49" s="4">
-        <v>228</v>
-      </c>
-      <c r="G49" s="17"/>
-    </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A50" s="33">
+        <v>109</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A50" s="32">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -4182,18 +3953,13 @@
         <v>8</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="F50" s="4">
-        <v>229</v>
-      </c>
-      <c r="G50" s="17"/>
-    </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A51" s="33">
+        <v>111</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A51" s="32">
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -4203,18 +3969,13 @@
         <v>8</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="F51" s="4">
-        <v>230</v>
-      </c>
-      <c r="G51" s="17"/>
-    </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A52" s="33">
+        <v>115</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="16"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A52" s="32">
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -4224,18 +3985,13 @@
         <v>8</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="4">
-        <v>231</v>
-      </c>
-      <c r="G52" s="17"/>
-    </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A53" s="33">
+        <v>119</v>
+      </c>
+      <c r="E52" s="4"/>
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A53" s="32">
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -4245,18 +4001,13 @@
         <v>8</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="4">
-        <v>232</v>
-      </c>
-      <c r="G53" s="17"/>
-    </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A54" s="33">
+        <v>123</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="16"/>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A54" s="32">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -4266,18 +4017,13 @@
         <v>8</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="4">
-        <v>233</v>
-      </c>
-      <c r="G54" s="17"/>
-    </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A55" s="33">
+        <v>125</v>
+      </c>
+      <c r="E54" s="4"/>
+      <c r="F54" s="16"/>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A55" s="32">
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -4287,18 +4033,13 @@
         <v>8</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="4">
-        <v>234</v>
-      </c>
-      <c r="G55" s="17"/>
-    </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A56" s="33">
+        <v>127</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="16"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A56" s="32">
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -4308,18 +4049,13 @@
         <v>8</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="4">
-        <v>235</v>
-      </c>
-      <c r="G56" s="17"/>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A57" s="33">
+        <v>130</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="16"/>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A57" s="32">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -4329,18 +4065,13 @@
         <v>8</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="4">
-        <v>236</v>
-      </c>
-      <c r="G57" s="17"/>
-    </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A58" s="33">
+        <v>131</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="16"/>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A58" s="32">
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -4350,18 +4081,13 @@
         <v>8</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="4">
-        <v>237</v>
-      </c>
-      <c r="G58" s="17"/>
-    </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A59" s="33">
+        <v>132</v>
+      </c>
+      <c r="E58" s="4"/>
+      <c r="F58" s="16"/>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A59" s="32">
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -4371,18 +4097,13 @@
         <v>8</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F59" s="4">
-        <v>238</v>
-      </c>
-      <c r="G59" s="17"/>
-    </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A60" s="33">
+        <v>136</v>
+      </c>
+      <c r="E59" s="4"/>
+      <c r="F59" s="16"/>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A60" s="32">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -4392,18 +4113,13 @@
         <v>8</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="F60" s="4">
-        <v>239</v>
-      </c>
-      <c r="G60" s="17"/>
-    </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A61" s="33">
+        <v>140</v>
+      </c>
+      <c r="E60" s="4"/>
+      <c r="F60" s="16"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A61" s="32">
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -4413,18 +4129,13 @@
         <v>8</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="F61" s="4">
-        <v>240</v>
-      </c>
-      <c r="G61" s="17"/>
-    </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A62" s="33">
+        <v>144</v>
+      </c>
+      <c r="E61" s="4"/>
+      <c r="F61" s="16"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A62" s="32">
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -4434,18 +4145,13 @@
         <v>8</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="F62" s="4">
-        <v>241</v>
-      </c>
-      <c r="G62" s="17"/>
-    </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A63" s="33">
+        <v>148</v>
+      </c>
+      <c r="E62" s="4"/>
+      <c r="F62" s="16"/>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A63" s="32">
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -4455,18 +4161,13 @@
         <v>8</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="4">
-        <v>242</v>
-      </c>
-      <c r="G63" s="17"/>
-    </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A64" s="33">
+        <v>150</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="16"/>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A64" s="32">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -4476,18 +4177,13 @@
         <v>8</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="4">
-        <v>243</v>
-      </c>
-      <c r="G64" s="17"/>
-    </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A65" s="33">
+        <v>154</v>
+      </c>
+      <c r="E64" s="4"/>
+      <c r="F64" s="16"/>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A65" s="32">
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -4497,18 +4193,13 @@
         <v>8</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="4">
-        <v>244</v>
-      </c>
-      <c r="G65" s="17"/>
-    </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A66" s="33">
+        <v>156</v>
+      </c>
+      <c r="E65" s="4"/>
+      <c r="F65" s="16"/>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A66" s="32">
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -4518,18 +4209,13 @@
         <v>8</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F66" s="4">
-        <v>245</v>
-      </c>
-      <c r="G66" s="17"/>
-    </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A67" s="33">
+        <v>157</v>
+      </c>
+      <c r="E66" s="4"/>
+      <c r="F66" s="16"/>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A67" s="32">
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -4539,18 +4225,13 @@
         <v>8</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="4">
-        <v>246</v>
-      </c>
-      <c r="G67" s="17"/>
-    </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A68" s="33">
+        <v>160</v>
+      </c>
+      <c r="E67" s="4"/>
+      <c r="F67" s="16"/>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A68" s="32">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -4560,18 +4241,13 @@
         <v>8</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="4">
-        <v>247</v>
-      </c>
-      <c r="G68" s="17"/>
-    </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A69" s="33">
+        <v>163</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="16"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A69" s="32">
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -4581,18 +4257,13 @@
         <v>8</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="4">
-        <v>248</v>
-      </c>
-      <c r="G69" s="17"/>
-    </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A70" s="33">
+        <v>167</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="16"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A70" s="32">
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -4602,18 +4273,13 @@
         <v>8</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="4">
-        <v>249</v>
-      </c>
-      <c r="G70" s="17"/>
-    </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A71" s="33">
+        <v>169</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="16"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A71" s="32">
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -4623,18 +4289,13 @@
         <v>8</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="4">
-        <v>250</v>
-      </c>
-      <c r="G71" s="17"/>
-    </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A72" s="33">
+        <v>171</v>
+      </c>
+      <c r="E71" s="4"/>
+      <c r="F71" s="16"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A72" s="32">
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -4644,18 +4305,13 @@
         <v>8</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="4">
-        <v>251</v>
-      </c>
-      <c r="G72" s="17"/>
-    </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A73" s="33">
+        <v>173</v>
+      </c>
+      <c r="E72" s="4"/>
+      <c r="F72" s="16"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A73" s="32">
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -4665,18 +4321,13 @@
         <v>8</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="4">
-        <v>252</v>
-      </c>
-      <c r="G73" s="17"/>
-    </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A74" s="33">
+        <v>175</v>
+      </c>
+      <c r="E73" s="4"/>
+      <c r="F73" s="16"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A74" s="32">
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -4686,18 +4337,13 @@
         <v>8</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" s="4">
-        <v>253</v>
-      </c>
-      <c r="G74" s="17"/>
-    </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A75" s="33">
+        <v>177</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="16"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A75" s="32">
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -4707,18 +4353,13 @@
         <v>8</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="4">
-        <v>254</v>
-      </c>
-      <c r="G75" s="17"/>
-    </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A76" s="33">
+        <v>179</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="16"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A76" s="32">
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -4728,20 +4369,15 @@
         <v>8</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" s="4">
-        <v>255</v>
-      </c>
-      <c r="G76" s="17"/>
-    </row>
-    <row r="77" spans="1:7" ht="15" hidden="1" customHeight="1"/>
-    <row r="78" spans="1:7" ht="15" hidden="1" customHeight="1"/>
-    <row r="79" spans="1:7" ht="15" hidden="1" customHeight="1"/>
-    <row r="80" spans="1:7" ht="15" hidden="1" customHeight="1"/>
+        <v>181</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="16"/>
+    </row>
+    <row r="77" spans="1:6" ht="15" hidden="1" customHeight="1"/>
+    <row r="78" spans="1:6" ht="15" hidden="1" customHeight="1"/>
+    <row r="79" spans="1:6" ht="15" hidden="1" customHeight="1"/>
+    <row r="80" spans="1:6" ht="15" hidden="1" customHeight="1"/>
     <row r="81" ht="15" hidden="1" customHeight="1"/>
     <row r="82" ht="15" hidden="1" customHeight="1"/>
     <row r="83" ht="15" hidden="1" customHeight="1"/>
@@ -5943,7 +5579,7 @@
     <row r="1279" ht="15" hidden="1" customHeight="1"/>
     <row r="1280" ht="15" hidden="1" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:G76">
+  <autoFilter ref="A1:F76">
     <filterColumn colId="2"/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -5959,7 +5595,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -5968,522 +5604,586 @@
     <col min="2" max="2" width="6.3984375" customWidth="1"/>
     <col min="3" max="3" width="8.69921875" customWidth="1"/>
     <col min="4" max="4" width="5.3984375" customWidth="1"/>
-    <col min="5" max="5" width="39.09765625" customWidth="1"/>
+    <col min="5" max="5" width="83.296875" customWidth="1"/>
     <col min="6" max="6" width="28.19921875" customWidth="1"/>
     <col min="7" max="21" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="14.4">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:6" ht="14.4">
-      <c r="B2" s="22">
+      <c r="B2" s="21">
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="24" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="3" spans="2:6" ht="14.4">
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="14.4">
+      <c r="B4" s="21">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="14.4">
+      <c r="B5" s="21">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="14.4">
+      <c r="B6" s="21">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="14.4">
+      <c r="B7" s="21">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="14.4">
+      <c r="B8" s="21">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="14.4">
+      <c r="B9" s="21">
+        <v>8</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="14.4">
+      <c r="B10" s="21">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="14.4">
+      <c r="B11" s="21">
+        <v>10</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="14.4">
+      <c r="B12" s="21">
+        <v>11</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="14.4">
+      <c r="B13" s="21">
+        <v>12</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="14.4">
+      <c r="B14" s="21">
+        <v>13</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="14.4">
+      <c r="B15" s="21">
         <v>14</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="15"/>
-    </row>
-    <row r="4" spans="2:6" ht="14.4">
-      <c r="B4" s="22">
-        <v>3</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="15"/>
-    </row>
-    <row r="5" spans="2:6" ht="14.4">
-      <c r="B5" s="22">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" spans="2:6" ht="14.4">
-      <c r="B6" s="22">
-        <v>5</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="2:6" ht="14.4">
-      <c r="B7" s="22">
-        <v>6</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" spans="2:6" ht="14.4">
-      <c r="B8" s="22">
-        <v>7</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="15"/>
-    </row>
-    <row r="9" spans="2:6" ht="14.4">
-      <c r="B9" s="22">
-        <v>8</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="15"/>
-    </row>
-    <row r="10" spans="2:6" ht="14.4">
-      <c r="B10" s="22">
-        <v>9</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="15"/>
-    </row>
-    <row r="11" spans="2:6" ht="14.4">
-      <c r="B11" s="22">
-        <v>10</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="15"/>
-    </row>
-    <row r="12" spans="2:6" ht="14.4">
-      <c r="B12" s="22">
-        <v>11</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="2:6" ht="14.4">
-      <c r="B13" s="22">
-        <v>12</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="2:6" ht="14.4">
-      <c r="B14" s="22">
+      <c r="C15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="14.4">
+      <c r="B16" s="21">
+        <v>15</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="15"/>
-    </row>
-    <row r="15" spans="2:6" ht="14.4">
-      <c r="B15" s="22">
-        <v>14</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" spans="2:6" ht="14.4">
-      <c r="B16" s="22">
+      <c r="E16" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="14.4">
+      <c r="B17" s="21">
+        <v>16</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="14.4">
+      <c r="B18" s="21">
+        <v>17</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="2:6" ht="14.4">
-      <c r="B17" s="22">
-        <v>16</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="2:6" ht="14.4">
-      <c r="B18" s="22">
-        <v>17</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="14.4">
+      <c r="B19" s="21">
+        <v>18</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="2:6" ht="14.4">
-      <c r="B19" s="22">
-        <v>18</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="24" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>19</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" s="15"/>
+        <v>87</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>20</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F21" s="15"/>
+      <c r="C21" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>21</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F22" s="15"/>
+      <c r="C22" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B23" s="22">
+      <c r="B23" s="21">
         <v>22</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="12" t="s">
+      <c r="C23" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B24" s="21">
+        <v>23</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F23" s="15"/>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B24" s="22">
-        <v>23</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="24" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B25" s="22">
+      <c r="B25" s="21">
         <v>24</v>
       </c>
-      <c r="C25" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="F25" s="15"/>
+      <c r="C25" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="26" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B26" s="22">
+      <c r="B26" s="21">
         <v>25</v>
       </c>
-      <c r="C26" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="12" t="s">
+      <c r="C26" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B27" s="21">
+        <v>26</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="F26" s="15"/>
-    </row>
-    <row r="27" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B27" s="22">
-        <v>26</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="F27" s="15"/>
+      <c r="F27" s="24" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="28" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>27</v>
       </c>
-      <c r="C28" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="F28" s="15"/>
+      <c r="C28" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="29" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B29" s="22">
+      <c r="B29" s="21">
         <v>28</v>
       </c>
-      <c r="C29" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="12" t="s">
+      <c r="C29" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15.75" customHeight="1">
+      <c r="B30" s="21">
+        <v>29</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="F29" s="15"/>
-    </row>
-    <row r="30" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B30" s="22">
-        <v>29</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="F30" s="15"/>
+      <c r="F30" s="24" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B31" s="22">
+      <c r="B31" s="21">
         <v>30</v>
       </c>
-      <c r="C31" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F31" s="15"/>
+      <c r="C31" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B32" s="22">
+      <c r="B32" s="21">
         <v>31</v>
       </c>
-      <c r="C32" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="F32" s="15"/>
+      <c r="C32" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="33" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B33" s="22">
+      <c r="B33" s="21">
         <v>32</v>
       </c>
-      <c r="C33" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F33" s="15"/>
+      <c r="C33" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="34" spans="2:6" ht="15.75" customHeight="1">
-      <c r="B34" s="22">
+      <c r="B34" s="21">
         <v>33</v>
       </c>
-      <c r="C34" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="F34" s="15"/>
+      <c r="C34" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:F34">
@@ -6499,10 +6199,10 @@
   <dimension ref="B1:G976"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -6510,7 +6210,7 @@
     <col min="1" max="1" width="2.8984375" customWidth="1"/>
     <col min="2" max="2" width="7.8984375" customWidth="1"/>
     <col min="3" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="30.69921875" customWidth="1"/>
+    <col min="5" max="5" width="88.69921875" customWidth="1"/>
     <col min="6" max="6" width="13.3984375" customWidth="1"/>
     <col min="7" max="7" width="32.09765625" customWidth="1"/>
     <col min="8" max="22" width="7.59765625" customWidth="1"/>
@@ -6541,15 +6241,17 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="22" t="s">
+        <v>277</v>
+      </c>
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="2:7" ht="14.4">
@@ -6557,15 +6259,17 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>296</v>
+      </c>
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="2:7" ht="14.4">
@@ -6573,15 +6277,17 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>284</v>
+      </c>
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="2:7" ht="14.4">
@@ -6589,15 +6295,17 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>279</v>
+      </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="2:7" ht="14.4">
@@ -6605,15 +6313,17 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>288</v>
+      </c>
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="2:7" ht="14.4">
@@ -6621,15 +6331,17 @@
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>277</v>
+      </c>
       <c r="G7" s="11"/>
     </row>
     <row r="8" spans="2:7" ht="14.4">
@@ -6637,15 +6349,17 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>284</v>
+      </c>
       <c r="G8" s="11"/>
     </row>
     <row r="9" spans="2:7" ht="14.4">
@@ -6653,15 +6367,17 @@
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>262</v>
+      </c>
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="2:7" ht="14.4">
@@ -6669,15 +6385,17 @@
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>280</v>
+      </c>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="2:7" ht="14.4">
@@ -6685,15 +6403,17 @@
         <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>284</v>
+      </c>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="2:7" ht="14.4">
@@ -6701,15 +6421,17 @@
         <v>11</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>284</v>
+      </c>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="2:7" ht="14.4">
@@ -6717,15 +6439,17 @@
         <v>12</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>279</v>
+      </c>
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="2:7" ht="14.4">
@@ -6733,15 +6457,17 @@
         <v>13</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>277</v>
+      </c>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="2:7" ht="14.4">
@@ -6749,15 +6475,17 @@
         <v>14</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>282</v>
+      </c>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="2:7" ht="14.4">
@@ -6765,15 +6493,17 @@
         <v>15</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>297</v>
+      </c>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="2:7" ht="14.4">
@@ -6781,15 +6511,17 @@
         <v>16</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>276</v>
+      </c>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="2:7" ht="14.4">
@@ -6797,15 +6529,17 @@
         <v>17</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>270</v>
+      </c>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="2:7" ht="14.4">
@@ -6813,15 +6547,17 @@
         <v>18</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>298</v>
+      </c>
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1">
@@ -6829,15 +6565,17 @@
         <v>19</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="11"/>
+        <v>32</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>284</v>
+      </c>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="2:7" ht="15.75" customHeight="1">
@@ -6845,584 +6583,594 @@
         <v>20</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B22" s="13">
+        <v>21</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B22" s="14">
-        <v>21</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="16" t="s">
+      <c r="F22" s="24" t="s">
+        <v>262</v>
+      </c>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B23" s="13">
+        <v>22</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B23" s="14">
-        <v>22</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="16" t="s">
+      <c r="F23" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B24" s="13">
+        <v>23</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B24" s="14">
-        <v>23</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="F24" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>24</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="23" t="s">
+      <c r="C25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B26" s="23">
+        <v>1</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B27" s="23">
+        <v>2</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="G27" s="22"/>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B28" s="23">
+        <v>3</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="G28" s="22"/>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B29" s="23">
+        <v>4</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="G29" s="22"/>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B30" s="23">
+        <v>5</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="G30" s="22"/>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B31" s="23">
+        <v>6</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="G31" s="22"/>
+    </row>
+    <row r="32" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B32" s="23">
+        <v>7</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B33" s="23">
+        <v>8</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B34" s="23">
+        <v>9</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="G34" s="22"/>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B35" s="23">
+        <v>10</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="G35" s="22"/>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B36" s="23">
+        <v>11</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" s="22"/>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B37" s="23">
+        <v>12</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="G37" s="22"/>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B38" s="23">
+        <v>13</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="G38" s="22"/>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B39" s="23">
         <v>14</v>
       </c>
-      <c r="E25" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B26" s="24">
+      <c r="C39" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B40" s="23">
+        <v>15</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="G40" s="22"/>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B41" s="23">
         <v>1</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="F26" s="23">
+      <c r="C41" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="G41" s="22"/>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B42" s="23">
+        <v>2</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="G42" s="22"/>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B43" s="23">
+        <v>3</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B44" s="23">
+        <v>4</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G44" s="22"/>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B45" s="23">
+        <v>5</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G45" s="22"/>
+    </row>
+    <row r="46" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B46" s="23">
+        <v>6</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B47" s="23">
+        <v>7</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F47" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B48" s="23">
+        <v>8</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B49" s="23">
+        <v>9</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="F49" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="G49" s="22"/>
+    </row>
+    <row r="50" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B50" s="23">
         <v>10</v>
       </c>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B27" s="24">
-        <v>2</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="F27" s="23">
-        <v>20</v>
-      </c>
-      <c r="G27" s="23"/>
-    </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B28" s="24">
-        <v>3</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="F28" s="23">
-        <v>30</v>
-      </c>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B29" s="24">
-        <v>4</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="F29" s="23">
-        <v>40</v>
-      </c>
-      <c r="G29" s="23"/>
-    </row>
-    <row r="30" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B30" s="24">
-        <v>5</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="F30" s="23">
-        <v>50</v>
-      </c>
-      <c r="G30" s="23"/>
-    </row>
-    <row r="31" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B31" s="24">
-        <v>6</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="F31" s="23">
-        <v>60</v>
-      </c>
-      <c r="G31" s="23"/>
-    </row>
-    <row r="32" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B32" s="24">
-        <v>7</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>205</v>
-      </c>
-      <c r="F32" s="23">
-        <v>70</v>
-      </c>
-      <c r="G32" s="23"/>
-    </row>
-    <row r="33" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B33" s="24">
-        <v>8</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="F33" s="23">
-        <v>80</v>
-      </c>
-      <c r="G33" s="23"/>
-    </row>
-    <row r="34" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B34" s="24">
-        <v>9</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="F34" s="23">
-        <v>90</v>
-      </c>
-      <c r="G34" s="23"/>
-    </row>
-    <row r="35" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B35" s="24">
-        <v>10</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="F35" s="23">
-        <v>100</v>
-      </c>
-      <c r="G35" s="23"/>
-    </row>
-    <row r="36" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B36" s="24">
+      <c r="C50" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="F50" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B51" s="23">
         <v>11</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="F36" s="23">
-        <v>110</v>
-      </c>
-      <c r="G36" s="23"/>
-    </row>
-    <row r="37" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B37" s="24">
+      <c r="C51" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="F51" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B52" s="23">
         <v>12</v>
       </c>
-      <c r="C37" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>219</v>
-      </c>
-      <c r="F37" s="23">
-        <v>120</v>
-      </c>
-      <c r="G37" s="23"/>
-    </row>
-    <row r="38" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B38" s="24">
+      <c r="C52" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D52" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="F38" s="23">
-        <v>130</v>
-      </c>
-      <c r="G38" s="23"/>
-    </row>
-    <row r="39" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B39" s="24">
-        <v>14</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="F39" s="23">
-        <v>140</v>
-      </c>
-      <c r="G39" s="23"/>
-    </row>
-    <row r="40" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B40" s="24">
-        <v>15</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F40" s="23">
-        <v>150</v>
-      </c>
-      <c r="G40" s="23"/>
-    </row>
-    <row r="41" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B41" s="24">
-        <v>1</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="F41" s="23">
-        <v>10</v>
-      </c>
-      <c r="G41" s="23"/>
-    </row>
-    <row r="42" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B42" s="24">
-        <v>2</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="F42" s="23">
-        <v>20</v>
-      </c>
-      <c r="G42" s="23"/>
-    </row>
-    <row r="43" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B43" s="24">
-        <v>3</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="F43" s="23">
-        <v>30</v>
-      </c>
-      <c r="G43" s="23"/>
-    </row>
-    <row r="44" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B44" s="24">
-        <v>4</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>220</v>
-      </c>
-      <c r="F44" s="23">
-        <v>40</v>
-      </c>
-      <c r="G44" s="23"/>
-    </row>
-    <row r="45" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B45" s="24">
-        <v>5</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="F45" s="23">
-        <v>50</v>
-      </c>
-      <c r="G45" s="23"/>
-    </row>
-    <row r="46" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B46" s="24">
-        <v>6</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>226</v>
-      </c>
-      <c r="F46" s="23">
-        <v>60</v>
-      </c>
-      <c r="G46" s="23"/>
-    </row>
-    <row r="47" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B47" s="24">
-        <v>7</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D47" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="F47" s="23">
-        <v>70</v>
-      </c>
-      <c r="G47" s="23"/>
-    </row>
-    <row r="48" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B48" s="24">
-        <v>8</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="F48" s="23">
-        <v>80</v>
-      </c>
-      <c r="G48" s="23"/>
-    </row>
-    <row r="49" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B49" s="24">
-        <v>9</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D49" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="F49" s="23">
-        <v>90</v>
-      </c>
-      <c r="G49" s="23"/>
-    </row>
-    <row r="50" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B50" s="24">
-        <v>10</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D50" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="F50" s="23">
-        <v>100</v>
-      </c>
-      <c r="G50" s="23"/>
-    </row>
-    <row r="51" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B51" s="24">
-        <v>11</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" s="16" t="s">
+      <c r="E52" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="F51" s="23">
-        <v>110</v>
-      </c>
-      <c r="G51" s="23"/>
-    </row>
-    <row r="52" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B52" s="24">
-        <v>12</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="F52" s="23">
-        <v>120</v>
-      </c>
-      <c r="G52" s="23"/>
+      <c r="F52" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G52" s="22"/>
     </row>
     <row r="53" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B53" s="24">
+      <c r="B53" s="23">
         <v>13</v>
       </c>
-      <c r="C53" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="F53" s="23">
-        <v>130</v>
-      </c>
-      <c r="G53" s="23"/>
+      <c r="C53" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="G53" s="22"/>
     </row>
     <row r="54" spans="2:7" ht="15.75" customHeight="1"/>
     <row r="55" spans="2:7" ht="15.75" customHeight="1"/>
@@ -8360,7 +8108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -8372,294 +8120,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="30" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.4">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.4">
+      <c r="A3" s="21">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33">
+        <v>2</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.4">
+      <c r="A4" s="21">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33">
+        <v>3</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="14.4">
+      <c r="A5" s="21">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33">
+        <v>4</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.4">
-      <c r="A2" s="22">
-        <v>1</v>
-      </c>
-      <c r="B2" s="35">
-        <v>1</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="D5" s="34" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="14.4">
+      <c r="A6" s="21">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33">
+        <v>5</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="14.4">
+      <c r="A7" s="21">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33">
+        <v>6</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.4">
-      <c r="A3" s="22">
-        <v>2</v>
-      </c>
-      <c r="B3" s="35">
-        <v>2</v>
-      </c>
-      <c r="C3" s="23" t="s">
+      <c r="D7" s="34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.4">
+      <c r="A8" s="21">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33">
+        <v>7</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="14.4">
+      <c r="A9" s="21">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33">
+        <v>8</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D9" s="34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.4">
+      <c r="A10" s="21">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33">
+        <v>9</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="14.4">
+      <c r="A11" s="21">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33">
+        <v>10</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.4">
+      <c r="A12" s="21">
+        <v>11</v>
+      </c>
+      <c r="B12" s="33">
+        <v>11</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="14.4">
+      <c r="A13" s="21">
+        <v>12</v>
+      </c>
+      <c r="B13" s="33">
+        <v>12</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.4">
+      <c r="A14" s="21">
+        <v>13</v>
+      </c>
+      <c r="B14" s="33">
+        <v>13</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="14.4">
+      <c r="A15" s="21">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33">
+        <v>14</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="14.4">
+      <c r="A16" s="21">
+        <v>15</v>
+      </c>
+      <c r="B16" s="33">
+        <v>15</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14.4">
+      <c r="A17" s="21">
+        <v>16</v>
+      </c>
+      <c r="B17" s="33">
+        <v>16</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14.4">
+      <c r="A18" s="21">
+        <v>17</v>
+      </c>
+      <c r="B18" s="33">
+        <v>17</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14.4">
+      <c r="A19" s="21">
+        <v>18</v>
+      </c>
+      <c r="B19" s="33">
+        <v>18</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19" s="34" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.4">
-      <c r="A4" s="22">
-        <v>3</v>
-      </c>
-      <c r="B4" s="35">
-        <v>3</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="14.4">
-      <c r="A5" s="22">
-        <v>4</v>
-      </c>
-      <c r="B5" s="35">
-        <v>4</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="14.4">
-      <c r="A6" s="22">
-        <v>5</v>
-      </c>
-      <c r="B6" s="35">
-        <v>5</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="14.4">
-      <c r="A7" s="22">
-        <v>6</v>
-      </c>
-      <c r="B7" s="35">
-        <v>6</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="14.4">
-      <c r="A8" s="22">
-        <v>7</v>
-      </c>
-      <c r="B8" s="35">
-        <v>7</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="14.4">
-      <c r="A9" s="22">
-        <v>8</v>
-      </c>
-      <c r="B9" s="35">
-        <v>8</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="14.4">
-      <c r="A10" s="22">
-        <v>9</v>
-      </c>
-      <c r="B10" s="35">
-        <v>9</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.4">
-      <c r="A11" s="22">
-        <v>10</v>
-      </c>
-      <c r="B11" s="35">
-        <v>10</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="14.4">
-      <c r="A12" s="22">
-        <v>11</v>
-      </c>
-      <c r="B12" s="35">
-        <v>11</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="14.4">
-      <c r="A13" s="22">
-        <v>12</v>
-      </c>
-      <c r="B13" s="35">
-        <v>12</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="14.4">
-      <c r="A14" s="22">
-        <v>13</v>
-      </c>
-      <c r="B14" s="35">
-        <v>13</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="14.4">
-      <c r="A15" s="22">
-        <v>14</v>
-      </c>
-      <c r="B15" s="35">
-        <v>14</v>
-      </c>
-      <c r="C15" s="23" t="s">
+    <row r="20" spans="1:4" ht="14.4">
+      <c r="A20" s="21">
+        <v>19</v>
+      </c>
+      <c r="B20" s="33">
+        <v>19</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="14.4">
-      <c r="A16" s="22">
-        <v>15</v>
-      </c>
-      <c r="B16" s="35">
-        <v>15</v>
-      </c>
-      <c r="C16" s="23" t="s">
+      <c r="D20" s="34" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14.4">
+      <c r="A21" s="21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="33">
+        <v>20</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="14.4">
-      <c r="A17" s="22">
-        <v>16</v>
-      </c>
-      <c r="B17" s="35">
-        <v>16</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14.4">
-      <c r="A18" s="22">
-        <v>17</v>
-      </c>
-      <c r="B18" s="35">
-        <v>17</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="14.4">
-      <c r="A19" s="22">
-        <v>18</v>
-      </c>
-      <c r="B19" s="35">
-        <v>18</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="14.4">
-      <c r="A20" s="22">
-        <v>19</v>
-      </c>
-      <c r="B20" s="35">
-        <v>19</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="14.4">
-      <c r="A21" s="22">
-        <v>20</v>
-      </c>
-      <c r="B21" s="35">
-        <v>20</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>272</v>
+      <c r="D21" s="34" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/00_assignment/0. Data structures programs/MCS_001_Data Structures_Algorithms.xlsx
+++ b/00_assignment/0. Data structures programs/MCS_001_Data Structures_Algorithms.xlsx
@@ -1169,7 +1169,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3107,10 +3107,10 @@
   <dimension ref="A1:H1280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomRight" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -3986,7 +3986,7 @@
       <c r="C51" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="27" t="s">
         <v>115</v>
       </c>
       <c r="E51" s="4" t="s">
@@ -4156,7 +4156,7 @@
       <c r="C61" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="27" t="s">
         <v>144</v>
       </c>
       <c r="E61" s="4" t="s">
@@ -4173,7 +4173,7 @@
       <c r="C62" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="27" t="s">
         <v>148</v>
       </c>
       <c r="E62" s="4" t="s">
@@ -4190,7 +4190,7 @@
       <c r="C63" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="27" t="s">
         <v>150</v>
       </c>
       <c r="E63" s="4" t="s">
@@ -4207,7 +4207,7 @@
       <c r="C64" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="27" t="s">
         <v>154</v>
       </c>
       <c r="E64" s="4" t="s">
@@ -4224,7 +4224,7 @@
       <c r="C65" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="27" t="s">
         <v>156</v>
       </c>
       <c r="E65" s="4" t="s">
@@ -4241,7 +4241,7 @@
       <c r="C66" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="27" t="s">
         <v>157</v>
       </c>
       <c r="E66" s="4" t="s">
@@ -4258,7 +4258,7 @@
       <c r="C67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="27" t="s">
         <v>160</v>
       </c>
       <c r="E67" s="4" t="s">
@@ -4275,7 +4275,7 @@
       <c r="C68" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="27" t="s">
         <v>163</v>
       </c>
       <c r="E68" s="4" t="s">
@@ -4292,7 +4292,7 @@
       <c r="C69" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="27" t="s">
         <v>167</v>
       </c>
       <c r="E69" s="4" t="s">
@@ -4309,7 +4309,7 @@
       <c r="C70" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="27" t="s">
         <v>169</v>
       </c>
       <c r="E70" s="4" t="s">
@@ -4326,7 +4326,7 @@
       <c r="C71" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="27" t="s">
         <v>171</v>
       </c>
       <c r="E71" s="4" t="s">
@@ -4343,7 +4343,7 @@
       <c r="C72" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="27" t="s">
         <v>173</v>
       </c>
       <c r="E72" s="4" t="s">
@@ -4360,7 +4360,7 @@
       <c r="C73" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="27" t="s">
         <v>175</v>
       </c>
       <c r="E73" s="4" t="s">
@@ -4377,7 +4377,7 @@
       <c r="C74" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="27" t="s">
         <v>177</v>
       </c>
       <c r="E74" s="4" t="s">
@@ -4394,7 +4394,7 @@
       <c r="C75" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="27" t="s">
         <v>179</v>
       </c>
       <c r="E75" s="4" t="s">
@@ -4411,7 +4411,7 @@
       <c r="C76" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="27" t="s">
         <v>181</v>
       </c>
       <c r="E76" s="4" t="s">
